--- a/data/hotels_by_city/Dallas/Dallas_shard_450.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_450.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="329">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="377">
   <si>
     <t>STR#</t>
   </si>
@@ -150,6 +150,9 @@
     <t>response_text</t>
   </si>
   <si>
+    <t>LaTasha F</t>
+  </si>
+  <si>
     <t>06/14/2018</t>
   </si>
   <si>
@@ -180,6 +183,9 @@
     <t xml:space="preserve"> traveled on business</t>
   </si>
   <si>
+    <t>CamicaSalicco</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56567-d247114-r434303691-Inn_of_Rockwall-Rockwall_Texas.html</t>
   </si>
   <si>
@@ -204,6 +210,9 @@
     <t>My husband and I stayed here for just one night. We came down for a birthday party and just needed a cheap place to stay. Well I should have known better. 1st when we got there I was honestly afraid to leave anything in my car for fear of it being broken into. Then once I got in the office to check in, they were not very nice and it smelled horrible. Once we go the keys and got into the room it appeared to be clean. I (being who I am) started inspecting for bed bugs. Luckily there were no bed bugs, but then I look over at the wall and there is a cockroach just staring back at me. It was disgusting. I personally would not recommend anyone stay here unless it is a last resort.More</t>
   </si>
   <si>
+    <t>kyle c</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56567-d247114-r392656809-Inn_of_Rockwall-Rockwall_Texas.html</t>
   </si>
   <si>
@@ -225,6 +234,9 @@
     <t xml:space="preserve"> traveled as a couple</t>
   </si>
   <si>
+    <t>texaswoman65</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56567-d247114-r375939619-Inn_of_Rockwall-Rockwall_Texas.html</t>
   </si>
   <si>
@@ -244,6 +256,9 @@
   </si>
   <si>
     <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>Deubster</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56567-d247114-r374044824-Inn_of_Rockwall-Rockwall_Texas.html</t>
@@ -278,6 +293,9 @@
 - Bedding was questionable.  The sheets were incredibly thin, but at least they seemed clean.  Hard to tell about the spread, because it was also very dark. 3 fiberfill pillows on the king bed - they were...My wife and I stayed 3 nights (Fri-Mon, May 6-9, 2016) visiting relatives.  Didn't do much in the motel except sleep, so our experience was probably better than it might have been.  Check-in was quick and painless, even though the desk clerk was rather grumpy. I had contact with 3 staff members - male and female desk clerks (I think they were married) and a female maid with poor command of English (she appeared tired and overworked but was pleasant).The Good: - The bed was comfortable.  Relatively firm, no sagging.  A good night's sleep.- There was zero noise from adjacent rooms, even though both were occupied.  All noise was from the parking lot through the large window, and that only happened in the mornings after we'd awakened.- The AC/heater unit on the outside wall was quiet, maintained the temperature well, and had no foul smells. This combination is hard to find in a budget motel.The Bad:- The room was dark, dark, dark.  Deep chocolate carpet and the lowest wattage CFL bulbs mad it difficult to see for the several minutes of waiting for the bulbs to warm up, and not much better once they were at full luminosity.- Bedding was questionable.  The sheets were incredibly thin, but at least they seemed clean.  Hard to tell about the spread, because it was also very dark. 3 fiberfill pillows on the king bed - they were just OK.- Hard to tell how clean the room was (hard to see it in the dark), but it had a strong odor of cleaning products.- The tub/shower enclosure had the rattiest looking stained cloth shower curtain I've ever seen.  At least it was on a bowed-out rod so it wouldn't contact my body.- I've never been to a motel, no matter how cheap, that didn't have some bath amenities, even Suave shampoo, conditioner, a bath and hand soap.  Not here. One small bar of soap - that's it.  Of course, we brought our own stuff, but still ...- The TV was a 32" Dynex (BestBuy house brand) with a blurry picture.  Of course, there was no guide to local channels, so it took some effort to find HLN in the morning or the NBA playoff game one evening (this was barely watchable).- The towels were the thinnest, scratchiest I've ever seen.  Like drying with a loofah. Worse than the towels at my gym, much worse.- Breakfast was a joke.  2 cereals (Frosted Flakes and Raisin Bran), milk, apple and orange juices, coffee, toast (white or wheat), toaster waffles, Activia yogurt. No fruit, no proteins, no pastries.- the shower head was a low-flow, non-adjustable type.  Pretty anemic, but at least it didn't vary in intensity or temperature.  If you are 6' tall, the shower head is at eye level and the bathroom ceiling is about 4 inches above your head.All in all, it was adequate for our stay, since we mainly slept there. Felt sorry for the maid, as she seemed seriously overworked. The motel is on the north side of I-30, which makes it easy to get to from the East, not so easy to reach from the West (you either go a mile past, cross over and come back, or take the nearest exit and wind through several streets).More</t>
   </si>
   <si>
+    <t>Keith W</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56567-d247114-r368110508-Inn_of_Rockwall-Rockwall_Texas.html</t>
   </si>
   <si>
@@ -296,6 +314,9 @@
     <t>April 2016</t>
   </si>
   <si>
+    <t>Ricky B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56567-d247114-r363025524-Inn_of_Rockwall-Rockwall_Texas.html</t>
   </si>
   <si>
@@ -314,6 +335,9 @@
     <t>The first desk was blah. I reserved a downstairs non smoking. I got here a hour after check in and was told I would have to wait for a downstairs room to be clean or choose a upstairs. I choose the upstairs room so I don't have to wait. The room was clean...bathroom too. Flat screen TV had very few selections. Bed was really firm but comfortable.Noise from 30 did not bother me....I slept good. They do have room for big truck parking and.other large vehicles. The Super Start been breakfast Super 8 requires all Super 8s to put out the minium of fresh made waffles....fresh fruit..yogurt... 2 cereals....packaged pastry's... 2 juice and coffee......here there was one cereal.... Toast....hot OJ and hot Apple juice.....and one cereal. Overall I don't think I'll stay here again. There is a much more modern Super 8 about 15 miles down the road in Garland TX hat follows the rules.....happy traveling.More</t>
   </si>
   <si>
+    <t>Damien T</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56567-d247114-r339972840-Inn_of_Rockwall-Rockwall_Texas.html</t>
   </si>
   <si>
@@ -335,6 +359,9 @@
     <t>I have been traveling for work all over the country. Been doing it for apx 2yrs, I stay in hotels, motels, and Inns about 75% of the time. This particular Super 8 is fairly nice. My room was clean #212 the beds are comfortable, and the front desk was helpful. ***( For those who are looking for a better rate on hotels, resorts, Inns, etc. You need to join the hotel rewards program, its free and only takes apx 5min. This is free advice from someone who stays in hotels of all types very often. I'm just tired of seeing reviews by entitled whiner's, who think they should get a 4-5star experience from a 2star venue.)More</t>
   </si>
   <si>
+    <t>Rudy U</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56567-d247114-r328206031-Inn_of_Rockwall-Rockwall_Texas.html</t>
   </si>
   <si>
@@ -356,6 +383,9 @@
     <t xml:space="preserve"> traveled with family</t>
   </si>
   <si>
+    <t>Erin483</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56567-d247114-r321424779-Inn_of_Rockwall-Rockwall_Texas.html</t>
   </si>
   <si>
@@ -377,6 +407,9 @@
     <t>I needed a room for a night in Rockwall. Not vacation or anything and all other hotels were around the $100 a night mark and I didn't want to pay that. I got there well after check-in (9 pm-ish) and it took all of 2 minutes to get my room key. I asked for non-smoking but the room had a musty type smell. It had been updated but done pretty shotty. The toilet was crooked and a bolt looked loose and I don't think the faucet was even bolted on the sink. Both worked though. Bed was comfy and very soft, if you prefer a firm mattress you won't like it. Room was clean. Could hear some people outside partying or something all night but there's really nothing the motel can do about that and I didn't complain.  Would stay there again. More</t>
   </si>
   <si>
+    <t>Andrea B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56567-d247114-r319927475-Inn_of_Rockwall-Rockwall_Texas.html</t>
   </si>
   <si>
@@ -392,6 +425,9 @@
     <t>I usually stay at Super 8 because I am usually very happy with what I get. The desk clerk was very nice but when I went to my room, the door was open and there were dirty towels on the floor and sink. I went back and got another room and the clerk was very apologetic. The beds in the second room looked like someone had been lying on them but it was so late that we just stayed. Cleanliness definitely an issue at this property.</t>
   </si>
   <si>
+    <t>alexiskarpinski</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56567-d247114-r314538151-Inn_of_Rockwall-Rockwall_Texas.html</t>
   </si>
   <si>
@@ -410,6 +446,9 @@
     <t>September 2015</t>
   </si>
   <si>
+    <t>grannyspt</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56567-d247114-r310817136-Inn_of_Rockwall-Rockwall_Texas.html</t>
   </si>
   <si>
@@ -425,6 +464,9 @@
     <t>had driven from Little Rock, Ark. . got near Rockwall, Tx. &amp; there was work on I-30 for a while. when it opened up was so tired. saw a Super 8 &amp; decided time to stop... I have NEVER had a bed that was soooo comfortable. it was hard leaving  but was starting trip to W. coast .. planning a long weekend sometimes.it was a great area.  water to play in- lots stores to shop !!!!</t>
   </si>
   <si>
+    <t>Kylie W</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56567-d247114-r305481923-Inn_of_Rockwall-Rockwall_Texas.html</t>
   </si>
   <si>
@@ -443,6 +485,9 @@
     <t>June 2015</t>
   </si>
   <si>
+    <t>jmeunderwood</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56567-d247114-r294765375-Inn_of_Rockwall-Rockwall_Texas.html</t>
   </si>
   <si>
@@ -458,6 +503,9 @@
     <t>This is a freaking roach motel, do not stay here. No trash can not enough towels or wash cloths. Holes in the walls they say their beds are queen size and they are not they are full size and the sheets and blankets don't fit the beds and are stained. This place should be bulldozed down I want my freaking money back!!!</t>
   </si>
   <si>
+    <t>Cdav2TX</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56567-d247114-r286657364-Inn_of_Rockwall-Rockwall_Texas.html</t>
   </si>
   <si>
@@ -476,6 +524,9 @@
     <t>July 2015</t>
   </si>
   <si>
+    <t>Elyssia B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56567-d247114-r285944024-Inn_of_Rockwall-Rockwall_Texas.html</t>
   </si>
   <si>
@@ -494,6 +545,9 @@
     <t>I had been on the road driving all day and needed to find a place to stop and rest for the night I chose the super 8 because I had stayed at other super 8 locations before and they were 99 percent of the time clean and we'll maintained..that however was not the case for this location. To start off the door was sticking to my room after having to go back to the front desk and get a new set of keys I found out it was just the way the door was and had practically dislocate my shoulder to get it open The curtains in the room were stained, there were dead bugs in the air conditioning unit which I guess on the positive side they were dead..the nightstand when I opened the drawer to get the tv remote was nasty, the bathroom and pubic hair laying on the floor. My family's room was in worse shape than mine just as dirty but the bathroom door had a hole in it which looked like someone tried to put there fist into it also pubic hair on the bathroom floor and the light fixture cover was hanging off over the tub, I can deal with a hotel needing some updating but for the price they wanted for the room I got ripped off big time this place needs a serious overhaul and new housekeeping staff!More</t>
   </si>
   <si>
+    <t>John N</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56567-d247114-r283256733-Inn_of_Rockwall-Rockwall_Texas.html</t>
   </si>
   <si>
@@ -512,6 +566,9 @@
     <t>We stayed two days, June 5th and 6h, 2015 at the Super 8 in Rockwall, TX.I stay in quite a few Super 8 as I travel for work. This is the worst one I've ever experiened. My wife was not impressed either.  I don't believe I ever saw two of the three people who manned the front desk crack a smile.      1. The juices, apple and orange, were old. The apple looked and tasted fermented.      2.The bathroom lighting was very poor for putting on make-up.      3. The fosset and toilet were loose.      4. I asked the lady at the desk to check the buzzing on the Fox News Channel. She said she would but never did.       This Super 8 is not up to par on Super 8 standards. We have family down there and we will not plan on staying at the Rockwall Super 8 again unless it's indicated correct changes have been implemented.More</t>
   </si>
   <si>
+    <t>Laura W</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56567-d247114-r265822351-Inn_of_Rockwall-Rockwall_Texas.html</t>
   </si>
   <si>
@@ -530,6 +587,9 @@
     <t>April 2015</t>
   </si>
   <si>
+    <t>shhparents</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56567-d247114-r262481949-Inn_of_Rockwall-Rockwall_Texas.html</t>
   </si>
   <si>
@@ -548,6 +608,9 @@
     <t>March 2015</t>
   </si>
   <si>
+    <t>Walter W</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56567-d247114-r258853243-Inn_of_Rockwall-Rockwall_Texas.html</t>
   </si>
   <si>
@@ -560,6 +623,9 @@
     <t>February 2015</t>
   </si>
   <si>
+    <t>Donald O</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56567-d247114-r253242302-Inn_of_Rockwall-Rockwall_Texas.html</t>
   </si>
   <si>
@@ -569,6 +635,9 @@
     <t>02/08/2015</t>
   </si>
   <si>
+    <t>Richard C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56567-d247114-r249936041-Inn_of_Rockwall-Rockwall_Texas.html</t>
   </si>
   <si>
@@ -587,6 +656,9 @@
     <t>January 2015</t>
   </si>
   <si>
+    <t>Benjamin B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56567-d247114-r242014823-Inn_of_Rockwall-Rockwall_Texas.html</t>
   </si>
   <si>
@@ -605,6 +677,9 @@
     <t>November 2014</t>
   </si>
   <si>
+    <t>Michael D</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56567-d247114-r240071058-Inn_of_Rockwall-Rockwall_Texas.html</t>
   </si>
   <si>
@@ -623,6 +698,9 @@
     <t>October 2014</t>
   </si>
   <si>
+    <t>Linda L</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56567-d247114-r224903334-Inn_of_Rockwall-Rockwall_Texas.html</t>
   </si>
   <si>
@@ -635,6 +713,9 @@
     <t>July 2014</t>
   </si>
   <si>
+    <t>PerryLinTX</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56567-d247114-r221372304-Inn_of_Rockwall-Rockwall_Texas.html</t>
   </si>
   <si>
@@ -653,6 +734,9 @@
     <t>August 2014</t>
   </si>
   <si>
+    <t>Tracey G</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56567-d247114-r215584836-Inn_of_Rockwall-Rockwall_Texas.html</t>
   </si>
   <si>
@@ -671,6 +755,9 @@
     <t>My husband and I were staying in Rockwall for a week and we were on a budget, so we chose this motel before we got to town. As we were pulling in, my husband said, "I've got a bad feeling about this place." But the price was right, so we checked in and went to our room. Going up the stairs to the room, we saw some sketchy people who were drying loads of clothes by hanging them on the side of a truck. It actually looked like people were living in some of these rooms. Anyway, we got a non-smoking room, but it is clearly not enforced. The room smelled horribly of smoke and stale cigs; there were burn holes all over the comforter. I pulled back the nasty comforter expecting to see bedbugs running rampant (none that I could see, though, thankfully) and there were huge yellowish stains on the very dingy-looking sheets. And a moth flew out of the sheets, lol. The lamp didn't work, so the room was dark, except for the beam of light that came through the crack of the motel room door. The door didn't close all the way, so any weirdo could just peek right through. We weren't there more than 15 minutes before we both agreed that you get what you pay for and that the price for this room was not worth the cooties! We went downstairs to get a...My husband and I were staying in Rockwall for a week and we were on a budget, so we chose this motel before we got to town. As we were pulling in, my husband said, "I've got a bad feeling about this place." But the price was right, so we checked in and went to our room. Going up the stairs to the room, we saw some sketchy people who were drying loads of clothes by hanging them on the side of a truck. It actually looked like people were living in some of these rooms. Anyway, we got a non-smoking room, but it is clearly not enforced. The room smelled horribly of smoke and stale cigs; there were burn holes all over the comforter. I pulled back the nasty comforter expecting to see bedbugs running rampant (none that I could see, though, thankfully) and there were huge yellowish stains on the very dingy-looking sheets. And a moth flew out of the sheets, lol. The lamp didn't work, so the room was dark, except for the beam of light that came through the crack of the motel room door. The door didn't close all the way, so any weirdo could just peek right through. We weren't there more than 15 minutes before we both agreed that you get what you pay for and that the price for this room was not worth the cooties! We went downstairs to get a refund and explain that we were taking our business elsewhere, and the man who helped me asked if anything was wrong with the room. I went down the list and he just shrugged and said, "Ok." We left in a quick hurry and checked into the La Quinta down the street, which was absolutely fantastic. Stay away from this Super 8 at all costs!More</t>
   </si>
   <si>
+    <t>evinrudejim</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56567-d247114-r214401519-Inn_of_Rockwall-Rockwall_Texas.html</t>
   </si>
   <si>
@@ -689,6 +776,9 @@
     <t>May 2014</t>
   </si>
   <si>
+    <t>928Abbie</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56567-d247114-r212804097-Inn_of_Rockwall-Rockwall_Texas.html</t>
   </si>
   <si>
@@ -707,6 +797,9 @@
     <t>June 2014</t>
   </si>
   <si>
+    <t>Leslie A</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56567-d247114-r169815653-Inn_of_Rockwall-Rockwall_Texas.html</t>
   </si>
   <si>
@@ -725,6 +818,9 @@
     <t>June 2013</t>
   </si>
   <si>
+    <t>169Cindy</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56567-d247114-r164614507-Inn_of_Rockwall-Rockwall_Texas.html</t>
   </si>
   <si>
@@ -740,6 +836,9 @@
     <t>hard to get in the room, desk clerk doesn't know english well, hard to get towels,etc., had to kill bugs for half an hour before we slept, clerk wouldn't change rooms for us, didn't understand what we were saying, bad water pressure, found dead bugs in dresser, cable tv not working good, parking not that good, room smelly, breakfast bar pathetic, no restaurants in walking distance.</t>
   </si>
   <si>
+    <t>aislyn g</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56567-d247114-r158139287-Inn_of_Rockwall-Rockwall_Texas.html</t>
   </si>
   <si>
@@ -761,6 +860,9 @@
     <t>I stayed here last night 4/18/13. The rooms were $60 a night which I thought was a little expensive for what they were supplying. I went into my room 203 where the light did not turn on then when I stumbled to find a lamp there were cigarette butts in ashtrays all over the rooms with cups filled with a mysterious yellow liquid and the bed was still messed up from the last person who stayed here.  I went back down stairs  ohh. yea sorry about that heres another room was all that was said.. I was not enthused. The second room was ten times better but the floors feel grimey, the towel hanger in the bathroom was broken off and the a/c took about 3 hours to feel like it was on and working.More</t>
   </si>
   <si>
+    <t>boo7144</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56567-d247114-r152388314-Inn_of_Rockwall-Rockwall_Texas.html</t>
   </si>
   <si>
@@ -779,6 +881,9 @@
     <t>September 2012</t>
   </si>
   <si>
+    <t>kevin p</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56567-d247114-r149273543-Inn_of_Rockwall-Rockwall_Texas.html</t>
   </si>
   <si>
@@ -797,6 +902,9 @@
     <t>January 2013</t>
   </si>
   <si>
+    <t>RODOLFO S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56567-d247114-r145983667-Inn_of_Rockwall-Rockwall_Texas.html</t>
   </si>
   <si>
@@ -815,6 +923,9 @@
     <t>October 2012</t>
   </si>
   <si>
+    <t>HERBERT H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56567-d247114-r143293496-Inn_of_Rockwall-Rockwall_Texas.html</t>
   </si>
   <si>
@@ -830,6 +941,9 @@
     <t xml:space="preserve">Don't have anyright now.  We enjoyed our room.  the room was clean, the only problem was that there is an light space between the door jamb and the door,  </t>
   </si>
   <si>
+    <t>SM974</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56567-d247114-r132373735-Inn_of_Rockwall-Rockwall_Texas.html</t>
   </si>
   <si>
@@ -848,6 +962,9 @@
     <t>June 2012</t>
   </si>
   <si>
+    <t>rn7100</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56567-d247114-r130922935-Inn_of_Rockwall-Rockwall_Texas.html</t>
   </si>
   <si>
@@ -857,6 +974,9 @@
     <t>May 29, 2012</t>
   </si>
   <si>
+    <t>Whitley A</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56567-d247114-r124944469-Inn_of_Rockwall-Rockwall_Texas.html</t>
   </si>
   <si>
@@ -869,6 +989,9 @@
     <t>February 2012</t>
   </si>
   <si>
+    <t>Carolg903</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56567-d247114-r18608714-Inn_of_Rockwall-Rockwall_Texas.html</t>
   </si>
   <si>
@@ -887,6 +1010,9 @@
     <t>January 2008</t>
   </si>
   <si>
+    <t>TracyLeagueCityTx</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56567-d247114-r16923991-Inn_of_Rockwall-Rockwall_Texas.html</t>
   </si>
   <si>
@@ -905,6 +1031,9 @@
     <t>June 2008</t>
   </si>
   <si>
+    <t>charley62</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56567-d247114-r7550815-Inn_of_Rockwall-Rockwall_Texas.html</t>
   </si>
   <si>
@@ -923,6 +1052,9 @@
     <t>We knew something was wrong when our room keys had a post-it note on them to tell us our room number.  Not the place to arrive in the middle of a trip, at night and needing rest.  I don't know what happened to this place but we stayed there one hour and got the heck out of there.  Dirty, noisy, greasy, stinky room.  Locks on door that did not work, construction zone all around us so the dirt was everywhere.  Internet was unusable because they put us on far end of hotel and the router did not reach that far.  Refused to fix anything so I had to rely on Hotwire to refund the money.  Maybe this place was great in the past, or will be in the future, but I sure would not stay there at all right now.More</t>
   </si>
   <si>
+    <t>John D</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56567-d247114-r584850149-Inn_of_Rockwall-Rockwall_Texas.html</t>
   </si>
   <si>
@@ -941,6 +1073,9 @@
     <t>June 2018</t>
   </si>
   <si>
+    <t>Jennifer J</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56567-d247114-r545564128-Inn_of_Rockwall-Rockwall_Texas.html</t>
   </si>
   <si>
@@ -962,6 +1097,9 @@
     <t>My husband, daughter (11 yo) and I stayed here in December 2017.  For the price, it was exactly what we expected.  The rooms had been redone recently, new carpets, paint, and beds.  The beds were very comfortable.  The outside has also been painted.  They didn't update the showers, however, and could use new ones.  And the lobby/check-in haven't been redone.  Don't let that scare you about the rooms.  The rooms were clean, had a micro, small refrigerator, etc.The TV channels were very limited.  Since we were visiting family and had little reason to be in the room, this was not a problem for us.  Overall we had no complaints.  We knew we weren't staying in a five-star hotel.  Would I stay here again?  For the price, indeed I would.Hope this helps.More</t>
   </si>
   <si>
+    <t>Paula R</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56567-d247114-r528768456-Inn_of_Rockwall-Rockwall_Texas.html</t>
   </si>
   <si>
@@ -980,6 +1118,9 @@
     <t>September 2017</t>
   </si>
   <si>
+    <t>Betty F</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56567-d247114-r509628119-Inn_of_Rockwall-Rockwall_Texas.html</t>
   </si>
   <si>
@@ -999,6 +1140,9 @@
   </si>
   <si>
     <t>Looked up hotels prior to going to Plano to visit with my granddaughter. Wanted a place with a pool. Got there and paid for 2 nights. Room wasn't too bad then my girls were ready to swim....they had a pool alright with a tarp over it and I went to the office and asked the guy about the pool, all he could say was no pool. So the morning we were in the room and killed 2 spiders on the bed and then granddaughter was at the sink and a bigger one was on her shirt! Went down to have their "continental breakfast" and all they had was cereal and some toaster waffles. I got a couple and since there is no seating took it back to the room. Other granddaughter went and got her a couple and was eating it and said there is a black hair in this! Took it down and showed the guy. I had enough.....waited until 10am and this other girl came in to work and told her I wanted to check out and a refund for the 2nd night I had paid for.More</t>
+  </si>
+  <si>
+    <t>Lyyli M</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56567-d247114-r509055105-Inn_of_Rockwall-Rockwall_Texas.html</t>
@@ -1525,43 +1669,47 @@
       <c r="A2" t="n">
         <v>30871</v>
       </c>
-      <c r="B2" t="s"/>
-      <c r="C2" t="s"/>
+      <c r="B2" t="n">
+        <v>162718</v>
+      </c>
+      <c r="C2" t="s">
+        <v>44</v>
+      </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M2" t="n">
         <v>5</v>
       </c>
       <c r="N2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
@@ -1575,50 +1723,54 @@
       <c r="W2" t="s"/>
       <c r="X2" t="s"/>
       <c r="Y2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>30871</v>
       </c>
-      <c r="B3" t="s"/>
-      <c r="C3" t="s"/>
+      <c r="B3" t="n">
+        <v>162719</v>
+      </c>
+      <c r="C3" t="s">
+        <v>55</v>
+      </c>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F3" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="G3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="J3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="K3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="L3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="M3" t="n">
         <v>1</v>
       </c>
       <c r="N3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="O3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P3" t="n">
         <v>1</v>
@@ -1636,50 +1788,54 @@
       <c r="W3" t="s"/>
       <c r="X3" t="s"/>
       <c r="Y3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>30871</v>
       </c>
-      <c r="B4" t="s"/>
-      <c r="C4" t="s"/>
+      <c r="B4" t="n">
+        <v>162720</v>
+      </c>
+      <c r="C4" t="s">
+        <v>64</v>
+      </c>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F4" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="G4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I4" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="J4" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="K4" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="L4" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="M4" t="n">
         <v>1</v>
       </c>
       <c r="N4" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="O4" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="P4" t="n">
         <v>1</v>
@@ -1699,50 +1855,54 @@
       <c r="W4" t="s"/>
       <c r="X4" t="s"/>
       <c r="Y4" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>30871</v>
       </c>
-      <c r="B5" t="s"/>
-      <c r="C5" t="s"/>
+      <c r="B5" t="n">
+        <v>162721</v>
+      </c>
+      <c r="C5" t="s">
+        <v>72</v>
+      </c>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F5" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="G5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I5" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="J5" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="K5" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="L5" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="M5" t="n">
         <v>3</v>
       </c>
       <c r="N5" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="O5" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="P5" t="s"/>
       <c r="Q5" t="n">
@@ -1762,50 +1922,54 @@
       <c r="W5" t="s"/>
       <c r="X5" t="s"/>
       <c r="Y5" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>30871</v>
       </c>
-      <c r="B6" t="s"/>
-      <c r="C6" t="s"/>
+      <c r="B6" t="n">
+        <v>162722</v>
+      </c>
+      <c r="C6" t="s">
+        <v>80</v>
+      </c>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F6" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="G6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I6" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="J6" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="K6" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="L6" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="M6" t="n">
         <v>2</v>
       </c>
       <c r="N6" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="O6" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="P6" t="s"/>
       <c r="Q6" t="s"/>
@@ -1825,50 +1989,54 @@
       <c r="W6" t="s"/>
       <c r="X6" t="s"/>
       <c r="Y6" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>30871</v>
       </c>
-      <c r="B7" t="s"/>
-      <c r="C7" t="s"/>
+      <c r="B7" t="n">
+        <v>6707</v>
+      </c>
+      <c r="C7" t="s">
+        <v>87</v>
+      </c>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F7" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="G7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I7" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="J7" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="K7" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="L7" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="M7" t="n">
         <v>3</v>
       </c>
       <c r="N7" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="O7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P7" t="s"/>
       <c r="Q7" t="s"/>
@@ -1888,50 +2056,54 @@
       <c r="W7" t="s"/>
       <c r="X7" t="s"/>
       <c r="Y7" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>30871</v>
       </c>
-      <c r="B8" t="s"/>
-      <c r="C8" t="s"/>
+      <c r="B8" t="n">
+        <v>15251</v>
+      </c>
+      <c r="C8" t="s">
+        <v>94</v>
+      </c>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F8" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="G8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I8" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="J8" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="K8" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="L8" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="M8" t="n">
         <v>2</v>
       </c>
       <c r="N8" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="O8" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P8" t="s"/>
       <c r="Q8" t="s"/>
@@ -1945,50 +2117,54 @@
       <c r="W8" t="s"/>
       <c r="X8" t="s"/>
       <c r="Y8" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>30871</v>
       </c>
-      <c r="B9" t="s"/>
-      <c r="C9" t="s"/>
+      <c r="B9" t="n">
+        <v>162723</v>
+      </c>
+      <c r="C9" t="s">
+        <v>101</v>
+      </c>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F9" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="G9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I9" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="J9" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="K9" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="L9" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="M9" t="n">
         <v>3</v>
       </c>
       <c r="N9" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="O9" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="P9" t="s"/>
       <c r="Q9" t="s"/>
@@ -2002,50 +2178,54 @@
       <c r="W9" t="s"/>
       <c r="X9" t="s"/>
       <c r="Y9" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>30871</v>
       </c>
-      <c r="B10" t="s"/>
-      <c r="C10" t="s"/>
+      <c r="B10" t="n">
+        <v>162724</v>
+      </c>
+      <c r="C10" t="s">
+        <v>109</v>
+      </c>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F10" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="G10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I10" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="J10" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="K10" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="L10" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="M10" t="n">
         <v>3</v>
       </c>
       <c r="N10" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="O10" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="P10" t="s"/>
       <c r="Q10" t="s"/>
@@ -2059,50 +2239,54 @@
       <c r="W10" t="s"/>
       <c r="X10" t="s"/>
       <c r="Y10" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>30871</v>
       </c>
-      <c r="B11" t="s"/>
-      <c r="C11" t="s"/>
+      <c r="B11" t="n">
+        <v>162725</v>
+      </c>
+      <c r="C11" t="s">
+        <v>117</v>
+      </c>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F11" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="G11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I11" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="J11" t="s">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="K11" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="L11" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="M11" t="n">
         <v>3</v>
       </c>
       <c r="N11" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="O11" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="P11" t="s"/>
       <c r="Q11" t="s"/>
@@ -2116,50 +2300,54 @@
       <c r="W11" t="s"/>
       <c r="X11" t="s"/>
       <c r="Y11" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>30871</v>
       </c>
-      <c r="B12" t="s"/>
-      <c r="C12" t="s"/>
+      <c r="B12" t="n">
+        <v>4235</v>
+      </c>
+      <c r="C12" t="s">
+        <v>125</v>
+      </c>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F12" t="s">
-        <v>115</v>
+        <v>126</v>
       </c>
       <c r="G12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I12" t="s">
-        <v>116</v>
+        <v>127</v>
       </c>
       <c r="J12" t="s">
-        <v>117</v>
+        <v>128</v>
       </c>
       <c r="K12" t="s">
-        <v>118</v>
+        <v>129</v>
       </c>
       <c r="L12" t="s">
-        <v>119</v>
+        <v>130</v>
       </c>
       <c r="M12" t="n">
         <v>2</v>
       </c>
       <c r="N12" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="O12" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="P12" t="n">
         <v>2</v>
@@ -2183,50 +2371,54 @@
       <c r="W12" t="s"/>
       <c r="X12" t="s"/>
       <c r="Y12" t="s">
-        <v>119</v>
+        <v>130</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>30871</v>
       </c>
-      <c r="B13" t="s"/>
-      <c r="C13" t="s"/>
+      <c r="B13" t="n">
+        <v>162726</v>
+      </c>
+      <c r="C13" t="s">
+        <v>131</v>
+      </c>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F13" t="s">
-        <v>120</v>
+        <v>132</v>
       </c>
       <c r="G13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I13" t="s">
-        <v>121</v>
+        <v>133</v>
       </c>
       <c r="J13" t="s">
-        <v>122</v>
+        <v>134</v>
       </c>
       <c r="K13" t="s">
-        <v>123</v>
+        <v>135</v>
       </c>
       <c r="L13" t="s">
-        <v>124</v>
+        <v>136</v>
       </c>
       <c r="M13" t="n">
         <v>1</v>
       </c>
       <c r="N13" t="s">
-        <v>125</v>
+        <v>137</v>
       </c>
       <c r="O13" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="P13" t="s"/>
       <c r="Q13" t="s"/>
@@ -2240,50 +2432,54 @@
       <c r="W13" t="s"/>
       <c r="X13" t="s"/>
       <c r="Y13" t="s">
-        <v>124</v>
+        <v>136</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>30871</v>
       </c>
-      <c r="B14" t="s"/>
-      <c r="C14" t="s"/>
+      <c r="B14" t="n">
+        <v>162727</v>
+      </c>
+      <c r="C14" t="s">
+        <v>138</v>
+      </c>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F14" t="s">
-        <v>126</v>
+        <v>139</v>
       </c>
       <c r="G14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I14" t="s">
-        <v>127</v>
+        <v>140</v>
       </c>
       <c r="J14" t="s">
-        <v>128</v>
+        <v>141</v>
       </c>
       <c r="K14" t="s">
-        <v>129</v>
+        <v>142</v>
       </c>
       <c r="L14" t="s">
-        <v>130</v>
+        <v>143</v>
       </c>
       <c r="M14" t="n">
         <v>5</v>
       </c>
       <c r="N14" t="s">
-        <v>125</v>
+        <v>137</v>
       </c>
       <c r="O14" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P14" t="s"/>
       <c r="Q14" t="s"/>
@@ -2297,50 +2493,54 @@
       <c r="W14" t="s"/>
       <c r="X14" t="s"/>
       <c r="Y14" t="s">
-        <v>130</v>
+        <v>143</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>30871</v>
       </c>
-      <c r="B15" t="s"/>
-      <c r="C15" t="s"/>
+      <c r="B15" t="n">
+        <v>162728</v>
+      </c>
+      <c r="C15" t="s">
+        <v>144</v>
+      </c>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F15" t="s">
-        <v>131</v>
+        <v>145</v>
       </c>
       <c r="G15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H15" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I15" t="s">
-        <v>132</v>
+        <v>146</v>
       </c>
       <c r="J15" t="s">
-        <v>133</v>
+        <v>147</v>
       </c>
       <c r="K15" t="s">
-        <v>134</v>
+        <v>148</v>
       </c>
       <c r="L15" t="s">
-        <v>135</v>
+        <v>149</v>
       </c>
       <c r="M15" t="n">
         <v>4</v>
       </c>
       <c r="N15" t="s">
-        <v>136</v>
+        <v>150</v>
       </c>
       <c r="O15" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="P15" t="n">
         <v>4</v>
@@ -2364,41 +2564,45 @@
       <c r="W15" t="s"/>
       <c r="X15" t="s"/>
       <c r="Y15" t="s">
-        <v>135</v>
+        <v>149</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>30871</v>
       </c>
-      <c r="B16" t="s"/>
-      <c r="C16" t="s"/>
+      <c r="B16" t="n">
+        <v>162729</v>
+      </c>
+      <c r="C16" t="s">
+        <v>151</v>
+      </c>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F16" t="s">
-        <v>137</v>
+        <v>152</v>
       </c>
       <c r="G16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I16" t="s">
-        <v>138</v>
+        <v>153</v>
       </c>
       <c r="J16" t="s">
-        <v>139</v>
+        <v>154</v>
       </c>
       <c r="K16" t="s">
-        <v>140</v>
+        <v>155</v>
       </c>
       <c r="L16" t="s">
-        <v>141</v>
+        <v>156</v>
       </c>
       <c r="M16" t="n">
         <v>1</v>
@@ -2417,50 +2621,54 @@
       <c r="W16" t="s"/>
       <c r="X16" t="s"/>
       <c r="Y16" t="s">
-        <v>141</v>
+        <v>156</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>30871</v>
       </c>
-      <c r="B17" t="s"/>
-      <c r="C17" t="s"/>
+      <c r="B17" t="n">
+        <v>162730</v>
+      </c>
+      <c r="C17" t="s">
+        <v>157</v>
+      </c>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F17" t="s">
-        <v>142</v>
+        <v>158</v>
       </c>
       <c r="G17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H17" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I17" t="s">
-        <v>143</v>
+        <v>159</v>
       </c>
       <c r="J17" t="s">
-        <v>144</v>
+        <v>160</v>
       </c>
       <c r="K17" t="s">
-        <v>145</v>
+        <v>161</v>
       </c>
       <c r="L17" t="s">
-        <v>146</v>
+        <v>162</v>
       </c>
       <c r="M17" t="n">
         <v>3</v>
       </c>
       <c r="N17" t="s">
-        <v>147</v>
+        <v>163</v>
       </c>
       <c r="O17" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P17" t="s"/>
       <c r="Q17" t="s"/>
@@ -2474,50 +2682,54 @@
       <c r="W17" t="s"/>
       <c r="X17" t="s"/>
       <c r="Y17" t="s">
-        <v>146</v>
+        <v>162</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>30871</v>
       </c>
-      <c r="B18" t="s"/>
-      <c r="C18" t="s"/>
+      <c r="B18" t="n">
+        <v>162731</v>
+      </c>
+      <c r="C18" t="s">
+        <v>164</v>
+      </c>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F18" t="s">
-        <v>148</v>
+        <v>165</v>
       </c>
       <c r="G18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I18" t="s">
-        <v>149</v>
+        <v>166</v>
       </c>
       <c r="J18" t="s">
-        <v>150</v>
+        <v>167</v>
       </c>
       <c r="K18" t="s">
-        <v>151</v>
+        <v>168</v>
       </c>
       <c r="L18" t="s">
-        <v>152</v>
+        <v>169</v>
       </c>
       <c r="M18" t="n">
         <v>1</v>
       </c>
       <c r="N18" t="s">
-        <v>147</v>
+        <v>163</v>
       </c>
       <c r="O18" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="P18" t="s"/>
       <c r="Q18" t="s"/>
@@ -2531,50 +2743,54 @@
       <c r="W18" t="s"/>
       <c r="X18" t="s"/>
       <c r="Y18" t="s">
-        <v>153</v>
+        <v>170</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>30871</v>
       </c>
-      <c r="B19" t="s"/>
-      <c r="C19" t="s"/>
+      <c r="B19" t="n">
+        <v>6545</v>
+      </c>
+      <c r="C19" t="s">
+        <v>171</v>
+      </c>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F19" t="s">
-        <v>154</v>
+        <v>172</v>
       </c>
       <c r="G19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H19" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I19" t="s">
-        <v>155</v>
+        <v>173</v>
       </c>
       <c r="J19" t="s">
-        <v>156</v>
+        <v>174</v>
       </c>
       <c r="K19" t="s">
-        <v>157</v>
+        <v>175</v>
       </c>
       <c r="L19" t="s">
-        <v>158</v>
+        <v>176</v>
       </c>
       <c r="M19" t="n">
         <v>1</v>
       </c>
       <c r="N19" t="s">
-        <v>136</v>
+        <v>150</v>
       </c>
       <c r="O19" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="P19" t="n">
         <v>1</v>
@@ -2592,50 +2808,54 @@
       <c r="W19" t="s"/>
       <c r="X19" t="s"/>
       <c r="Y19" t="s">
-        <v>159</v>
+        <v>177</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>30871</v>
       </c>
-      <c r="B20" t="s"/>
-      <c r="C20" t="s"/>
+      <c r="B20" t="n">
+        <v>27764</v>
+      </c>
+      <c r="C20" t="s">
+        <v>178</v>
+      </c>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F20" t="s">
-        <v>160</v>
+        <v>179</v>
       </c>
       <c r="G20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H20" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I20" t="s">
-        <v>161</v>
+        <v>180</v>
       </c>
       <c r="J20" t="s">
-        <v>162</v>
+        <v>181</v>
       </c>
       <c r="K20" t="s">
-        <v>163</v>
+        <v>182</v>
       </c>
       <c r="L20" t="s">
-        <v>164</v>
+        <v>183</v>
       </c>
       <c r="M20" t="n">
         <v>3</v>
       </c>
       <c r="N20" t="s">
-        <v>165</v>
+        <v>184</v>
       </c>
       <c r="O20" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="P20" t="n">
         <v>3</v>
@@ -2659,50 +2879,54 @@
       <c r="W20" t="s"/>
       <c r="X20" t="s"/>
       <c r="Y20" t="s">
-        <v>164</v>
+        <v>183</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>30871</v>
       </c>
-      <c r="B21" t="s"/>
-      <c r="C21" t="s"/>
+      <c r="B21" t="n">
+        <v>132363</v>
+      </c>
+      <c r="C21" t="s">
+        <v>185</v>
+      </c>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F21" t="s">
-        <v>166</v>
+        <v>186</v>
       </c>
       <c r="G21" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H21" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I21" t="s">
-        <v>167</v>
+        <v>187</v>
       </c>
       <c r="J21" t="s">
-        <v>168</v>
+        <v>188</v>
       </c>
       <c r="K21" t="s">
-        <v>169</v>
+        <v>189</v>
       </c>
       <c r="L21" t="s">
-        <v>170</v>
+        <v>190</v>
       </c>
       <c r="M21" t="n">
         <v>4</v>
       </c>
       <c r="N21" t="s">
-        <v>171</v>
+        <v>191</v>
       </c>
       <c r="O21" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="P21" t="s"/>
       <c r="Q21" t="s"/>
@@ -2716,35 +2940,39 @@
       <c r="W21" t="s"/>
       <c r="X21" t="s"/>
       <c r="Y21" t="s">
-        <v>170</v>
+        <v>190</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>30871</v>
       </c>
-      <c r="B22" t="s"/>
-      <c r="C22" t="s"/>
+      <c r="B22" t="n">
+        <v>18091</v>
+      </c>
+      <c r="C22" t="s">
+        <v>192</v>
+      </c>
       <c r="D22" t="n">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F22" t="s">
-        <v>172</v>
+        <v>193</v>
       </c>
       <c r="G22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H22" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I22" t="s">
-        <v>173</v>
+        <v>194</v>
       </c>
       <c r="J22" t="s">
-        <v>174</v>
+        <v>195</v>
       </c>
       <c r="K22" t="s"/>
       <c r="L22" t="s"/>
@@ -2752,10 +2980,10 @@
         <v>3</v>
       </c>
       <c r="N22" t="s">
-        <v>175</v>
+        <v>196</v>
       </c>
       <c r="O22" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="P22" t="n">
         <v>3</v>
@@ -2776,36 +3004,37 @@
       <c r="V22" t="n">
         <v>0</v>
       </c>
-      <c r="W22" t="s"/>
-      <c r="X22" t="s"/>
-      <c r="Y22" t="s"/>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>30871</v>
       </c>
-      <c r="B23" t="s"/>
-      <c r="C23" t="s"/>
+      <c r="B23" t="n">
+        <v>162732</v>
+      </c>
+      <c r="C23" t="s">
+        <v>197</v>
+      </c>
       <c r="D23" t="n">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F23" t="s">
-        <v>176</v>
+        <v>198</v>
       </c>
       <c r="G23" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H23" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I23" t="s">
-        <v>177</v>
+        <v>199</v>
       </c>
       <c r="J23" t="s">
-        <v>178</v>
+        <v>200</v>
       </c>
       <c r="K23" t="s"/>
       <c r="L23" t="s"/>
@@ -2813,10 +3042,10 @@
         <v>2</v>
       </c>
       <c r="N23" t="s">
-        <v>175</v>
+        <v>196</v>
       </c>
       <c r="O23" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P23" t="n">
         <v>2</v>
@@ -2837,51 +3066,52 @@
       <c r="V23" t="n">
         <v>0</v>
       </c>
-      <c r="W23" t="s"/>
-      <c r="X23" t="s"/>
-      <c r="Y23" t="s"/>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>30871</v>
       </c>
-      <c r="B24" t="s"/>
-      <c r="C24" t="s"/>
+      <c r="B24" t="n">
+        <v>9635</v>
+      </c>
+      <c r="C24" t="s">
+        <v>201</v>
+      </c>
       <c r="D24" t="n">
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F24" t="s">
-        <v>179</v>
+        <v>202</v>
       </c>
       <c r="G24" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H24" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I24" t="s">
-        <v>180</v>
+        <v>203</v>
       </c>
       <c r="J24" t="s">
-        <v>181</v>
+        <v>204</v>
       </c>
       <c r="K24" t="s">
-        <v>182</v>
+        <v>205</v>
       </c>
       <c r="L24" t="s">
-        <v>183</v>
+        <v>206</v>
       </c>
       <c r="M24" t="n">
         <v>4</v>
       </c>
       <c r="N24" t="s">
-        <v>184</v>
+        <v>207</v>
       </c>
       <c r="O24" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="P24" t="n">
         <v>5</v>
@@ -2905,50 +3135,54 @@
       <c r="W24" t="s"/>
       <c r="X24" t="s"/>
       <c r="Y24" t="s">
-        <v>183</v>
+        <v>206</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>30871</v>
       </c>
-      <c r="B25" t="s"/>
-      <c r="C25" t="s"/>
+      <c r="B25" t="n">
+        <v>43870</v>
+      </c>
+      <c r="C25" t="s">
+        <v>208</v>
+      </c>
       <c r="D25" t="n">
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F25" t="s">
-        <v>185</v>
+        <v>209</v>
       </c>
       <c r="G25" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H25" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I25" t="s">
-        <v>186</v>
+        <v>210</v>
       </c>
       <c r="J25" t="s">
-        <v>187</v>
+        <v>211</v>
       </c>
       <c r="K25" t="s">
-        <v>188</v>
+        <v>212</v>
       </c>
       <c r="L25" t="s">
-        <v>189</v>
+        <v>213</v>
       </c>
       <c r="M25" t="n">
         <v>3</v>
       </c>
       <c r="N25" t="s">
-        <v>190</v>
+        <v>214</v>
       </c>
       <c r="O25" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P25" t="s"/>
       <c r="Q25" t="n">
@@ -2968,50 +3202,54 @@
       <c r="W25" t="s"/>
       <c r="X25" t="s"/>
       <c r="Y25" t="s">
-        <v>189</v>
+        <v>213</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
         <v>30871</v>
       </c>
-      <c r="B26" t="s"/>
-      <c r="C26" t="s"/>
+      <c r="B26" t="n">
+        <v>1907</v>
+      </c>
+      <c r="C26" t="s">
+        <v>215</v>
+      </c>
       <c r="D26" t="n">
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F26" t="s">
-        <v>191</v>
+        <v>216</v>
       </c>
       <c r="G26" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H26" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I26" t="s">
-        <v>192</v>
+        <v>217</v>
       </c>
       <c r="J26" t="s">
-        <v>193</v>
+        <v>218</v>
       </c>
       <c r="K26" t="s">
-        <v>194</v>
+        <v>219</v>
       </c>
       <c r="L26" t="s">
-        <v>195</v>
+        <v>220</v>
       </c>
       <c r="M26" t="n">
         <v>3</v>
       </c>
       <c r="N26" t="s">
-        <v>196</v>
+        <v>221</v>
       </c>
       <c r="O26" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P26" t="n">
         <v>3</v>
@@ -3035,35 +3273,39 @@
       <c r="W26" t="s"/>
       <c r="X26" t="s"/>
       <c r="Y26" t="s">
-        <v>195</v>
+        <v>220</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
         <v>30871</v>
       </c>
-      <c r="B27" t="s"/>
-      <c r="C27" t="s"/>
+      <c r="B27" t="n">
+        <v>29</v>
+      </c>
+      <c r="C27" t="s">
+        <v>222</v>
+      </c>
       <c r="D27" t="n">
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F27" t="s">
-        <v>197</v>
+        <v>223</v>
       </c>
       <c r="G27" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H27" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I27" t="s">
-        <v>198</v>
+        <v>224</v>
       </c>
       <c r="J27" t="s">
-        <v>199</v>
+        <v>225</v>
       </c>
       <c r="K27" t="s"/>
       <c r="L27" t="s"/>
@@ -3071,10 +3313,10 @@
         <v>4</v>
       </c>
       <c r="N27" t="s">
-        <v>200</v>
+        <v>226</v>
       </c>
       <c r="O27" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="P27" t="n">
         <v>5</v>
@@ -3095,51 +3337,52 @@
       <c r="V27" t="n">
         <v>0</v>
       </c>
-      <c r="W27" t="s"/>
-      <c r="X27" t="s"/>
-      <c r="Y27" t="s"/>
     </row>
     <row r="28">
       <c r="A28" t="n">
         <v>30871</v>
       </c>
-      <c r="B28" t="s"/>
-      <c r="C28" t="s"/>
+      <c r="B28" t="n">
+        <v>162733</v>
+      </c>
+      <c r="C28" t="s">
+        <v>227</v>
+      </c>
       <c r="D28" t="n">
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F28" t="s">
-        <v>201</v>
+        <v>228</v>
       </c>
       <c r="G28" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H28" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I28" t="s">
-        <v>202</v>
+        <v>229</v>
       </c>
       <c r="J28" t="s">
-        <v>203</v>
+        <v>230</v>
       </c>
       <c r="K28" t="s">
-        <v>204</v>
+        <v>231</v>
       </c>
       <c r="L28" t="s">
-        <v>205</v>
+        <v>232</v>
       </c>
       <c r="M28" t="n">
         <v>3</v>
       </c>
       <c r="N28" t="s">
-        <v>206</v>
+        <v>233</v>
       </c>
       <c r="O28" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P28" t="n">
         <v>5</v>
@@ -3157,41 +3400,45 @@
       <c r="W28" t="s"/>
       <c r="X28" t="s"/>
       <c r="Y28" t="s">
-        <v>205</v>
+        <v>232</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
         <v>30871</v>
       </c>
-      <c r="B29" t="s"/>
-      <c r="C29" t="s"/>
+      <c r="B29" t="n">
+        <v>38107</v>
+      </c>
+      <c r="C29" t="s">
+        <v>234</v>
+      </c>
       <c r="D29" t="n">
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F29" t="s">
-        <v>207</v>
+        <v>235</v>
       </c>
       <c r="G29" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H29" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I29" t="s">
-        <v>208</v>
+        <v>236</v>
       </c>
       <c r="J29" t="s">
-        <v>209</v>
+        <v>237</v>
       </c>
       <c r="K29" t="s">
-        <v>210</v>
+        <v>238</v>
       </c>
       <c r="L29" t="s">
-        <v>211</v>
+        <v>239</v>
       </c>
       <c r="M29" t="n">
         <v>1</v>
@@ -3220,50 +3467,54 @@
       <c r="W29" t="s"/>
       <c r="X29" t="s"/>
       <c r="Y29" t="s">
-        <v>212</v>
+        <v>240</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
         <v>30871</v>
       </c>
-      <c r="B30" t="s"/>
-      <c r="C30" t="s"/>
+      <c r="B30" t="n">
+        <v>162734</v>
+      </c>
+      <c r="C30" t="s">
+        <v>241</v>
+      </c>
       <c r="D30" t="n">
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F30" t="s">
-        <v>213</v>
+        <v>242</v>
       </c>
       <c r="G30" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H30" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I30" t="s">
-        <v>214</v>
+        <v>243</v>
       </c>
       <c r="J30" t="s">
-        <v>215</v>
+        <v>244</v>
       </c>
       <c r="K30" t="s">
-        <v>216</v>
+        <v>245</v>
       </c>
       <c r="L30" t="s">
-        <v>217</v>
+        <v>246</v>
       </c>
       <c r="M30" t="n">
         <v>4</v>
       </c>
       <c r="N30" t="s">
-        <v>218</v>
+        <v>247</v>
       </c>
       <c r="O30" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P30" t="s"/>
       <c r="Q30" t="n">
@@ -3283,50 +3534,54 @@
       <c r="W30" t="s"/>
       <c r="X30" t="s"/>
       <c r="Y30" t="s">
-        <v>217</v>
+        <v>246</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
         <v>30871</v>
       </c>
-      <c r="B31" t="s"/>
-      <c r="C31" t="s"/>
+      <c r="B31" t="n">
+        <v>162735</v>
+      </c>
+      <c r="C31" t="s">
+        <v>248</v>
+      </c>
       <c r="D31" t="n">
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F31" t="s">
-        <v>219</v>
+        <v>249</v>
       </c>
       <c r="G31" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H31" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I31" t="s">
-        <v>220</v>
+        <v>250</v>
       </c>
       <c r="J31" t="s">
-        <v>221</v>
+        <v>251</v>
       </c>
       <c r="K31" t="s">
-        <v>222</v>
+        <v>252</v>
       </c>
       <c r="L31" t="s">
-        <v>223</v>
+        <v>253</v>
       </c>
       <c r="M31" t="n">
         <v>1</v>
       </c>
       <c r="N31" t="s">
-        <v>224</v>
+        <v>254</v>
       </c>
       <c r="O31" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="P31" t="n">
         <v>1</v>
@@ -3350,50 +3605,54 @@
       <c r="W31" t="s"/>
       <c r="X31" t="s"/>
       <c r="Y31" t="s">
-        <v>223</v>
+        <v>253</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
         <v>30871</v>
       </c>
-      <c r="B32" t="s"/>
-      <c r="C32" t="s"/>
+      <c r="B32" t="n">
+        <v>72760</v>
+      </c>
+      <c r="C32" t="s">
+        <v>255</v>
+      </c>
       <c r="D32" t="n">
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F32" t="s">
-        <v>225</v>
+        <v>256</v>
       </c>
       <c r="G32" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H32" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I32" t="s">
-        <v>226</v>
+        <v>257</v>
       </c>
       <c r="J32" t="s">
-        <v>227</v>
+        <v>258</v>
       </c>
       <c r="K32" t="s">
-        <v>228</v>
+        <v>259</v>
       </c>
       <c r="L32" t="s">
-        <v>229</v>
+        <v>260</v>
       </c>
       <c r="M32" t="n">
         <v>3</v>
       </c>
       <c r="N32" t="s">
-        <v>230</v>
+        <v>261</v>
       </c>
       <c r="O32" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P32" t="n">
         <v>2</v>
@@ -3417,50 +3676,54 @@
       <c r="W32" t="s"/>
       <c r="X32" t="s"/>
       <c r="Y32" t="s">
-        <v>229</v>
+        <v>260</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
         <v>30871</v>
       </c>
-      <c r="B33" t="s"/>
-      <c r="C33" t="s"/>
+      <c r="B33" t="n">
+        <v>162736</v>
+      </c>
+      <c r="C33" t="s">
+        <v>262</v>
+      </c>
       <c r="D33" t="n">
         <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F33" t="s">
-        <v>231</v>
+        <v>263</v>
       </c>
       <c r="G33" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H33" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I33" t="s">
-        <v>232</v>
+        <v>264</v>
       </c>
       <c r="J33" t="s">
-        <v>233</v>
+        <v>265</v>
       </c>
       <c r="K33" t="s">
-        <v>234</v>
+        <v>266</v>
       </c>
       <c r="L33" t="s">
-        <v>235</v>
+        <v>267</v>
       </c>
       <c r="M33" t="n">
         <v>2</v>
       </c>
       <c r="N33" t="s">
-        <v>230</v>
+        <v>261</v>
       </c>
       <c r="O33" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P33" t="n">
         <v>2</v>
@@ -3484,50 +3747,54 @@
       <c r="W33" t="s"/>
       <c r="X33" t="s"/>
       <c r="Y33" t="s">
-        <v>235</v>
+        <v>267</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
         <v>30871</v>
       </c>
-      <c r="B34" t="s"/>
-      <c r="C34" t="s"/>
+      <c r="B34" t="n">
+        <v>162737</v>
+      </c>
+      <c r="C34" t="s">
+        <v>268</v>
+      </c>
       <c r="D34" t="n">
         <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F34" t="s">
-        <v>236</v>
+        <v>269</v>
       </c>
       <c r="G34" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H34" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I34" t="s">
-        <v>237</v>
+        <v>270</v>
       </c>
       <c r="J34" t="s">
-        <v>238</v>
+        <v>271</v>
       </c>
       <c r="K34" t="s">
-        <v>239</v>
+        <v>272</v>
       </c>
       <c r="L34" t="s">
-        <v>240</v>
+        <v>273</v>
       </c>
       <c r="M34" t="n">
         <v>2</v>
       </c>
       <c r="N34" t="s">
-        <v>241</v>
+        <v>274</v>
       </c>
       <c r="O34" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="P34" t="n">
         <v>1</v>
@@ -3551,50 +3818,54 @@
       <c r="W34" t="s"/>
       <c r="X34" t="s"/>
       <c r="Y34" t="s">
-        <v>242</v>
+        <v>275</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
         <v>30871</v>
       </c>
-      <c r="B35" t="s"/>
-      <c r="C35" t="s"/>
+      <c r="B35" t="n">
+        <v>162738</v>
+      </c>
+      <c r="C35" t="s">
+        <v>276</v>
+      </c>
       <c r="D35" t="n">
         <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F35" t="s">
-        <v>243</v>
+        <v>277</v>
       </c>
       <c r="G35" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H35" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I35" t="s">
-        <v>244</v>
+        <v>278</v>
       </c>
       <c r="J35" t="s">
-        <v>245</v>
+        <v>279</v>
       </c>
       <c r="K35" t="s">
-        <v>246</v>
+        <v>280</v>
       </c>
       <c r="L35" t="s">
-        <v>247</v>
+        <v>281</v>
       </c>
       <c r="M35" t="n">
         <v>5</v>
       </c>
       <c r="N35" t="s">
-        <v>248</v>
+        <v>282</v>
       </c>
       <c r="O35" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="P35" t="n">
         <v>5</v>
@@ -3618,50 +3889,54 @@
       <c r="W35" t="s"/>
       <c r="X35" t="s"/>
       <c r="Y35" t="s">
-        <v>247</v>
+        <v>281</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
         <v>30871</v>
       </c>
-      <c r="B36" t="s"/>
-      <c r="C36" t="s"/>
+      <c r="B36" t="n">
+        <v>162739</v>
+      </c>
+      <c r="C36" t="s">
+        <v>283</v>
+      </c>
       <c r="D36" t="n">
         <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F36" t="s">
-        <v>249</v>
+        <v>284</v>
       </c>
       <c r="G36" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H36" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I36" t="s">
-        <v>250</v>
+        <v>285</v>
       </c>
       <c r="J36" t="s">
-        <v>251</v>
+        <v>286</v>
       </c>
       <c r="K36" t="s">
-        <v>252</v>
+        <v>287</v>
       </c>
       <c r="L36" t="s">
-        <v>253</v>
+        <v>288</v>
       </c>
       <c r="M36" t="n">
         <v>5</v>
       </c>
       <c r="N36" t="s">
-        <v>254</v>
+        <v>289</v>
       </c>
       <c r="O36" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="P36" t="n">
         <v>5</v>
@@ -3685,50 +3960,54 @@
       <c r="W36" t="s"/>
       <c r="X36" t="s"/>
       <c r="Y36" t="s">
-        <v>253</v>
+        <v>288</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
         <v>30871</v>
       </c>
-      <c r="B37" t="s"/>
-      <c r="C37" t="s"/>
+      <c r="B37" t="n">
+        <v>162740</v>
+      </c>
+      <c r="C37" t="s">
+        <v>290</v>
+      </c>
       <c r="D37" t="n">
         <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F37" t="s">
-        <v>255</v>
+        <v>291</v>
       </c>
       <c r="G37" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H37" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I37" t="s">
-        <v>256</v>
+        <v>292</v>
       </c>
       <c r="J37" t="s">
-        <v>257</v>
+        <v>293</v>
       </c>
       <c r="K37" t="s">
-        <v>258</v>
+        <v>294</v>
       </c>
       <c r="L37" t="s">
-        <v>259</v>
+        <v>295</v>
       </c>
       <c r="M37" t="n">
         <v>2</v>
       </c>
       <c r="N37" t="s">
-        <v>260</v>
+        <v>296</v>
       </c>
       <c r="O37" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="P37" t="n">
         <v>4</v>
@@ -3752,50 +4031,54 @@
       <c r="W37" t="s"/>
       <c r="X37" t="s"/>
       <c r="Y37" t="s">
-        <v>259</v>
+        <v>295</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
         <v>30871</v>
       </c>
-      <c r="B38" t="s"/>
-      <c r="C38" t="s"/>
+      <c r="B38" t="n">
+        <v>162741</v>
+      </c>
+      <c r="C38" t="s">
+        <v>297</v>
+      </c>
       <c r="D38" t="n">
         <v>37</v>
       </c>
       <c r="E38" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F38" t="s">
-        <v>261</v>
+        <v>298</v>
       </c>
       <c r="G38" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H38" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I38" t="s">
-        <v>262</v>
+        <v>299</v>
       </c>
       <c r="J38" t="s">
-        <v>263</v>
+        <v>300</v>
       </c>
       <c r="K38" t="s">
-        <v>264</v>
+        <v>301</v>
       </c>
       <c r="L38" t="s">
-        <v>265</v>
+        <v>302</v>
       </c>
       <c r="M38" t="n">
         <v>4</v>
       </c>
       <c r="N38" t="s">
-        <v>248</v>
+        <v>282</v>
       </c>
       <c r="O38" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P38" t="n">
         <v>4</v>
@@ -3819,50 +4102,54 @@
       <c r="W38" t="s"/>
       <c r="X38" t="s"/>
       <c r="Y38" t="s">
-        <v>265</v>
+        <v>302</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
         <v>30871</v>
       </c>
-      <c r="B39" t="s"/>
-      <c r="C39" t="s"/>
+      <c r="B39" t="n">
+        <v>162742</v>
+      </c>
+      <c r="C39" t="s">
+        <v>303</v>
+      </c>
       <c r="D39" t="n">
         <v>38</v>
       </c>
       <c r="E39" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F39" t="s">
-        <v>266</v>
+        <v>304</v>
       </c>
       <c r="G39" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H39" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I39" t="s">
-        <v>267</v>
+        <v>305</v>
       </c>
       <c r="J39" t="s">
-        <v>268</v>
+        <v>306</v>
       </c>
       <c r="K39" t="s">
-        <v>269</v>
+        <v>307</v>
       </c>
       <c r="L39" t="s">
-        <v>270</v>
+        <v>308</v>
       </c>
       <c r="M39" t="n">
         <v>1</v>
       </c>
       <c r="N39" t="s">
-        <v>271</v>
+        <v>309</v>
       </c>
       <c r="O39" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="P39" t="n">
         <v>3</v>
@@ -3886,35 +4173,39 @@
       <c r="W39" t="s"/>
       <c r="X39" t="s"/>
       <c r="Y39" t="s">
-        <v>270</v>
+        <v>308</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
         <v>30871</v>
       </c>
-      <c r="B40" t="s"/>
-      <c r="C40" t="s"/>
+      <c r="B40" t="n">
+        <v>162743</v>
+      </c>
+      <c r="C40" t="s">
+        <v>310</v>
+      </c>
       <c r="D40" t="n">
         <v>39</v>
       </c>
       <c r="E40" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F40" t="s">
-        <v>272</v>
+        <v>311</v>
       </c>
       <c r="G40" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H40" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I40" t="s">
-        <v>273</v>
+        <v>312</v>
       </c>
       <c r="J40" t="s">
-        <v>274</v>
+        <v>313</v>
       </c>
       <c r="K40" t="s"/>
       <c r="L40" t="s"/>
@@ -3930,36 +4221,37 @@
       <c r="V40" t="n">
         <v>0</v>
       </c>
-      <c r="W40" t="s"/>
-      <c r="X40" t="s"/>
-      <c r="Y40" t="s"/>
     </row>
     <row r="41">
       <c r="A41" t="n">
         <v>30871</v>
       </c>
-      <c r="B41" t="s"/>
-      <c r="C41" t="s"/>
+      <c r="B41" t="n">
+        <v>162744</v>
+      </c>
+      <c r="C41" t="s">
+        <v>314</v>
+      </c>
       <c r="D41" t="n">
         <v>40</v>
       </c>
       <c r="E41" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F41" t="s">
-        <v>275</v>
+        <v>315</v>
       </c>
       <c r="G41" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H41" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I41" t="s">
-        <v>276</v>
+        <v>316</v>
       </c>
       <c r="J41" t="s">
-        <v>277</v>
+        <v>317</v>
       </c>
       <c r="K41" t="s"/>
       <c r="L41" t="s"/>
@@ -3967,10 +4259,10 @@
         <v>4</v>
       </c>
       <c r="N41" t="s">
-        <v>278</v>
+        <v>318</v>
       </c>
       <c r="O41" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="P41" t="n">
         <v>5</v>
@@ -3991,51 +4283,52 @@
       <c r="V41" t="n">
         <v>0</v>
       </c>
-      <c r="W41" t="s"/>
-      <c r="X41" t="s"/>
-      <c r="Y41" t="s"/>
     </row>
     <row r="42">
       <c r="A42" t="n">
         <v>30871</v>
       </c>
-      <c r="B42" t="s"/>
-      <c r="C42" t="s"/>
+      <c r="B42" t="n">
+        <v>162745</v>
+      </c>
+      <c r="C42" t="s">
+        <v>319</v>
+      </c>
       <c r="D42" t="n">
         <v>41</v>
       </c>
       <c r="E42" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F42" t="s">
-        <v>279</v>
+        <v>320</v>
       </c>
       <c r="G42" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H42" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I42" t="s">
-        <v>280</v>
+        <v>321</v>
       </c>
       <c r="J42" t="s">
-        <v>281</v>
+        <v>322</v>
       </c>
       <c r="K42" t="s">
-        <v>282</v>
+        <v>323</v>
       </c>
       <c r="L42" t="s">
-        <v>283</v>
+        <v>324</v>
       </c>
       <c r="M42" t="n">
         <v>1</v>
       </c>
       <c r="N42" t="s">
-        <v>284</v>
+        <v>325</v>
       </c>
       <c r="O42" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="P42" t="n">
         <v>1</v>
@@ -4059,50 +4352,54 @@
       <c r="W42" t="s"/>
       <c r="X42" t="s"/>
       <c r="Y42" t="s">
-        <v>283</v>
+        <v>324</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
         <v>30871</v>
       </c>
-      <c r="B43" t="s"/>
-      <c r="C43" t="s"/>
+      <c r="B43" t="n">
+        <v>162746</v>
+      </c>
+      <c r="C43" t="s">
+        <v>326</v>
+      </c>
       <c r="D43" t="n">
         <v>42</v>
       </c>
       <c r="E43" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F43" t="s">
-        <v>285</v>
+        <v>327</v>
       </c>
       <c r="G43" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H43" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I43" t="s">
-        <v>286</v>
+        <v>328</v>
       </c>
       <c r="J43" t="s">
-        <v>287</v>
+        <v>329</v>
       </c>
       <c r="K43" t="s">
-        <v>288</v>
+        <v>330</v>
       </c>
       <c r="L43" t="s">
-        <v>289</v>
+        <v>331</v>
       </c>
       <c r="M43" t="n">
         <v>1</v>
       </c>
       <c r="N43" t="s">
-        <v>290</v>
+        <v>332</v>
       </c>
       <c r="O43" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="P43" t="n">
         <v>1</v>
@@ -4126,41 +4423,45 @@
       <c r="W43" t="s"/>
       <c r="X43" t="s"/>
       <c r="Y43" t="s">
-        <v>289</v>
+        <v>331</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
         <v>30871</v>
       </c>
-      <c r="B44" t="s"/>
-      <c r="C44" t="s"/>
+      <c r="B44" t="n">
+        <v>49922</v>
+      </c>
+      <c r="C44" t="s">
+        <v>333</v>
+      </c>
       <c r="D44" t="n">
         <v>43</v>
       </c>
       <c r="E44" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F44" t="s">
-        <v>291</v>
+        <v>334</v>
       </c>
       <c r="G44" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H44" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I44" t="s">
-        <v>292</v>
+        <v>335</v>
       </c>
       <c r="J44" t="s">
-        <v>293</v>
+        <v>336</v>
       </c>
       <c r="K44" t="s">
-        <v>294</v>
+        <v>337</v>
       </c>
       <c r="L44" t="s">
-        <v>295</v>
+        <v>338</v>
       </c>
       <c r="M44" t="n">
         <v>1</v>
@@ -4179,50 +4480,54 @@
       <c r="W44" t="s"/>
       <c r="X44" t="s"/>
       <c r="Y44" t="s">
-        <v>296</v>
+        <v>339</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
         <v>30871</v>
       </c>
-      <c r="B45" t="s"/>
-      <c r="C45" t="s"/>
+      <c r="B45" t="n">
+        <v>507</v>
+      </c>
+      <c r="C45" t="s">
+        <v>340</v>
+      </c>
       <c r="D45" t="n">
         <v>44</v>
       </c>
       <c r="E45" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F45" t="s">
-        <v>297</v>
+        <v>341</v>
       </c>
       <c r="G45" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H45" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I45" t="s">
-        <v>298</v>
+        <v>342</v>
       </c>
       <c r="J45" t="s">
-        <v>299</v>
+        <v>343</v>
       </c>
       <c r="K45" t="s">
-        <v>300</v>
+        <v>344</v>
       </c>
       <c r="L45" t="s">
-        <v>301</v>
+        <v>345</v>
       </c>
       <c r="M45" t="n">
         <v>5</v>
       </c>
       <c r="N45" t="s">
-        <v>302</v>
+        <v>346</v>
       </c>
       <c r="O45" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P45" t="s"/>
       <c r="Q45" t="s"/>
@@ -4236,50 +4541,54 @@
       <c r="W45" t="s"/>
       <c r="X45" t="s"/>
       <c r="Y45" t="s">
-        <v>301</v>
+        <v>345</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
         <v>30871</v>
       </c>
-      <c r="B46" t="s"/>
-      <c r="C46" t="s"/>
+      <c r="B46" t="n">
+        <v>10061</v>
+      </c>
+      <c r="C46" t="s">
+        <v>347</v>
+      </c>
       <c r="D46" t="n">
         <v>45</v>
       </c>
       <c r="E46" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F46" t="s">
-        <v>303</v>
+        <v>348</v>
       </c>
       <c r="G46" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H46" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I46" t="s">
-        <v>304</v>
+        <v>349</v>
       </c>
       <c r="J46" t="s">
-        <v>305</v>
+        <v>350</v>
       </c>
       <c r="K46" t="s">
-        <v>306</v>
+        <v>351</v>
       </c>
       <c r="L46" t="s">
-        <v>307</v>
+        <v>352</v>
       </c>
       <c r="M46" t="n">
         <v>3</v>
       </c>
       <c r="N46" t="s">
-        <v>308</v>
+        <v>353</v>
       </c>
       <c r="O46" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="P46" t="s"/>
       <c r="Q46" t="n">
@@ -4299,50 +4608,54 @@
       <c r="W46" t="s"/>
       <c r="X46" t="s"/>
       <c r="Y46" t="s">
-        <v>309</v>
+        <v>354</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
         <v>30871</v>
       </c>
-      <c r="B47" t="s"/>
-      <c r="C47" t="s"/>
+      <c r="B47" t="n">
+        <v>31095</v>
+      </c>
+      <c r="C47" t="s">
+        <v>355</v>
+      </c>
       <c r="D47" t="n">
         <v>46</v>
       </c>
       <c r="E47" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F47" t="s">
-        <v>310</v>
+        <v>356</v>
       </c>
       <c r="G47" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H47" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I47" t="s">
-        <v>311</v>
+        <v>357</v>
       </c>
       <c r="J47" t="s">
-        <v>312</v>
+        <v>358</v>
       </c>
       <c r="K47" t="s">
-        <v>313</v>
+        <v>359</v>
       </c>
       <c r="L47" t="s">
-        <v>314</v>
+        <v>360</v>
       </c>
       <c r="M47" t="n">
         <v>3</v>
       </c>
       <c r="N47" t="s">
-        <v>315</v>
+        <v>361</v>
       </c>
       <c r="O47" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="P47" t="s"/>
       <c r="Q47" t="n">
@@ -4362,50 +4675,54 @@
       <c r="W47" t="s"/>
       <c r="X47" t="s"/>
       <c r="Y47" t="s">
-        <v>314</v>
+        <v>360</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
         <v>30871</v>
       </c>
-      <c r="B48" t="s"/>
-      <c r="C48" t="s"/>
+      <c r="B48" t="n">
+        <v>162747</v>
+      </c>
+      <c r="C48" t="s">
+        <v>362</v>
+      </c>
       <c r="D48" t="n">
         <v>47</v>
       </c>
       <c r="E48" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F48" t="s">
-        <v>316</v>
+        <v>363</v>
       </c>
       <c r="G48" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H48" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I48" t="s">
-        <v>317</v>
+        <v>364</v>
       </c>
       <c r="J48" t="s">
-        <v>318</v>
+        <v>365</v>
       </c>
       <c r="K48" t="s">
-        <v>319</v>
+        <v>366</v>
       </c>
       <c r="L48" t="s">
-        <v>320</v>
+        <v>367</v>
       </c>
       <c r="M48" t="n">
         <v>1</v>
       </c>
       <c r="N48" t="s">
-        <v>321</v>
+        <v>368</v>
       </c>
       <c r="O48" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="P48" t="n">
         <v>1</v>
@@ -4423,50 +4740,54 @@
       <c r="W48" t="s"/>
       <c r="X48" t="s"/>
       <c r="Y48" t="s">
-        <v>322</v>
+        <v>369</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
         <v>30871</v>
       </c>
-      <c r="B49" t="s"/>
-      <c r="C49" t="s"/>
+      <c r="B49" t="n">
+        <v>162748</v>
+      </c>
+      <c r="C49" t="s">
+        <v>370</v>
+      </c>
       <c r="D49" t="n">
         <v>48</v>
       </c>
       <c r="E49" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F49" t="s">
-        <v>323</v>
+        <v>371</v>
       </c>
       <c r="G49" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H49" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I49" t="s">
-        <v>324</v>
+        <v>372</v>
       </c>
       <c r="J49" t="s">
-        <v>325</v>
+        <v>373</v>
       </c>
       <c r="K49" t="s">
-        <v>326</v>
+        <v>374</v>
       </c>
       <c r="L49" t="s">
-        <v>327</v>
+        <v>375</v>
       </c>
       <c r="M49" t="n">
         <v>5</v>
       </c>
       <c r="N49" t="s">
-        <v>321</v>
+        <v>368</v>
       </c>
       <c r="O49" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="P49" t="n">
         <v>5</v>
@@ -4486,7 +4807,7 @@
       <c r="W49" t="s"/>
       <c r="X49" t="s"/>
       <c r="Y49" t="s">
-        <v>328</v>
+        <v>376</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Dallas/Dallas_shard_450.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_450.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="377">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="428">
   <si>
     <t>STR#</t>
   </si>
@@ -150,21 +150,145 @@
     <t>response_text</t>
   </si>
   <si>
-    <t>LaTasha F</t>
-  </si>
-  <si>
-    <t>06/14/2018</t>
+    <t>08/24/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56567-d247114-r608201767-Inn_of_Rockwall-Rockwall_Texas.html</t>
+  </si>
+  <si>
+    <t>56567</t>
+  </si>
+  <si>
+    <t>247114</t>
+  </si>
+  <si>
+    <t>608201767</t>
+  </si>
+  <si>
+    <t>08/19/2018</t>
+  </si>
+  <si>
+    <t>Terrible Hotel, Rooms &amp; Staff</t>
+  </si>
+  <si>
+    <t>Terrible Rooms, Terrible staff... I wouldn't recommend to anyone, nor would I ever step foot in again. When I arrived staff was sitting in lobby watching TV and on her phone. Room was trashed, repairs not done, paint peeling, stains, smell and roaches when I went back to complain person was on phone and never would acknowledge, the next day checking out was going to complain but lady was too busy sitting in lobby on her phone while her child was playing in the lobby and just pointed to leave my room key on the counter, like I was a bother to her so I left the key and a note on the jacket of key holder for mgr to call me. No one ever bothered to call me so when I arrived back hone I called and was told they would pass msg on and someone would contact me but after 2 weeks no call so I finally disputed charge with bank then they fault us on it so bank kept charges and still no one from hotel ever had the decency or respect to a customer to call me back. Worst Hotel, Worst Personal and BIGGEST Con/Rip off artist I have ever came across. Everyone, better off to drive a few blocks and stay at a reputable hotel chain then try and support a local one.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>Terrible Rooms, Terrible staff... I wouldn't recommend to anyone, nor would I ever step foot in again. When I arrived staff was sitting in lobby watching TV and on her phone. Room was trashed, repairs not done, paint peeling, stains, smell and roaches when I went back to complain person was on phone and never would acknowledge, the next day checking out was going to complain but lady was too busy sitting in lobby on her phone while her child was playing in the lobby and just pointed to leave my room key on the counter, like I was a bother to her so I left the key and a note on the jacket of key holder for mgr to call me. No one ever bothered to call me so when I arrived back hone I called and was told they would pass msg on and someone would contact me but after 2 weeks no call so I finally disputed charge with bank then they fault us on it so bank kept charges and still no one from hotel ever had the decency or respect to a customer to call me back. Worst Hotel, Worst Personal and BIGGEST Con/Rip off artist I have ever came across. Everyone, better off to drive a few blocks and stay at a reputable hotel chain then try and support a local one.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56567-d247114-r584850149-Inn_of_Rockwall-Rockwall_Texas.html</t>
+  </si>
+  <si>
+    <t>584850149</t>
+  </si>
+  <si>
+    <t>06/03/2018</t>
+  </si>
+  <si>
+    <t>Southern Comfort</t>
+  </si>
+  <si>
+    <t>What a great nights sleep this was. It was affordable and right off of the highway for easy access. The room was clean and they even had premium cable channels! Staff was nice and very accommodating. It was quiet and relaxing with free WiFi and a mini breakfast.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56567-d247114-r545564128-Inn_of_Rockwall-Rockwall_Texas.html</t>
+  </si>
+  <si>
+    <t>545564128</t>
+  </si>
+  <si>
+    <t>12/06/2017</t>
+  </si>
+  <si>
+    <t>Served the purpose</t>
+  </si>
+  <si>
+    <t>My husband, daughter (11 yo) and I stayed here in December 2017.  For the price, it was exactly what we expected.  The rooms had been redone recently, new carpets, paint, and beds.  The beds were very comfortable.  The outside has also been painted.  They didn't update the showers, however, and could use new ones.  And the lobby/check-in haven't been redone.  Don't let that scare you about the rooms.  The rooms were clean, had a micro, small refrigerator, etc.The TV channels were very limited.  Since we were visiting family and had little reason to be in the room, this was not a problem for us.  Overall we had no complaints.  We knew we weren't staying in a five-star hotel.  Would I stay here again?  For the price, indeed I would.Hope this helps.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2017</t>
+  </si>
+  <si>
+    <t>My husband, daughter (11 yo) and I stayed here in December 2017.  For the price, it was exactly what we expected.  The rooms had been redone recently, new carpets, paint, and beds.  The beds were very comfortable.  The outside has also been painted.  They didn't update the showers, however, and could use new ones.  And the lobby/check-in haven't been redone.  Don't let that scare you about the rooms.  The rooms were clean, had a micro, small refrigerator, etc.The TV channels were very limited.  Since we were visiting family and had little reason to be in the room, this was not a problem for us.  Overall we had no complaints.  We knew we weren't staying in a five-star hotel.  Would I stay here again?  For the price, indeed I would.Hope this helps.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56567-d247114-r528768456-Inn_of_Rockwall-Rockwall_Texas.html</t>
+  </si>
+  <si>
+    <t>528768456</t>
+  </si>
+  <si>
+    <t>10/01/2017</t>
+  </si>
+  <si>
+    <t>Good pillows and bed</t>
+  </si>
+  <si>
+    <t>Stayed one night because it was economical.  Very clean room, but bathroom needed lots of improvements.  It had hot water. It had a very, very light breakfast. Extra lock on door was broke and saw Sheriff driving around well lit parking lot at night. We will stay there again and recommend it because cheaper than hotels in Terrel,  TX.</t>
+  </si>
+  <si>
+    <t>September 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56567-d247114-r509628119-Inn_of_Rockwall-Rockwall_Texas.html</t>
+  </si>
+  <si>
+    <t>509628119</t>
+  </si>
+  <si>
+    <t>08/07/2017</t>
+  </si>
+  <si>
+    <t>Nasty</t>
+  </si>
+  <si>
+    <t>Looked up hotels prior to going to Plano to visit with my granddaughter. Wanted a place with a pool. Got there and paid for 2 nights. Room wasn't too bad then my girls were ready to swim....they had a pool alright with a tarp over it and I went to the office and asked the guy about the pool, all he could say was no pool. So the morning we were in the room and killed 2 spiders on the bed and then granddaughter was at the sink and a bigger one was on her shirt! Went down to have their "continental breakfast" and all they had was cereal and some toaster waffles. I got a couple and since there is no seating took it back to the room. Other granddaughter went and got her a couple and was eating it and said there is a black hair in this! Took it down and showed the guy. I had enough.....waited until 10am and this other girl came in to work and told her I wanted to check out and a refund for the 2nd night I had paid for.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2017</t>
+  </si>
+  <si>
+    <t>Looked up hotels prior to going to Plano to visit with my granddaughter. Wanted a place with a pool. Got there and paid for 2 nights. Room wasn't too bad then my girls were ready to swim....they had a pool alright with a tarp over it and I went to the office and asked the guy about the pool, all he could say was no pool. So the morning we were in the room and killed 2 spiders on the bed and then granddaughter was at the sink and a bigger one was on her shirt! Went down to have their "continental breakfast" and all they had was cereal and some toaster waffles. I got a couple and since there is no seating took it back to the room. Other granddaughter went and got her a couple and was eating it and said there is a black hair in this! Took it down and showed the guy. I had enough.....waited until 10am and this other girl came in to work and told her I wanted to check out and a refund for the 2nd night I had paid for.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56567-d247114-r509055105-Inn_of_Rockwall-Rockwall_Texas.html</t>
+  </si>
+  <si>
+    <t>509055105</t>
+  </si>
+  <si>
+    <t>08/05/2017</t>
+  </si>
+  <si>
+    <t>Best Stay of My Life</t>
+  </si>
+  <si>
+    <t>It has been years since my last stay here – 22 to be exact. At the time, I have to say that the condition was nearly excellent, if a bit lived-in. It used to be a popular destination for my family, my sister stayed here several years before me, and my brother a couple years after. I haven’t met anyone else who has stayed here over the years, I heard that there were a few other guests but I’ve never heard anything about them since they visited.
+I can only speak to my own experiences, but I had a great stay. For an extended-stay hotel, the rates were excellent, it almost seemed like it was free, the prices were so low! Room service was easy to order, though it did have some strange dietary restrictions – I couldn’t order red meats for some reason? I think the owner said it made her feel sick to smell the meat. The also didn’t serve seafood or alcohol. Over about nine months the menu didn’t change much, but I got used to the same staples. I didn’t get the opportunity to go out to eat during my stay, but plenty of local eateries were able to deliver to my room at no charge.
+Entertainment was alright, usually an eclectic mix of classical music, country music, and crime shows on TV. Unfortunately I wasn’t able to see the picture on my in room television,...It has been years since my last stay here – 22 to be exact. At the time, I have to say that the condition was nearly excellent, if a bit lived-in. It used to be a popular destination for my family, my sister stayed here several years before me, and my brother a couple years after. I haven’t met anyone else who has stayed here over the years, I heard that there were a few other guests but I’ve never heard anything about them since they visited.I can only speak to my own experiences, but I had a great stay. For an extended-stay hotel, the rates were excellent, it almost seemed like it was free, the prices were so low! Room service was easy to order, though it did have some strange dietary restrictions – I couldn’t order red meats for some reason? I think the owner said it made her feel sick to smell the meat. The also didn’t serve seafood or alcohol. Over about nine months the menu didn’t change much, but I got used to the same staples. I didn’t get the opportunity to go out to eat during my stay, but plenty of local eateries were able to deliver to my room at no charge.Entertainment was alright, usually an eclectic mix of classical music, country music, and crime shows on TV. Unfortunately I wasn’t able to see the picture on my in room television, so I could only listen to the TV programs, but it didn’t trouble me much as I spent most of my time in the hotel either sleeping or practicing for my ongoing Judo tournament. The competition really heated up during the later part of my stay, so I was glad to have so much space to practice my kicks.Just a note: There’s only one room here, but it’s probably the coziest you’ll ever stay in. The bed was very plush (and I’m usually a firm bed kind of person, but this might have been the best sleep of my life) and the bedclothes were all a deep satin red – not something I would have thought of for a hotel but it was impressively elegant.By the time I left here, it really felt like home, I honestly cried as soon as I checked out because I knew I would probably never be back. Turns out, I was right. I recently heard the news that this location was torn down by management due to foundation issues, which is sad, but it was costing the owner a lot of money and some of her health to keep it running. It’s doubtful that they’ll ever open a new location, but this was the best hotel stay I’ve ever had.MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>It has been years since my last stay here – 22 to be exact. At the time, I have to say that the condition was nearly excellent, if a bit lived-in. It used to be a popular destination for my family, my sister stayed here several years before me, and my brother a couple years after. I haven’t met anyone else who has stayed here over the years, I heard that there were a few other guests but I’ve never heard anything about them since they visited.
+I can only speak to my own experiences, but I had a great stay. For an extended-stay hotel, the rates were excellent, it almost seemed like it was free, the prices were so low! Room service was easy to order, though it did have some strange dietary restrictions – I couldn’t order red meats for some reason? I think the owner said it made her feel sick to smell the meat. The also didn’t serve seafood or alcohol. Over about nine months the menu didn’t change much, but I got used to the same staples. I didn’t get the opportunity to go out to eat during my stay, but plenty of local eateries were able to deliver to my room at no charge.
+Entertainment was alright, usually an eclectic mix of classical music, country music, and crime shows on TV. Unfortunately I wasn’t able to see the picture on my in room television,...It has been years since my last stay here – 22 to be exact. At the time, I have to say that the condition was nearly excellent, if a bit lived-in. It used to be a popular destination for my family, my sister stayed here several years before me, and my brother a couple years after. I haven’t met anyone else who has stayed here over the years, I heard that there were a few other guests but I’ve never heard anything about them since they visited.I can only speak to my own experiences, but I had a great stay. For an extended-stay hotel, the rates were excellent, it almost seemed like it was free, the prices were so low! Room service was easy to order, though it did have some strange dietary restrictions – I couldn’t order red meats for some reason? I think the owner said it made her feel sick to smell the meat. The also didn’t serve seafood or alcohol. Over about nine months the menu didn’t change much, but I got used to the same staples. I didn’t get the opportunity to go out to eat during my stay, but plenty of local eateries were able to deliver to my room at no charge.Entertainment was alright, usually an eclectic mix of classical music, country music, and crime shows on TV. Unfortunately I wasn’t able to see the picture on my in room television, so I could only listen to the TV programs, but it didn’t trouble me much as I spent most of my time in the hotel either sleeping or practicing for my ongoing Judo tournament. The competition really heated up during the later part of my stay, so I was glad to have so much space to practice my kicks.Just a note: There’s only one room here, but it’s probably the coziest you’ll ever stay in. The bed was very plush (and I’m usually a firm bed kind of person, but this might have been the best sleep of my life) and the bedclothes were all a deep satin red – not something I would have thought of for a hotel but it was impressively elegant.By the time I left here, it really felt like home, I honestly cried as soon as I checked out because I knew I would probably never be back. Turns out, I was right. I recently heard the news that this location was torn down by management due to foundation issues, which is sad, but it was costing the owner a lot of money and some of her health to keep it running. It’s doubtful that they’ll ever open a new location, but this was the best hotel stay I’ve ever had.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56567-d247114-r467731411-Inn_of_Rockwall-Rockwall_Texas.html</t>
   </si>
   <si>
-    <t>56567</t>
-  </si>
-  <si>
-    <t>247114</t>
-  </si>
-  <si>
     <t>467731411</t>
   </si>
   <si>
@@ -180,12 +304,6 @@
     <t>March 2017</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled on business</t>
-  </si>
-  <si>
-    <t>CamicaSalicco</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56567-d247114-r434303691-Inn_of_Rockwall-Rockwall_Texas.html</t>
   </si>
   <si>
@@ -210,9 +328,6 @@
     <t>My husband and I stayed here for just one night. We came down for a birthday party and just needed a cheap place to stay. Well I should have known better. 1st when we got there I was honestly afraid to leave anything in my car for fear of it being broken into. Then once I got in the office to check in, they were not very nice and it smelled horrible. Once we go the keys and got into the room it appeared to be clean. I (being who I am) started inspecting for bed bugs. Luckily there were no bed bugs, but then I look over at the wall and there is a cockroach just staring back at me. It was disgusting. I personally would not recommend anyone stay here unless it is a last resort.More</t>
   </si>
   <si>
-    <t>kyle c</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56567-d247114-r392656809-Inn_of_Rockwall-Rockwall_Texas.html</t>
   </si>
   <si>
@@ -234,9 +349,6 @@
     <t xml:space="preserve"> traveled as a couple</t>
   </si>
   <si>
-    <t>texaswoman65</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56567-d247114-r375939619-Inn_of_Rockwall-Rockwall_Texas.html</t>
   </si>
   <si>
@@ -253,12 +365,6 @@
   </si>
   <si>
     <t>May 2016</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> traveled solo</t>
-  </si>
-  <si>
-    <t>Deubster</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56567-d247114-r374044824-Inn_of_Rockwall-Rockwall_Texas.html</t>
@@ -293,9 +399,6 @@
 - Bedding was questionable.  The sheets were incredibly thin, but at least they seemed clean.  Hard to tell about the spread, because it was also very dark. 3 fiberfill pillows on the king bed - they were...My wife and I stayed 3 nights (Fri-Mon, May 6-9, 2016) visiting relatives.  Didn't do much in the motel except sleep, so our experience was probably better than it might have been.  Check-in was quick and painless, even though the desk clerk was rather grumpy. I had contact with 3 staff members - male and female desk clerks (I think they were married) and a female maid with poor command of English (she appeared tired and overworked but was pleasant).The Good: - The bed was comfortable.  Relatively firm, no sagging.  A good night's sleep.- There was zero noise from adjacent rooms, even though both were occupied.  All noise was from the parking lot through the large window, and that only happened in the mornings after we'd awakened.- The AC/heater unit on the outside wall was quiet, maintained the temperature well, and had no foul smells. This combination is hard to find in a budget motel.The Bad:- The room was dark, dark, dark.  Deep chocolate carpet and the lowest wattage CFL bulbs mad it difficult to see for the several minutes of waiting for the bulbs to warm up, and not much better once they were at full luminosity.- Bedding was questionable.  The sheets were incredibly thin, but at least they seemed clean.  Hard to tell about the spread, because it was also very dark. 3 fiberfill pillows on the king bed - they were just OK.- Hard to tell how clean the room was (hard to see it in the dark), but it had a strong odor of cleaning products.- The tub/shower enclosure had the rattiest looking stained cloth shower curtain I've ever seen.  At least it was on a bowed-out rod so it wouldn't contact my body.- I've never been to a motel, no matter how cheap, that didn't have some bath amenities, even Suave shampoo, conditioner, a bath and hand soap.  Not here. One small bar of soap - that's it.  Of course, we brought our own stuff, but still ...- The TV was a 32" Dynex (BestBuy house brand) with a blurry picture.  Of course, there was no guide to local channels, so it took some effort to find HLN in the morning or the NBA playoff game one evening (this was barely watchable).- The towels were the thinnest, scratchiest I've ever seen.  Like drying with a loofah. Worse than the towels at my gym, much worse.- Breakfast was a joke.  2 cereals (Frosted Flakes and Raisin Bran), milk, apple and orange juices, coffee, toast (white or wheat), toaster waffles, Activia yogurt. No fruit, no proteins, no pastries.- the shower head was a low-flow, non-adjustable type.  Pretty anemic, but at least it didn't vary in intensity or temperature.  If you are 6' tall, the shower head is at eye level and the bathroom ceiling is about 4 inches above your head.All in all, it was adequate for our stay, since we mainly slept there. Felt sorry for the maid, as she seemed seriously overworked. The motel is on the north side of I-30, which makes it easy to get to from the East, not so easy to reach from the West (you either go a mile past, cross over and come back, or take the nearest exit and wind through several streets).More</t>
   </si>
   <si>
-    <t>Keith W</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56567-d247114-r368110508-Inn_of_Rockwall-Rockwall_Texas.html</t>
   </si>
   <si>
@@ -314,9 +417,6 @@
     <t>April 2016</t>
   </si>
   <si>
-    <t>Ricky B</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56567-d247114-r363025524-Inn_of_Rockwall-Rockwall_Texas.html</t>
   </si>
   <si>
@@ -335,9 +435,6 @@
     <t>The first desk was blah. I reserved a downstairs non smoking. I got here a hour after check in and was told I would have to wait for a downstairs room to be clean or choose a upstairs. I choose the upstairs room so I don't have to wait. The room was clean...bathroom too. Flat screen TV had very few selections. Bed was really firm but comfortable.Noise from 30 did not bother me....I slept good. They do have room for big truck parking and.other large vehicles. The Super Start been breakfast Super 8 requires all Super 8s to put out the minium of fresh made waffles....fresh fruit..yogurt... 2 cereals....packaged pastry's... 2 juice and coffee......here there was one cereal.... Toast....hot OJ and hot Apple juice.....and one cereal. Overall I don't think I'll stay here again. There is a much more modern Super 8 about 15 miles down the road in Garland TX hat follows the rules.....happy traveling.More</t>
   </si>
   <si>
-    <t>Damien T</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56567-d247114-r339972840-Inn_of_Rockwall-Rockwall_Texas.html</t>
   </si>
   <si>
@@ -359,9 +456,6 @@
     <t>I have been traveling for work all over the country. Been doing it for apx 2yrs, I stay in hotels, motels, and Inns about 75% of the time. This particular Super 8 is fairly nice. My room was clean #212 the beds are comfortable, and the front desk was helpful. ***( For those who are looking for a better rate on hotels, resorts, Inns, etc. You need to join the hotel rewards program, its free and only takes apx 5min. This is free advice from someone who stays in hotels of all types very often. I'm just tired of seeing reviews by entitled whiner's, who think they should get a 4-5star experience from a 2star venue.)More</t>
   </si>
   <si>
-    <t>Rudy U</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56567-d247114-r328206031-Inn_of_Rockwall-Rockwall_Texas.html</t>
   </si>
   <si>
@@ -380,12 +474,6 @@
     <t>November 2015</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled with family</t>
-  </si>
-  <si>
-    <t>Erin483</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56567-d247114-r321424779-Inn_of_Rockwall-Rockwall_Texas.html</t>
   </si>
   <si>
@@ -407,9 +495,6 @@
     <t>I needed a room for a night in Rockwall. Not vacation or anything and all other hotels were around the $100 a night mark and I didn't want to pay that. I got there well after check-in (9 pm-ish) and it took all of 2 minutes to get my room key. I asked for non-smoking but the room had a musty type smell. It had been updated but done pretty shotty. The toilet was crooked and a bolt looked loose and I don't think the faucet was even bolted on the sink. Both worked though. Bed was comfy and very soft, if you prefer a firm mattress you won't like it. Room was clean. Could hear some people outside partying or something all night but there's really nothing the motel can do about that and I didn't complain.  Would stay there again. More</t>
   </si>
   <si>
-    <t>Andrea B</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56567-d247114-r319927475-Inn_of_Rockwall-Rockwall_Texas.html</t>
   </si>
   <si>
@@ -425,9 +510,6 @@
     <t>I usually stay at Super 8 because I am usually very happy with what I get. The desk clerk was very nice but when I went to my room, the door was open and there were dirty towels on the floor and sink. I went back and got another room and the clerk was very apologetic. The beds in the second room looked like someone had been lying on them but it was so late that we just stayed. Cleanliness definitely an issue at this property.</t>
   </si>
   <si>
-    <t>alexiskarpinski</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56567-d247114-r314538151-Inn_of_Rockwall-Rockwall_Texas.html</t>
   </si>
   <si>
@@ -446,9 +528,6 @@
     <t>September 2015</t>
   </si>
   <si>
-    <t>grannyspt</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56567-d247114-r310817136-Inn_of_Rockwall-Rockwall_Texas.html</t>
   </si>
   <si>
@@ -464,9 +543,6 @@
     <t>had driven from Little Rock, Ark. . got near Rockwall, Tx. &amp; there was work on I-30 for a while. when it opened up was so tired. saw a Super 8 &amp; decided time to stop... I have NEVER had a bed that was soooo comfortable. it was hard leaving  but was starting trip to W. coast .. planning a long weekend sometimes.it was a great area.  water to play in- lots stores to shop !!!!</t>
   </si>
   <si>
-    <t>Kylie W</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56567-d247114-r305481923-Inn_of_Rockwall-Rockwall_Texas.html</t>
   </si>
   <si>
@@ -485,9 +561,6 @@
     <t>June 2015</t>
   </si>
   <si>
-    <t>jmeunderwood</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56567-d247114-r294765375-Inn_of_Rockwall-Rockwall_Texas.html</t>
   </si>
   <si>
@@ -503,9 +576,6 @@
     <t>This is a freaking roach motel, do not stay here. No trash can not enough towels or wash cloths. Holes in the walls they say their beds are queen size and they are not they are full size and the sheets and blankets don't fit the beds and are stained. This place should be bulldozed down I want my freaking money back!!!</t>
   </si>
   <si>
-    <t>Cdav2TX</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56567-d247114-r286657364-Inn_of_Rockwall-Rockwall_Texas.html</t>
   </si>
   <si>
@@ -524,9 +594,6 @@
     <t>July 2015</t>
   </si>
   <si>
-    <t>Elyssia B</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56567-d247114-r285944024-Inn_of_Rockwall-Rockwall_Texas.html</t>
   </si>
   <si>
@@ -545,9 +612,6 @@
     <t>I had been on the road driving all day and needed to find a place to stop and rest for the night I chose the super 8 because I had stayed at other super 8 locations before and they were 99 percent of the time clean and we'll maintained..that however was not the case for this location. To start off the door was sticking to my room after having to go back to the front desk and get a new set of keys I found out it was just the way the door was and had practically dislocate my shoulder to get it open The curtains in the room were stained, there were dead bugs in the air conditioning unit which I guess on the positive side they were dead..the nightstand when I opened the drawer to get the tv remote was nasty, the bathroom and pubic hair laying on the floor. My family's room was in worse shape than mine just as dirty but the bathroom door had a hole in it which looked like someone tried to put there fist into it also pubic hair on the bathroom floor and the light fixture cover was hanging off over the tub, I can deal with a hotel needing some updating but for the price they wanted for the room I got ripped off big time this place needs a serious overhaul and new housekeeping staff!More</t>
   </si>
   <si>
-    <t>John N</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56567-d247114-r283256733-Inn_of_Rockwall-Rockwall_Texas.html</t>
   </si>
   <si>
@@ -566,9 +630,6 @@
     <t>We stayed two days, June 5th and 6h, 2015 at the Super 8 in Rockwall, TX.I stay in quite a few Super 8 as I travel for work. This is the worst one I've ever experiened. My wife was not impressed either.  I don't believe I ever saw two of the three people who manned the front desk crack a smile.      1. The juices, apple and orange, were old. The apple looked and tasted fermented.      2.The bathroom lighting was very poor for putting on make-up.      3. The fosset and toilet were loose.      4. I asked the lady at the desk to check the buzzing on the Fox News Channel. She said she would but never did.       This Super 8 is not up to par on Super 8 standards. We have family down there and we will not plan on staying at the Rockwall Super 8 again unless it's indicated correct changes have been implemented.More</t>
   </si>
   <si>
-    <t>Laura W</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56567-d247114-r265822351-Inn_of_Rockwall-Rockwall_Texas.html</t>
   </si>
   <si>
@@ -587,9 +648,6 @@
     <t>April 2015</t>
   </si>
   <si>
-    <t>shhparents</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56567-d247114-r262481949-Inn_of_Rockwall-Rockwall_Texas.html</t>
   </si>
   <si>
@@ -608,9 +666,6 @@
     <t>March 2015</t>
   </si>
   <si>
-    <t>Walter W</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56567-d247114-r258853243-Inn_of_Rockwall-Rockwall_Texas.html</t>
   </si>
   <si>
@@ -623,9 +678,6 @@
     <t>February 2015</t>
   </si>
   <si>
-    <t>Donald O</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56567-d247114-r253242302-Inn_of_Rockwall-Rockwall_Texas.html</t>
   </si>
   <si>
@@ -635,9 +687,6 @@
     <t>02/08/2015</t>
   </si>
   <si>
-    <t>Richard C</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56567-d247114-r249936041-Inn_of_Rockwall-Rockwall_Texas.html</t>
   </si>
   <si>
@@ -656,9 +705,6 @@
     <t>January 2015</t>
   </si>
   <si>
-    <t>Benjamin B</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56567-d247114-r242014823-Inn_of_Rockwall-Rockwall_Texas.html</t>
   </si>
   <si>
@@ -677,9 +723,6 @@
     <t>November 2014</t>
   </si>
   <si>
-    <t>Michael D</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56567-d247114-r240071058-Inn_of_Rockwall-Rockwall_Texas.html</t>
   </si>
   <si>
@@ -698,9 +741,6 @@
     <t>October 2014</t>
   </si>
   <si>
-    <t>Linda L</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56567-d247114-r224903334-Inn_of_Rockwall-Rockwall_Texas.html</t>
   </si>
   <si>
@@ -713,9 +753,6 @@
     <t>July 2014</t>
   </si>
   <si>
-    <t>PerryLinTX</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56567-d247114-r221372304-Inn_of_Rockwall-Rockwall_Texas.html</t>
   </si>
   <si>
@@ -734,9 +771,6 @@
     <t>August 2014</t>
   </si>
   <si>
-    <t>Tracey G</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56567-d247114-r215584836-Inn_of_Rockwall-Rockwall_Texas.html</t>
   </si>
   <si>
@@ -755,9 +789,6 @@
     <t>My husband and I were staying in Rockwall for a week and we were on a budget, so we chose this motel before we got to town. As we were pulling in, my husband said, "I've got a bad feeling about this place." But the price was right, so we checked in and went to our room. Going up the stairs to the room, we saw some sketchy people who were drying loads of clothes by hanging them on the side of a truck. It actually looked like people were living in some of these rooms. Anyway, we got a non-smoking room, but it is clearly not enforced. The room smelled horribly of smoke and stale cigs; there were burn holes all over the comforter. I pulled back the nasty comforter expecting to see bedbugs running rampant (none that I could see, though, thankfully) and there were huge yellowish stains on the very dingy-looking sheets. And a moth flew out of the sheets, lol. The lamp didn't work, so the room was dark, except for the beam of light that came through the crack of the motel room door. The door didn't close all the way, so any weirdo could just peek right through. We weren't there more than 15 minutes before we both agreed that you get what you pay for and that the price for this room was not worth the cooties! We went downstairs to get a...My husband and I were staying in Rockwall for a week and we were on a budget, so we chose this motel before we got to town. As we were pulling in, my husband said, "I've got a bad feeling about this place." But the price was right, so we checked in and went to our room. Going up the stairs to the room, we saw some sketchy people who were drying loads of clothes by hanging them on the side of a truck. It actually looked like people were living in some of these rooms. Anyway, we got a non-smoking room, but it is clearly not enforced. The room smelled horribly of smoke and stale cigs; there were burn holes all over the comforter. I pulled back the nasty comforter expecting to see bedbugs running rampant (none that I could see, though, thankfully) and there were huge yellowish stains on the very dingy-looking sheets. And a moth flew out of the sheets, lol. The lamp didn't work, so the room was dark, except for the beam of light that came through the crack of the motel room door. The door didn't close all the way, so any weirdo could just peek right through. We weren't there more than 15 minutes before we both agreed that you get what you pay for and that the price for this room was not worth the cooties! We went downstairs to get a refund and explain that we were taking our business elsewhere, and the man who helped me asked if anything was wrong with the room. I went down the list and he just shrugged and said, "Ok." We left in a quick hurry and checked into the La Quinta down the street, which was absolutely fantastic. Stay away from this Super 8 at all costs!More</t>
   </si>
   <si>
-    <t>evinrudejim</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56567-d247114-r214401519-Inn_of_Rockwall-Rockwall_Texas.html</t>
   </si>
   <si>
@@ -776,9 +807,6 @@
     <t>May 2014</t>
   </si>
   <si>
-    <t>928Abbie</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56567-d247114-r212804097-Inn_of_Rockwall-Rockwall_Texas.html</t>
   </si>
   <si>
@@ -797,7 +825,184 @@
     <t>June 2014</t>
   </si>
   <si>
-    <t>Leslie A</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56567-d247114-r212458822-Inn_of_Rockwall-Rockwall_Texas.html</t>
+  </si>
+  <si>
+    <t>212458822</t>
+  </si>
+  <si>
+    <t>06/28/2014</t>
+  </si>
+  <si>
+    <t>Definitely a smell here</t>
+  </si>
+  <si>
+    <t>Reservation online, still had to fill out paper registration. Room had strong odor; a combination of urine from the bathroom and maybe mold or pet deodorizer from the bedroom. No screens on window, but opened it for a while. Got used to it after a while. Room pretty beat up. Wear shoes in the room.  Very good bed. WiFi is so slow as to be unusable. Ok breakfast for this class of motel.  Large vehicle parking is adequate, which is the main attraction. Has gone downhill since my last stay.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56567-d247114-r208784750-Inn_of_Rockwall-Rockwall_Texas.html</t>
+  </si>
+  <si>
+    <t>208784750</t>
+  </si>
+  <si>
+    <t>06/03/2014</t>
+  </si>
+  <si>
+    <t>Driver</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Not bad a very strong odor in lobby and Un dusted lobby also room was Ok mirrors were dirty. No pool or elevators room was on second floor did have a problem getting faxs tho would not come thru clean bathroom and room  weak air conditioner cooled Ok tho would stay againe </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56567-d247114-r206465269-Inn_of_Rockwall-Rockwall_Texas.html</t>
+  </si>
+  <si>
+    <t>206465269</t>
+  </si>
+  <si>
+    <t>05/21/2014</t>
+  </si>
+  <si>
+    <t>Quiet area</t>
+  </si>
+  <si>
+    <t>This hotel was cheap for an affluent area but was in a secluded part of town near highway.we asked at various hotels/motels for budget prices but found none near the facilities. We were advised this motel was not to good by other motel staff and a police officer, who eventually guided us to it.We were therefore pleasantly surprised to find the manager a delightful Indian guy and the rooms clean and tidy.it was a short walk from food outlets but no bars around that part of town.Despite close proximity to highway it was quiet and easy to sleep,and provided a decent cold breakfast.Manager gave us directions to a hotel at our next destination where his son worked on the deskMoreShow less</t>
+  </si>
+  <si>
+    <t>This hotel was cheap for an affluent area but was in a secluded part of town near highway.we asked at various hotels/motels for budget prices but found none near the facilities. We were advised this motel was not to good by other motel staff and a police officer, who eventually guided us to it.We were therefore pleasantly surprised to find the manager a delightful Indian guy and the rooms clean and tidy.it was a short walk from food outlets but no bars around that part of town.Despite close proximity to highway it was quiet and easy to sleep,and provided a decent cold breakfast.Manager gave us directions to a hotel at our next destination where his son worked on the deskMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56567-d247114-r197230429-Inn_of_Rockwall-Rockwall_Texas.html</t>
+  </si>
+  <si>
+    <t>197230429</t>
+  </si>
+  <si>
+    <t>03/12/2014</t>
+  </si>
+  <si>
+    <t>Would Never Ever Stay Here!</t>
+  </si>
+  <si>
+    <t>I could not get past the smell of the rooms.  It was like walking into a bar, the smoke stench was so bad.  The bed coverings were probably purchased in the 80's. There was hair in the bathtub of one room.  I have to say the poor desk clerk tried to find us a room that was tolerable, but I would not be able to sleep with the smell.  We ended up going to another hotel.  Then I had to shower to get the stink of the Super 8 out of my hair.  I would never ever recommend staying here.</t>
+  </si>
+  <si>
+    <t>March 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56567-d247114-r189613798-Inn_of_Rockwall-Rockwall_Texas.html</t>
+  </si>
+  <si>
+    <t>189613798</t>
+  </si>
+  <si>
+    <t>01/04/2014</t>
+  </si>
+  <si>
+    <t>serviceable room for decent price</t>
+  </si>
+  <si>
+    <t>Reservation on website. Front desk wanted our confirmation number; unusual. Asked how we got a discount. Fill out registration information by hand. Front desk friendly, informative. Room sparsely furnished with worn furniture, good bed. Bathroom had water damage on walls near tub from guests that didn't know how to use a shower curtain. Microwave sat on top of frig and obviously was a replacement for original because the frig had a concave top to accommodate a larger model.  Couldn't get the microwave door open without lifting up the oven to clear the raised edge of the frig. Also needed to unplug a lamp to plug in microwave, as there was only two receptacles for the lamp, microwave and frig. Breakfast of cold cereal, toaster waffles, yogurt, instant oatmeal, juice and coffee. Overall, I would say good value, would stay again. Park right outside door.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2014</t>
+  </si>
+  <si>
+    <t>Reservation on website. Front desk wanted our confirmation number; unusual. Asked how we got a discount. Fill out registration information by hand. Front desk friendly, informative. Room sparsely furnished with worn furniture, good bed. Bathroom had water damage on walls near tub from guests that didn't know how to use a shower curtain. Microwave sat on top of frig and obviously was a replacement for original because the frig had a concave top to accommodate a larger model.  Couldn't get the microwave door open without lifting up the oven to clear the raised edge of the frig. Also needed to unplug a lamp to plug in microwave, as there was only two receptacles for the lamp, microwave and frig. Breakfast of cold cereal, toaster waffles, yogurt, instant oatmeal, juice and coffee. Overall, I would say good value, would stay again. Park right outside door.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56567-d247114-r181219636-Inn_of_Rockwall-Rockwall_Texas.html</t>
+  </si>
+  <si>
+    <t>181219636</t>
+  </si>
+  <si>
+    <t>10/16/2013</t>
+  </si>
+  <si>
+    <t>Great Value</t>
+  </si>
+  <si>
+    <t>My dad and I were just passing through and stayed here. The room was clean and comfortable and the coffee was great in the morning. They also had a nice continental breakfast and it was all for a very reasonable price.  We didn't stay long but the place seemed to be in a great location with lots of nice shopping and dining close by. The best part about the place was the friendly, helpful staff.  I highly recommend staying here.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2013</t>
+  </si>
+  <si>
+    <t>Rockwall8, Guest Relations Manager at Inn of Rockwall, responded to this reviewResponded October 19, 2013</t>
+  </si>
+  <si>
+    <t>Responded October 19, 2013</t>
+  </si>
+  <si>
+    <t>My dad and I were just passing through and stayed here. The room was clean and comfortable and the coffee was great in the morning. They also had a nice continental breakfast and it was all for a very reasonable price.  We didn't stay long but the place seemed to be in a great location with lots of nice shopping and dining close by. The best part about the place was the friendly, helpful staff.  I highly recommend staying here.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56567-d247114-r181061444-Inn_of_Rockwall-Rockwall_Texas.html</t>
+  </si>
+  <si>
+    <t>181061444</t>
+  </si>
+  <si>
+    <t>10/14/2013</t>
+  </si>
+  <si>
+    <t>Great Stay in Rockwall</t>
+  </si>
+  <si>
+    <t>The hotel is clean, location is convenient and the staff very friendly. It is very hard for me to sleep in motels with horrible matresses but these were very comfortable. The room also had a coffee machine. The breakfast was also good.  There is large truck parking for large vehicles and truckers. It is located right off the highway next to the county courthouse.  We will be staying at this motel everytime we come through. The price paid was very resonable.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2013</t>
+  </si>
+  <si>
+    <t>The hotel is clean, location is convenient and the staff very friendly. It is very hard for me to sleep in motels with horrible matresses but these were very comfortable. The room also had a coffee machine. The breakfast was also good.  There is large truck parking for large vehicles and truckers. It is located right off the highway next to the county courthouse.  We will be staying at this motel everytime we come through. The price paid was very resonable.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56567-d247114-r177963414-Inn_of_Rockwall-Rockwall_Texas.html</t>
+  </si>
+  <si>
+    <t>177963414</t>
+  </si>
+  <si>
+    <t>09/20/2013</t>
+  </si>
+  <si>
+    <t>Cheap one night stay</t>
+  </si>
+  <si>
+    <t>We were a group of 6 and had two rooms.  They were nothing special.  The outside of the hotel is not kept up well and is very worn, however,  the rooms were comfortable enough.  Lighting is rather poor. The rooms had wi-fi, microwave, mini-fridge and led TV.  The bathtub had a dead bug in it, but other than that they were fairly clean.  Just old and dated.  This appears to be used a lot by truckers and construction crews as there were several trucks, 18 wheelers and dump trucks in the parking lot.  This is one of those cases where you could say you get what you pay for.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56567-d247114-r171618226-Inn_of_Rockwall-Rockwall_Texas.html</t>
+  </si>
+  <si>
+    <t>171618226</t>
+  </si>
+  <si>
+    <t>08/10/2013</t>
+  </si>
+  <si>
+    <t>FALSE ADVERTISEMENT</t>
+  </si>
+  <si>
+    <t>I have stayed in a few motels and most were pretty good.  But this one, the room was musty and smelly, Room needed dusting.  Breakfast consisted of cereal, toast, coffee (which was empty), juice (which had no taste), one yogurt......definitely not what was advertised.  No internet connection available.  Night person would not help (called three times to no avail).  Pool - there looked like there had not been any water in the pool all summer.</t>
+  </si>
+  <si>
+    <t>August 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56567-d247114-r171393291-Inn_of_Rockwall-Rockwall_Texas.html</t>
+  </si>
+  <si>
+    <t>171393291</t>
+  </si>
+  <si>
+    <t>08/08/2013</t>
+  </si>
+  <si>
+    <t>June 2013</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56567-d247114-r169815653-Inn_of_Rockwall-Rockwall_Texas.html</t>
@@ -815,12 +1020,6 @@
     <t>The room was okay but the service at this hotel sucks will never ever stay there again.Reserved on Wyndham Rewards but paid cash on arrival they did not want to give me a receipt so they could steal the tax money I guess. Took me over three weeks to get my points they basically refused to give them to me had to call wyndham to get them. Reported to comptroller and if you do stay there and they do the same thing to you report them also.</t>
   </si>
   <si>
-    <t>June 2013</t>
-  </si>
-  <si>
-    <t>169Cindy</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56567-d247114-r164614507-Inn_of_Rockwall-Rockwall_Texas.html</t>
   </si>
   <si>
@@ -836,9 +1035,6 @@
     <t>hard to get in the room, desk clerk doesn't know english well, hard to get towels,etc., had to kill bugs for half an hour before we slept, clerk wouldn't change rooms for us, didn't understand what we were saying, bad water pressure, found dead bugs in dresser, cable tv not working good, parking not that good, room smelly, breakfast bar pathetic, no restaurants in walking distance.</t>
   </si>
   <si>
-    <t>aislyn g</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56567-d247114-r158139287-Inn_of_Rockwall-Rockwall_Texas.html</t>
   </si>
   <si>
@@ -860,9 +1056,6 @@
     <t>I stayed here last night 4/18/13. The rooms were $60 a night which I thought was a little expensive for what they were supplying. I went into my room 203 where the light did not turn on then when I stumbled to find a lamp there were cigarette butts in ashtrays all over the rooms with cups filled with a mysterious yellow liquid and the bed was still messed up from the last person who stayed here.  I went back down stairs  ohh. yea sorry about that heres another room was all that was said.. I was not enthused. The second room was ten times better but the floors feel grimey, the towel hanger in the bathroom was broken off and the a/c took about 3 hours to feel like it was on and working.More</t>
   </si>
   <si>
-    <t>boo7144</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56567-d247114-r152388314-Inn_of_Rockwall-Rockwall_Texas.html</t>
   </si>
   <si>
@@ -881,9 +1074,6 @@
     <t>September 2012</t>
   </si>
   <si>
-    <t>kevin p</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56567-d247114-r149273543-Inn_of_Rockwall-Rockwall_Texas.html</t>
   </si>
   <si>
@@ -902,9 +1092,6 @@
     <t>January 2013</t>
   </si>
   <si>
-    <t>RODOLFO S</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56567-d247114-r145983667-Inn_of_Rockwall-Rockwall_Texas.html</t>
   </si>
   <si>
@@ -923,9 +1110,6 @@
     <t>October 2012</t>
   </si>
   <si>
-    <t>HERBERT H</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56567-d247114-r143293496-Inn_of_Rockwall-Rockwall_Texas.html</t>
   </si>
   <si>
@@ -941,9 +1125,6 @@
     <t xml:space="preserve">Don't have anyright now.  We enjoyed our room.  the room was clean, the only problem was that there is an light space between the door jamb and the door,  </t>
   </si>
   <si>
-    <t>SM974</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56567-d247114-r132373735-Inn_of_Rockwall-Rockwall_Texas.html</t>
   </si>
   <si>
@@ -962,19 +1143,25 @@
     <t>June 2012</t>
   </si>
   <si>
-    <t>rn7100</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56567-d247114-r130922935-Inn_of_Rockwall-Rockwall_Texas.html</t>
   </si>
   <si>
     <t>130922935</t>
   </si>
   <si>
-    <t>May 29, 2012</t>
-  </si>
-  <si>
-    <t>Whitley A</t>
+    <t>05/29/2012</t>
+  </si>
+  <si>
+    <t>JUST SOMEWHERE TO REST</t>
+  </si>
+  <si>
+    <t>Me and my husband was on the way home wanted somewhere to sleep for a few hours and get back on the road and didnt want to pay 80 dollars for a few hours so this was our choice the manager was nice he let us look at the room before agreeing to stay rooms were older tv older clean but they keep the air off in the room so the room was very hot but by the time I fell asleep it was comfortable but what was shockn to me was the bed of course was not luxurious but omg! had the best night sleep on the mattress very comfortable almost hated to leave for that reason along for a overnight rest I would stay again but it doesnt have anymore perksMoreShow less</t>
+  </si>
+  <si>
+    <t>May 2012</t>
+  </si>
+  <si>
+    <t>Me and my husband was on the way home wanted somewhere to sleep for a few hours and get back on the road and didnt want to pay 80 dollars for a few hours so this was our choice the manager was nice he let us look at the room before agreeing to stay rooms were older tv older clean but they keep the air off in the room so the room was very hot but by the time I fell asleep it was comfortable but what was shockn to me was the bed of course was not luxurious but omg! had the best night sleep on the mattress very comfortable almost hated to leave for that reason along for a overnight rest I would stay again but it doesnt have anymore perksMore</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56567-d247114-r124944469-Inn_of_Rockwall-Rockwall_Texas.html</t>
@@ -989,7 +1176,94 @@
     <t>February 2012</t>
   </si>
   <si>
-    <t>Carolg903</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56567-d247114-r115903776-Inn_of_Rockwall-Rockwall_Texas.html</t>
+  </si>
+  <si>
+    <t>115903776</t>
+  </si>
+  <si>
+    <t>07/28/2011</t>
+  </si>
+  <si>
+    <t>Not too bad</t>
+  </si>
+  <si>
+    <t>Spouse and I stayed one night in this small hotel. Room was clean, had a large TV, mini fridge, and small coffee maker. Did not have enough towels, absolutely no shampoo and other minor things. The complimentary breakfast was just pastries and coffee. The front desk staff was pleasant and had quick check-in and out.</t>
+  </si>
+  <si>
+    <t>June 2011</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56567-d247114-r112961808-Inn_of_Rockwall-Rockwall_Texas.html</t>
+  </si>
+  <si>
+    <t>112961808</t>
+  </si>
+  <si>
+    <t>06/12/2011</t>
+  </si>
+  <si>
+    <t>Fine for night</t>
+  </si>
+  <si>
+    <t>Reserved on website. No problems checking in. Informative front desk.  King room was large and appeared larger because there wasn't much furniture.  Only one night stand, no table.  Leaky faucet, shower rod will fall down soon.  Powerful, loud, AC with the labels for the controls worn off. Room was clean; including the carpet, eventhough this unit doesn't have interior hallways.  Excellent bed.  Parking in front of the door, easy to unload.  Breakfast of beverages, fruit loops and cornflakes, instant oatmeal and white bread for toast.  Also some pastries.  Coffee weak. Good value overall</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56567-d247114-r105626358-Inn_of_Rockwall-Rockwall_Texas.html</t>
+  </si>
+  <si>
+    <t>105626358</t>
+  </si>
+  <si>
+    <t>04/26/2011</t>
+  </si>
+  <si>
+    <t>EXCELLENT MOTEL STAY IN ROCKWALL TEXAS</t>
+  </si>
+  <si>
+    <t>The Rockwall Super8 is located on the north side of I-30 at exit 68. It is located near the new County Court House, numerous restaurants, a Wallmart, and east of Lake Ray Hubbard. This motel is family operated and they work to please their customers.  I think this motel provides excellent value for the business or pleasure traveller!!</t>
+  </si>
+  <si>
+    <t>April 2011</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56567-d247114-r68741913-Inn_of_Rockwall-Rockwall_Texas.html</t>
+  </si>
+  <si>
+    <t>68741913</t>
+  </si>
+  <si>
+    <t>06/26/2010</t>
+  </si>
+  <si>
+    <t>great value</t>
+  </si>
+  <si>
+    <t>I often must stay overnight in my work and don't need all the extras I don't use.  My stay at Motel 8 gives me a clean and peaceful place to stay AT A GREAT PRICE.  Also has a pool to use which few visitors use.  Great to relax for a quick break.</t>
+  </si>
+  <si>
+    <t>June 2010</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56567-d247114-r30811475-Inn_of_Rockwall-Rockwall_Texas.html</t>
+  </si>
+  <si>
+    <t>30811475</t>
+  </si>
+  <si>
+    <t>05/26/2009</t>
+  </si>
+  <si>
+    <t>Fine for what i needed</t>
+  </si>
+  <si>
+    <t>I stayed here the night before participating in a triathlon at the Y down the street. I needed a bed and that was it. It certainly wasn't the Hilton, and the desk manager had to come help me open the door, but overall it was fine. The bed was comfortable enough, there were no bugs.(that I saw anyway)The room smelled strongly of deodorizer which I don't like, but it didn't stink. I did not try the breakfast, and I was in the hotel for a total of seven hours, but it was fine for that short stay. I wouldn't want to spend a week there. I didn't use the shower as I got up at five to compete in a sweaty race, so I don't know if it was gross or not.I would recommend it to a friend with the same requirements, but I would warn them not to expect anything great.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2009</t>
+  </si>
+  <si>
+    <t>I stayed here the night before participating in a triathlon at the Y down the street. I needed a bed and that was it. It certainly wasn't the Hilton, and the desk manager had to come help me open the door, but overall it was fine. The bed was comfortable enough, there were no bugs.(that I saw anyway)The room smelled strongly of deodorizer which I don't like, but it didn't stink. I did not try the breakfast, and I was in the hotel for a total of seven hours, but it was fine for that short stay. I wouldn't want to spend a week there. I didn't use the shower as I got up at five to compete in a sweaty race, so I don't know if it was gross or not.I would recommend it to a friend with the same requirements, but I would warn them not to expect anything great.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56567-d247114-r18608714-Inn_of_Rockwall-Rockwall_Texas.html</t>
@@ -1010,9 +1284,6 @@
     <t>January 2008</t>
   </si>
   <si>
-    <t>TracyLeagueCityTx</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56567-d247114-r16923991-Inn_of_Rockwall-Rockwall_Texas.html</t>
   </si>
   <si>
@@ -1031,9 +1302,6 @@
     <t>June 2008</t>
   </si>
   <si>
-    <t>charley62</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56567-d247114-r7550815-Inn_of_Rockwall-Rockwall_Texas.html</t>
   </si>
   <si>
@@ -1050,121 +1318,6 @@
   </si>
   <si>
     <t>We knew something was wrong when our room keys had a post-it note on them to tell us our room number.  Not the place to arrive in the middle of a trip, at night and needing rest.  I don't know what happened to this place but we stayed there one hour and got the heck out of there.  Dirty, noisy, greasy, stinky room.  Locks on door that did not work, construction zone all around us so the dirt was everywhere.  Internet was unusable because they put us on far end of hotel and the router did not reach that far.  Refused to fix anything so I had to rely on Hotwire to refund the money.  Maybe this place was great in the past, or will be in the future, but I sure would not stay there at all right now.More</t>
-  </si>
-  <si>
-    <t>John D</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g56567-d247114-r584850149-Inn_of_Rockwall-Rockwall_Texas.html</t>
-  </si>
-  <si>
-    <t>584850149</t>
-  </si>
-  <si>
-    <t>06/03/2018</t>
-  </si>
-  <si>
-    <t>Southern Comfort</t>
-  </si>
-  <si>
-    <t>What a great nights sleep this was. It was affordable and right off of the highway for easy access. The room was clean and they even had premium cable channels! Staff was nice and very accommodating. It was quiet and relaxing with free WiFi and a mini breakfast.</t>
-  </si>
-  <si>
-    <t>June 2018</t>
-  </si>
-  <si>
-    <t>Jennifer J</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g56567-d247114-r545564128-Inn_of_Rockwall-Rockwall_Texas.html</t>
-  </si>
-  <si>
-    <t>545564128</t>
-  </si>
-  <si>
-    <t>12/06/2017</t>
-  </si>
-  <si>
-    <t>Served the purpose</t>
-  </si>
-  <si>
-    <t>My husband, daughter (11 yo) and I stayed here in December 2017.  For the price, it was exactly what we expected.  The rooms had been redone recently, new carpets, paint, and beds.  The beds were very comfortable.  The outside has also been painted.  They didn't update the showers, however, and could use new ones.  And the lobby/check-in haven't been redone.  Don't let that scare you about the rooms.  The rooms were clean, had a micro, small refrigerator, etc.The TV channels were very limited.  Since we were visiting family and had little reason to be in the room, this was not a problem for us.  Overall we had no complaints.  We knew we weren't staying in a five-star hotel.  Would I stay here again?  For the price, indeed I would.Hope this helps.MoreShow less</t>
-  </si>
-  <si>
-    <t>December 2017</t>
-  </si>
-  <si>
-    <t>My husband, daughter (11 yo) and I stayed here in December 2017.  For the price, it was exactly what we expected.  The rooms had been redone recently, new carpets, paint, and beds.  The beds were very comfortable.  The outside has also been painted.  They didn't update the showers, however, and could use new ones.  And the lobby/check-in haven't been redone.  Don't let that scare you about the rooms.  The rooms were clean, had a micro, small refrigerator, etc.The TV channels were very limited.  Since we were visiting family and had little reason to be in the room, this was not a problem for us.  Overall we had no complaints.  We knew we weren't staying in a five-star hotel.  Would I stay here again?  For the price, indeed I would.Hope this helps.More</t>
-  </si>
-  <si>
-    <t>Paula R</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g56567-d247114-r528768456-Inn_of_Rockwall-Rockwall_Texas.html</t>
-  </si>
-  <si>
-    <t>528768456</t>
-  </si>
-  <si>
-    <t>10/01/2017</t>
-  </si>
-  <si>
-    <t>Good pillows and bed</t>
-  </si>
-  <si>
-    <t>Stayed one night because it was economical.  Very clean room, but bathroom needed lots of improvements.  It had hot water. It had a very, very light breakfast. Extra lock on door was broke and saw Sheriff driving around well lit parking lot at night. We will stay there again and recommend it because cheaper than hotels in Terrel,  TX.</t>
-  </si>
-  <si>
-    <t>September 2017</t>
-  </si>
-  <si>
-    <t>Betty F</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g56567-d247114-r509628119-Inn_of_Rockwall-Rockwall_Texas.html</t>
-  </si>
-  <si>
-    <t>509628119</t>
-  </si>
-  <si>
-    <t>08/07/2017</t>
-  </si>
-  <si>
-    <t>Nasty</t>
-  </si>
-  <si>
-    <t>Looked up hotels prior to going to Plano to visit with my granddaughter. Wanted a place with a pool. Got there and paid for 2 nights. Room wasn't too bad then my girls were ready to swim....they had a pool alright with a tarp over it and I went to the office and asked the guy about the pool, all he could say was no pool. So the morning we were in the room and killed 2 spiders on the bed and then granddaughter was at the sink and a bigger one was on her shirt! Went down to have their "continental breakfast" and all they had was cereal and some toaster waffles. I got a couple and since there is no seating took it back to the room. Other granddaughter went and got her a couple and was eating it and said there is a black hair in this! Took it down and showed the guy. I had enough.....waited until 10am and this other girl came in to work and told her I wanted to check out and a refund for the 2nd night I had paid for.MoreShow less</t>
-  </si>
-  <si>
-    <t>August 2017</t>
-  </si>
-  <si>
-    <t>Looked up hotels prior to going to Plano to visit with my granddaughter. Wanted a place with a pool. Got there and paid for 2 nights. Room wasn't too bad then my girls were ready to swim....they had a pool alright with a tarp over it and I went to the office and asked the guy about the pool, all he could say was no pool. So the morning we were in the room and killed 2 spiders on the bed and then granddaughter was at the sink and a bigger one was on her shirt! Went down to have their "continental breakfast" and all they had was cereal and some toaster waffles. I got a couple and since there is no seating took it back to the room. Other granddaughter went and got her a couple and was eating it and said there is a black hair in this! Took it down and showed the guy. I had enough.....waited until 10am and this other girl came in to work and told her I wanted to check out and a refund for the 2nd night I had paid for.More</t>
-  </si>
-  <si>
-    <t>Lyyli M</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g56567-d247114-r509055105-Inn_of_Rockwall-Rockwall_Texas.html</t>
-  </si>
-  <si>
-    <t>509055105</t>
-  </si>
-  <si>
-    <t>08/05/2017</t>
-  </si>
-  <si>
-    <t>Best Stay of My Life</t>
-  </si>
-  <si>
-    <t>It has been years since my last stay here – 22 to be exact. At the time, I have to say that the condition was nearly excellent, if a bit lived-in. It used to be a popular destination for my family, my sister stayed here several years before me, and my brother a couple years after. I haven’t met anyone else who has stayed here over the years, I heard that there were a few other guests but I’ve never heard anything about them since they visited.
-I can only speak to my own experiences, but I had a great stay. For an extended-stay hotel, the rates were excellent, it almost seemed like it was free, the prices were so low! Room service was easy to order, though it did have some strange dietary restrictions – I couldn’t order red meats for some reason? I think the owner said it made her feel sick to smell the meat. The also didn’t serve seafood or alcohol. Over about nine months the menu didn’t change much, but I got used to the same staples. I didn’t get the opportunity to go out to eat during my stay, but plenty of local eateries were able to deliver to my room at no charge.
-Entertainment was alright, usually an eclectic mix of classical music, country music, and crime shows on TV. Unfortunately I wasn’t able to see the picture on my in room television,...It has been years since my last stay here – 22 to be exact. At the time, I have to say that the condition was nearly excellent, if a bit lived-in. It used to be a popular destination for my family, my sister stayed here several years before me, and my brother a couple years after. I haven’t met anyone else who has stayed here over the years, I heard that there were a few other guests but I’ve never heard anything about them since they visited.I can only speak to my own experiences, but I had a great stay. For an extended-stay hotel, the rates were excellent, it almost seemed like it was free, the prices were so low! Room service was easy to order, though it did have some strange dietary restrictions – I couldn’t order red meats for some reason? I think the owner said it made her feel sick to smell the meat. The also didn’t serve seafood or alcohol. Over about nine months the menu didn’t change much, but I got used to the same staples. I didn’t get the opportunity to go out to eat during my stay, but plenty of local eateries were able to deliver to my room at no charge.Entertainment was alright, usually an eclectic mix of classical music, country music, and crime shows on TV. Unfortunately I wasn’t able to see the picture on my in room television, so I could only listen to the TV programs, but it didn’t trouble me much as I spent most of my time in the hotel either sleeping or practicing for my ongoing Judo tournament. The competition really heated up during the later part of my stay, so I was glad to have so much space to practice my kicks.Just a note: There’s only one room here, but it’s probably the coziest you’ll ever stay in. The bed was very plush (and I’m usually a firm bed kind of person, but this might have been the best sleep of my life) and the bedclothes were all a deep satin red – not something I would have thought of for a hotel but it was impressively elegant.By the time I left here, it really felt like home, I honestly cried as soon as I checked out because I knew I would probably never be back. Turns out, I was right. I recently heard the news that this location was torn down by management due to foundation issues, which is sad, but it was costing the owner a lot of money and some of her health to keep it running. It’s doubtful that they’ll ever open a new location, but this was the best hotel stay I’ve ever had.MoreShow less</t>
-  </si>
-  <si>
-    <t>It has been years since my last stay here – 22 to be exact. At the time, I have to say that the condition was nearly excellent, if a bit lived-in. It used to be a popular destination for my family, my sister stayed here several years before me, and my brother a couple years after. I haven’t met anyone else who has stayed here over the years, I heard that there were a few other guests but I’ve never heard anything about them since they visited.
-I can only speak to my own experiences, but I had a great stay. For an extended-stay hotel, the rates were excellent, it almost seemed like it was free, the prices were so low! Room service was easy to order, though it did have some strange dietary restrictions – I couldn’t order red meats for some reason? I think the owner said it made her feel sick to smell the meat. The also didn’t serve seafood or alcohol. Over about nine months the menu didn’t change much, but I got used to the same staples. I didn’t get the opportunity to go out to eat during my stay, but plenty of local eateries were able to deliver to my room at no charge.
-Entertainment was alright, usually an eclectic mix of classical music, country music, and crime shows on TV. Unfortunately I wasn’t able to see the picture on my in room television,...It has been years since my last stay here – 22 to be exact. At the time, I have to say that the condition was nearly excellent, if a bit lived-in. It used to be a popular destination for my family, my sister stayed here several years before me, and my brother a couple years after. I haven’t met anyone else who has stayed here over the years, I heard that there were a few other guests but I’ve never heard anything about them since they visited.I can only speak to my own experiences, but I had a great stay. For an extended-stay hotel, the rates were excellent, it almost seemed like it was free, the prices were so low! Room service was easy to order, though it did have some strange dietary restrictions – I couldn’t order red meats for some reason? I think the owner said it made her feel sick to smell the meat. The also didn’t serve seafood or alcohol. Over about nine months the menu didn’t change much, but I got used to the same staples. I didn’t get the opportunity to go out to eat during my stay, but plenty of local eateries were able to deliver to my room at no charge.Entertainment was alright, usually an eclectic mix of classical music, country music, and crime shows on TV. Unfortunately I wasn’t able to see the picture on my in room television, so I could only listen to the TV programs, but it didn’t trouble me much as I spent most of my time in the hotel either sleeping or practicing for my ongoing Judo tournament. The competition really heated up during the later part of my stay, so I was glad to have so much space to practice my kicks.Just a note: There’s only one room here, but it’s probably the coziest you’ll ever stay in. The bed was very plush (and I’m usually a firm bed kind of person, but this might have been the best sleep of my life) and the bedclothes were all a deep satin red – not something I would have thought of for a hotel but it was impressively elegant.By the time I left here, it really felt like home, I honestly cried as soon as I checked out because I knew I would probably never be back. Turns out, I was right. I recently heard the news that this location was torn down by management due to foundation issues, which is sad, but it was costing the owner a lot of money and some of her health to keep it running. It’s doubtful that they’ll ever open a new location, but this was the best hotel stay I’ve ever had.More</t>
   </si>
 </sst>
 </file>
@@ -1669,47 +1822,43 @@
       <c r="A2" t="n">
         <v>30871</v>
       </c>
-      <c r="B2" t="n">
-        <v>162718</v>
-      </c>
-      <c r="C2" t="s">
-        <v>44</v>
-      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
         <v>45</v>
       </c>
-      <c r="F2" t="s">
-        <v>46</v>
-      </c>
       <c r="G2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
         <v>48</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>49</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>50</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>51</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="n">
+        <v>1</v>
+      </c>
+      <c r="N2" t="s">
         <v>52</v>
       </c>
-      <c r="M2" t="n">
-        <v>5</v>
-      </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>53</v>
-      </c>
-      <c r="O2" t="s">
-        <v>54</v>
       </c>
       <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
@@ -1723,131 +1872,119 @@
       <c r="W2" t="s"/>
       <c r="X2" t="s"/>
       <c r="Y2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>30871</v>
       </c>
-      <c r="B3" t="n">
-        <v>162719</v>
-      </c>
-      <c r="C3" t="s">
-        <v>55</v>
-      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F3" t="s">
+        <v>55</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
         <v>56</v>
       </c>
-      <c r="G3" t="s">
-        <v>47</v>
-      </c>
-      <c r="H3" t="s">
-        <v>48</v>
-      </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>57</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>58</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>59</v>
       </c>
-      <c r="L3" t="s">
+      <c r="M3" t="n">
+        <v>5</v>
+      </c>
+      <c r="N3" t="s">
+        <v>52</v>
+      </c>
+      <c r="O3" t="s">
         <v>60</v>
       </c>
-      <c r="M3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" t="s">
-        <v>61</v>
-      </c>
-      <c r="O3" t="s">
-        <v>62</v>
-      </c>
-      <c r="P3" t="n">
-        <v>1</v>
-      </c>
+      <c r="P3" t="s"/>
       <c r="Q3" t="s"/>
       <c r="R3" t="s"/>
       <c r="S3" t="s"/>
       <c r="T3" t="s"/>
-      <c r="U3" t="n">
-        <v>2</v>
-      </c>
+      <c r="U3" t="s"/>
       <c r="V3" t="n">
         <v>0</v>
       </c>
       <c r="W3" t="s"/>
       <c r="X3" t="s"/>
       <c r="Y3" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>30871</v>
       </c>
-      <c r="B4" t="n">
-        <v>162720</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>61</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>62</v>
+      </c>
+      <c r="J4" t="s">
+        <v>63</v>
+      </c>
+      <c r="K4" t="s">
         <v>64</v>
       </c>
-      <c r="D4" t="n">
-        <v>3</v>
-      </c>
-      <c r="E4" t="s">
-        <v>45</v>
-      </c>
-      <c r="F4" t="s">
+      <c r="L4" t="s">
         <v>65</v>
       </c>
-      <c r="G4" t="s">
-        <v>47</v>
-      </c>
-      <c r="H4" t="s">
-        <v>48</v>
-      </c>
-      <c r="I4" t="s">
+      <c r="M4" t="n">
+        <v>3</v>
+      </c>
+      <c r="N4" t="s">
         <v>66</v>
       </c>
-      <c r="J4" t="s">
-        <v>67</v>
-      </c>
-      <c r="K4" t="s">
-        <v>68</v>
-      </c>
-      <c r="L4" t="s">
-        <v>69</v>
-      </c>
-      <c r="M4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" t="s">
-        <v>70</v>
-      </c>
       <c r="O4" t="s">
-        <v>71</v>
-      </c>
-      <c r="P4" t="n">
-        <v>1</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P4" t="s"/>
       <c r="Q4" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R4" t="s"/>
-      <c r="S4" t="s"/>
+      <c r="S4" t="n">
+        <v>4</v>
+      </c>
       <c r="T4" t="s"/>
       <c r="U4" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -1855,54 +1992,50 @@
       <c r="W4" t="s"/>
       <c r="X4" t="s"/>
       <c r="Y4" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>30871</v>
       </c>
-      <c r="B5" t="n">
-        <v>162721</v>
-      </c>
-      <c r="C5" t="s">
-        <v>72</v>
-      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F5" t="s">
+        <v>68</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>69</v>
+      </c>
+      <c r="J5" t="s">
+        <v>70</v>
+      </c>
+      <c r="K5" t="s">
+        <v>71</v>
+      </c>
+      <c r="L5" t="s">
+        <v>72</v>
+      </c>
+      <c r="M5" t="n">
+        <v>3</v>
+      </c>
+      <c r="N5" t="s">
         <v>73</v>
       </c>
-      <c r="G5" t="s">
-        <v>47</v>
-      </c>
-      <c r="H5" t="s">
-        <v>48</v>
-      </c>
-      <c r="I5" t="s">
-        <v>74</v>
-      </c>
-      <c r="J5" t="s">
-        <v>75</v>
-      </c>
-      <c r="K5" t="s">
-        <v>76</v>
-      </c>
-      <c r="L5" t="s">
-        <v>77</v>
-      </c>
-      <c r="M5" t="n">
-        <v>3</v>
-      </c>
-      <c r="N5" t="s">
-        <v>78</v>
-      </c>
       <c r="O5" t="s">
-        <v>79</v>
+        <v>53</v>
       </c>
       <c r="P5" t="s"/>
       <c r="Q5" t="n">
@@ -1910,7 +2043,7 @@
       </c>
       <c r="R5" t="s"/>
       <c r="S5" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T5" t="s"/>
       <c r="U5" t="n">
@@ -1922,66 +2055,60 @@
       <c r="W5" t="s"/>
       <c r="X5" t="s"/>
       <c r="Y5" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>30871</v>
       </c>
-      <c r="B6" t="n">
-        <v>162722</v>
-      </c>
-      <c r="C6" t="s">
-        <v>80</v>
-      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F6" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="G6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I6" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="J6" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="K6" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="L6" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="M6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N6" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="O6" t="s">
-        <v>71</v>
-      </c>
-      <c r="P6" t="s"/>
+        <v>53</v>
+      </c>
+      <c r="P6" t="n">
+        <v>1</v>
+      </c>
       <c r="Q6" t="s"/>
-      <c r="R6" t="n">
-        <v>2</v>
-      </c>
-      <c r="S6" t="n">
-        <v>2</v>
-      </c>
+      <c r="R6" t="s"/>
+      <c r="S6" t="s"/>
       <c r="T6" t="s"/>
       <c r="U6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -1989,66 +2116,62 @@
       <c r="W6" t="s"/>
       <c r="X6" t="s"/>
       <c r="Y6" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>30871</v>
       </c>
-      <c r="B7" t="n">
-        <v>6707</v>
-      </c>
-      <c r="C7" t="s">
-        <v>87</v>
-      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F7" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="G7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I7" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="J7" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="K7" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="L7" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="M7" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N7" t="s">
-        <v>93</v>
+        <v>79</v>
       </c>
       <c r="O7" t="s">
-        <v>54</v>
-      </c>
-      <c r="P7" t="s"/>
+        <v>86</v>
+      </c>
+      <c r="P7" t="n">
+        <v>5</v>
+      </c>
       <c r="Q7" t="s"/>
       <c r="R7" t="n">
-        <v>3</v>
-      </c>
-      <c r="S7" t="n">
-        <v>3</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="S7" t="s"/>
       <c r="T7" t="s"/>
       <c r="U7" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -2056,54 +2179,50 @@
       <c r="W7" t="s"/>
       <c r="X7" t="s"/>
       <c r="Y7" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>30871</v>
       </c>
-      <c r="B8" t="n">
-        <v>15251</v>
-      </c>
-      <c r="C8" t="s">
-        <v>94</v>
-      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F8" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="G8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I8" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="J8" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="K8" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="L8" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="M8" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N8" t="s">
         <v>93</v>
       </c>
       <c r="O8" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="P8" t="s"/>
       <c r="Q8" t="s"/>
@@ -2117,253 +2236,249 @@
       <c r="W8" t="s"/>
       <c r="X8" t="s"/>
       <c r="Y8" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>30871</v>
       </c>
-      <c r="B9" t="n">
-        <v>162723</v>
-      </c>
-      <c r="C9" t="s">
-        <v>101</v>
-      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F9" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="G9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I9" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="J9" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="K9" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="L9" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="M9" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N9" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="O9" t="s">
-        <v>79</v>
-      </c>
-      <c r="P9" t="s"/>
+        <v>100</v>
+      </c>
+      <c r="P9" t="n">
+        <v>1</v>
+      </c>
       <c r="Q9" t="s"/>
       <c r="R9" t="s"/>
       <c r="S9" t="s"/>
       <c r="T9" t="s"/>
-      <c r="U9" t="s"/>
+      <c r="U9" t="n">
+        <v>2</v>
+      </c>
       <c r="V9" t="n">
         <v>0</v>
       </c>
       <c r="W9" t="s"/>
       <c r="X9" t="s"/>
       <c r="Y9" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>30871</v>
       </c>
-      <c r="B10" t="n">
-        <v>162724</v>
-      </c>
-      <c r="C10" t="s">
-        <v>109</v>
-      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F10" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="G10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I10" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="J10" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="K10" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="L10" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="M10" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N10" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="O10" t="s">
-        <v>116</v>
-      </c>
-      <c r="P10" t="s"/>
-      <c r="Q10" t="s"/>
+        <v>108</v>
+      </c>
+      <c r="P10" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>1</v>
+      </c>
       <c r="R10" t="s"/>
       <c r="S10" t="s"/>
       <c r="T10" t="s"/>
-      <c r="U10" t="s"/>
+      <c r="U10" t="n">
+        <v>1</v>
+      </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="s"/>
       <c r="X10" t="s"/>
       <c r="Y10" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>30871</v>
       </c>
-      <c r="B11" t="n">
-        <v>162725</v>
-      </c>
-      <c r="C11" t="s">
-        <v>117</v>
-      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F11" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="G11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I11" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="J11" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="K11" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="L11" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="M11" t="n">
         <v>3</v>
       </c>
       <c r="N11" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="O11" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="P11" t="s"/>
-      <c r="Q11" t="s"/>
+      <c r="Q11" t="n">
+        <v>3</v>
+      </c>
       <c r="R11" t="s"/>
-      <c r="S11" t="s"/>
+      <c r="S11" t="n">
+        <v>4</v>
+      </c>
       <c r="T11" t="s"/>
-      <c r="U11" t="s"/>
+      <c r="U11" t="n">
+        <v>3</v>
+      </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="s"/>
       <c r="X11" t="s"/>
       <c r="Y11" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>30871</v>
       </c>
-      <c r="B12" t="n">
-        <v>4235</v>
-      </c>
-      <c r="C12" t="s">
-        <v>125</v>
-      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F12" t="s">
-        <v>126</v>
+        <v>115</v>
       </c>
       <c r="G12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I12" t="s">
-        <v>127</v>
+        <v>116</v>
       </c>
       <c r="J12" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
       <c r="K12" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
       <c r="L12" t="s">
-        <v>130</v>
+        <v>119</v>
       </c>
       <c r="M12" t="n">
         <v>2</v>
       </c>
       <c r="N12" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="O12" t="s">
-        <v>116</v>
-      </c>
-      <c r="P12" t="n">
+        <v>108</v>
+      </c>
+      <c r="P12" t="s"/>
+      <c r="Q12" t="s"/>
+      <c r="R12" t="n">
         <v>2</v>
       </c>
-      <c r="Q12" t="n">
-        <v>1</v>
-      </c>
-      <c r="R12" t="n">
-        <v>3</v>
-      </c>
       <c r="S12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T12" t="s"/>
       <c r="U12" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -2371,115 +2486,113 @@
       <c r="W12" t="s"/>
       <c r="X12" t="s"/>
       <c r="Y12" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>30871</v>
       </c>
-      <c r="B13" t="n">
-        <v>162726</v>
-      </c>
-      <c r="C13" t="s">
-        <v>131</v>
-      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F13" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
       <c r="G13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I13" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="J13" t="s">
-        <v>134</v>
+        <v>123</v>
       </c>
       <c r="K13" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
       <c r="L13" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
       <c r="M13" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N13" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
       <c r="O13" t="s">
-        <v>79</v>
+        <v>60</v>
       </c>
       <c r="P13" t="s"/>
       <c r="Q13" t="s"/>
-      <c r="R13" t="s"/>
-      <c r="S13" t="s"/>
+      <c r="R13" t="n">
+        <v>3</v>
+      </c>
+      <c r="S13" t="n">
+        <v>3</v>
+      </c>
       <c r="T13" t="s"/>
-      <c r="U13" t="s"/>
+      <c r="U13" t="n">
+        <v>2</v>
+      </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="s"/>
       <c r="X13" t="s"/>
       <c r="Y13" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>30871</v>
       </c>
-      <c r="B14" t="n">
-        <v>162727</v>
-      </c>
-      <c r="C14" t="s">
-        <v>138</v>
-      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F14" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="G14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H14" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I14" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
       <c r="J14" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
       <c r="K14" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
       <c r="L14" t="s">
-        <v>143</v>
+        <v>131</v>
       </c>
       <c r="M14" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N14" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
       <c r="O14" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="P14" t="s"/>
       <c r="Q14" t="s"/>
@@ -2493,122 +2606,108 @@
       <c r="W14" t="s"/>
       <c r="X14" t="s"/>
       <c r="Y14" t="s">
-        <v>143</v>
+        <v>132</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>30871</v>
       </c>
-      <c r="B15" t="n">
-        <v>162728</v>
-      </c>
-      <c r="C15" t="s">
-        <v>144</v>
-      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F15" t="s">
-        <v>145</v>
+        <v>133</v>
       </c>
       <c r="G15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H15" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I15" t="s">
-        <v>146</v>
+        <v>134</v>
       </c>
       <c r="J15" t="s">
-        <v>147</v>
+        <v>135</v>
       </c>
       <c r="K15" t="s">
-        <v>148</v>
+        <v>136</v>
       </c>
       <c r="L15" t="s">
-        <v>149</v>
+        <v>137</v>
       </c>
       <c r="M15" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N15" t="s">
-        <v>150</v>
+        <v>138</v>
       </c>
       <c r="O15" t="s">
-        <v>71</v>
-      </c>
-      <c r="P15" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>3</v>
-      </c>
-      <c r="R15" t="n">
-        <v>4</v>
-      </c>
-      <c r="S15" t="n">
-        <v>3</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="P15" t="s"/>
+      <c r="Q15" t="s"/>
+      <c r="R15" t="s"/>
+      <c r="S15" t="s"/>
       <c r="T15" t="s"/>
-      <c r="U15" t="n">
-        <v>3</v>
-      </c>
+      <c r="U15" t="s"/>
       <c r="V15" t="n">
         <v>0</v>
       </c>
       <c r="W15" t="s"/>
       <c r="X15" t="s"/>
       <c r="Y15" t="s">
-        <v>149</v>
+        <v>139</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>30871</v>
       </c>
-      <c r="B16" t="n">
-        <v>162729</v>
-      </c>
-      <c r="C16" t="s">
-        <v>151</v>
-      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F16" t="s">
-        <v>152</v>
+        <v>140</v>
       </c>
       <c r="G16" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I16" t="s">
-        <v>153</v>
+        <v>141</v>
       </c>
       <c r="J16" t="s">
-        <v>154</v>
+        <v>142</v>
       </c>
       <c r="K16" t="s">
-        <v>155</v>
+        <v>143</v>
       </c>
       <c r="L16" t="s">
-        <v>156</v>
+        <v>144</v>
       </c>
       <c r="M16" t="n">
-        <v>1</v>
-      </c>
-      <c r="N16" t="s"/>
-      <c r="O16" t="s"/>
+        <v>3</v>
+      </c>
+      <c r="N16" t="s">
+        <v>145</v>
+      </c>
+      <c r="O16" t="s">
+        <v>53</v>
+      </c>
       <c r="P16" t="s"/>
       <c r="Q16" t="s"/>
       <c r="R16" t="s"/>
@@ -2621,54 +2720,50 @@
       <c r="W16" t="s"/>
       <c r="X16" t="s"/>
       <c r="Y16" t="s">
-        <v>156</v>
+        <v>144</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>30871</v>
       </c>
-      <c r="B17" t="n">
-        <v>162730</v>
-      </c>
-      <c r="C17" t="s">
-        <v>157</v>
-      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F17" t="s">
-        <v>158</v>
+        <v>146</v>
       </c>
       <c r="G17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H17" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I17" t="s">
-        <v>159</v>
+        <v>147</v>
       </c>
       <c r="J17" t="s">
-        <v>160</v>
+        <v>148</v>
       </c>
       <c r="K17" t="s">
-        <v>161</v>
+        <v>149</v>
       </c>
       <c r="L17" t="s">
-        <v>162</v>
+        <v>150</v>
       </c>
       <c r="M17" t="n">
         <v>3</v>
       </c>
       <c r="N17" t="s">
-        <v>163</v>
+        <v>151</v>
       </c>
       <c r="O17" t="s">
-        <v>54</v>
+        <v>86</v>
       </c>
       <c r="P17" t="s"/>
       <c r="Q17" t="s"/>
@@ -2682,519 +2777,475 @@
       <c r="W17" t="s"/>
       <c r="X17" t="s"/>
       <c r="Y17" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>30871</v>
       </c>
-      <c r="B18" t="n">
-        <v>162731</v>
-      </c>
-      <c r="C18" t="s">
-        <v>164</v>
-      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F18" t="s">
-        <v>165</v>
+        <v>153</v>
       </c>
       <c r="G18" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H18" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I18" t="s">
-        <v>166</v>
+        <v>154</v>
       </c>
       <c r="J18" t="s">
-        <v>167</v>
+        <v>155</v>
       </c>
       <c r="K18" t="s">
-        <v>168</v>
+        <v>156</v>
       </c>
       <c r="L18" t="s">
-        <v>169</v>
+        <v>157</v>
       </c>
       <c r="M18" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N18" t="s">
-        <v>163</v>
+        <v>151</v>
       </c>
       <c r="O18" t="s">
-        <v>116</v>
-      </c>
-      <c r="P18" t="s"/>
-      <c r="Q18" t="s"/>
-      <c r="R18" t="s"/>
-      <c r="S18" t="s"/>
+        <v>53</v>
+      </c>
+      <c r="P18" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>1</v>
+      </c>
+      <c r="R18" t="n">
+        <v>3</v>
+      </c>
+      <c r="S18" t="n">
+        <v>1</v>
+      </c>
       <c r="T18" t="s"/>
-      <c r="U18" t="s"/>
+      <c r="U18" t="n">
+        <v>5</v>
+      </c>
       <c r="V18" t="n">
         <v>0</v>
       </c>
       <c r="W18" t="s"/>
       <c r="X18" t="s"/>
       <c r="Y18" t="s">
-        <v>170</v>
+        <v>157</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>30871</v>
       </c>
-      <c r="B19" t="n">
-        <v>6545</v>
-      </c>
-      <c r="C19" t="s">
-        <v>171</v>
-      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F19" t="s">
-        <v>172</v>
+        <v>158</v>
       </c>
       <c r="G19" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H19" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I19" t="s">
-        <v>173</v>
+        <v>159</v>
       </c>
       <c r="J19" t="s">
-        <v>174</v>
+        <v>160</v>
       </c>
       <c r="K19" t="s">
-        <v>175</v>
+        <v>161</v>
       </c>
       <c r="L19" t="s">
-        <v>176</v>
+        <v>162</v>
       </c>
       <c r="M19" t="n">
         <v>1</v>
       </c>
       <c r="N19" t="s">
-        <v>150</v>
+        <v>163</v>
       </c>
       <c r="O19" t="s">
-        <v>71</v>
-      </c>
-      <c r="P19" t="n">
-        <v>1</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="P19" t="s"/>
       <c r="Q19" t="s"/>
       <c r="R19" t="s"/>
       <c r="S19" t="s"/>
       <c r="T19" t="s"/>
-      <c r="U19" t="n">
-        <v>1</v>
-      </c>
+      <c r="U19" t="s"/>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="s"/>
       <c r="X19" t="s"/>
       <c r="Y19" t="s">
-        <v>177</v>
+        <v>162</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>30871</v>
       </c>
-      <c r="B20" t="n">
-        <v>27764</v>
-      </c>
-      <c r="C20" t="s">
-        <v>178</v>
-      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F20" t="s">
-        <v>179</v>
+        <v>164</v>
       </c>
       <c r="G20" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H20" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I20" t="s">
-        <v>180</v>
+        <v>165</v>
       </c>
       <c r="J20" t="s">
-        <v>181</v>
+        <v>166</v>
       </c>
       <c r="K20" t="s">
-        <v>182</v>
+        <v>167</v>
       </c>
       <c r="L20" t="s">
-        <v>183</v>
+        <v>168</v>
       </c>
       <c r="M20" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N20" t="s">
-        <v>184</v>
+        <v>163</v>
       </c>
       <c r="O20" t="s">
-        <v>116</v>
-      </c>
-      <c r="P20" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>3</v>
-      </c>
-      <c r="R20" t="n">
-        <v>3</v>
-      </c>
-      <c r="S20" t="n">
-        <v>3</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="P20" t="s"/>
+      <c r="Q20" t="s"/>
+      <c r="R20" t="s"/>
+      <c r="S20" t="s"/>
       <c r="T20" t="s"/>
-      <c r="U20" t="n">
-        <v>1</v>
-      </c>
+      <c r="U20" t="s"/>
       <c r="V20" t="n">
         <v>0</v>
       </c>
       <c r="W20" t="s"/>
       <c r="X20" t="s"/>
       <c r="Y20" t="s">
-        <v>183</v>
+        <v>168</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>30871</v>
       </c>
-      <c r="B21" t="n">
-        <v>132363</v>
-      </c>
-      <c r="C21" t="s">
-        <v>185</v>
-      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F21" t="s">
-        <v>186</v>
+        <v>169</v>
       </c>
       <c r="G21" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H21" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I21" t="s">
-        <v>187</v>
+        <v>170</v>
       </c>
       <c r="J21" t="s">
-        <v>188</v>
+        <v>171</v>
       </c>
       <c r="K21" t="s">
-        <v>189</v>
+        <v>172</v>
       </c>
       <c r="L21" t="s">
-        <v>190</v>
+        <v>173</v>
       </c>
       <c r="M21" t="n">
         <v>4</v>
       </c>
       <c r="N21" t="s">
-        <v>191</v>
+        <v>174</v>
       </c>
       <c r="O21" t="s">
-        <v>71</v>
-      </c>
-      <c r="P21" t="s"/>
-      <c r="Q21" t="s"/>
-      <c r="R21" t="s"/>
-      <c r="S21" t="s"/>
+        <v>108</v>
+      </c>
+      <c r="P21" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>3</v>
+      </c>
+      <c r="R21" t="n">
+        <v>4</v>
+      </c>
+      <c r="S21" t="n">
+        <v>3</v>
+      </c>
       <c r="T21" t="s"/>
-      <c r="U21" t="s"/>
+      <c r="U21" t="n">
+        <v>3</v>
+      </c>
       <c r="V21" t="n">
         <v>0</v>
       </c>
       <c r="W21" t="s"/>
       <c r="X21" t="s"/>
       <c r="Y21" t="s">
-        <v>190</v>
+        <v>173</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>30871</v>
       </c>
-      <c r="B22" t="n">
-        <v>18091</v>
-      </c>
-      <c r="C22" t="s">
-        <v>192</v>
-      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
       <c r="D22" t="n">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F22" t="s">
-        <v>193</v>
+        <v>175</v>
       </c>
       <c r="G22" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H22" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I22" t="s">
-        <v>194</v>
+        <v>176</v>
       </c>
       <c r="J22" t="s">
-        <v>195</v>
-      </c>
-      <c r="K22" t="s"/>
-      <c r="L22" t="s"/>
+        <v>177</v>
+      </c>
+      <c r="K22" t="s">
+        <v>178</v>
+      </c>
+      <c r="L22" t="s">
+        <v>179</v>
+      </c>
       <c r="M22" t="n">
-        <v>3</v>
-      </c>
-      <c r="N22" t="s">
-        <v>196</v>
-      </c>
-      <c r="O22" t="s">
-        <v>79</v>
-      </c>
-      <c r="P22" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>3</v>
-      </c>
-      <c r="R22" t="n">
-        <v>4</v>
-      </c>
-      <c r="S22" t="n">
-        <v>3</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N22" t="s"/>
+      <c r="O22" t="s"/>
+      <c r="P22" t="s"/>
+      <c r="Q22" t="s"/>
+      <c r="R22" t="s"/>
+      <c r="S22" t="s"/>
       <c r="T22" t="s"/>
-      <c r="U22" t="n">
-        <v>3</v>
-      </c>
+      <c r="U22" t="s"/>
       <c r="V22" t="n">
         <v>0</v>
+      </c>
+      <c r="W22" t="s"/>
+      <c r="X22" t="s"/>
+      <c r="Y22" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>30871</v>
       </c>
-      <c r="B23" t="n">
-        <v>162732</v>
-      </c>
-      <c r="C23" t="s">
-        <v>197</v>
-      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
       <c r="D23" t="n">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F23" t="s">
-        <v>198</v>
+        <v>180</v>
       </c>
       <c r="G23" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H23" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I23" t="s">
-        <v>199</v>
+        <v>181</v>
       </c>
       <c r="J23" t="s">
-        <v>200</v>
-      </c>
-      <c r="K23" t="s"/>
-      <c r="L23" t="s"/>
+        <v>182</v>
+      </c>
+      <c r="K23" t="s">
+        <v>183</v>
+      </c>
+      <c r="L23" t="s">
+        <v>184</v>
+      </c>
       <c r="M23" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N23" t="s">
-        <v>196</v>
+        <v>185</v>
       </c>
       <c r="O23" t="s">
-        <v>54</v>
-      </c>
-      <c r="P23" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>2</v>
-      </c>
-      <c r="R23" t="n">
-        <v>3</v>
-      </c>
-      <c r="S23" t="n">
-        <v>3</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="P23" t="s"/>
+      <c r="Q23" t="s"/>
+      <c r="R23" t="s"/>
+      <c r="S23" t="s"/>
       <c r="T23" t="s"/>
-      <c r="U23" t="n">
-        <v>3</v>
-      </c>
+      <c r="U23" t="s"/>
       <c r="V23" t="n">
         <v>0</v>
+      </c>
+      <c r="W23" t="s"/>
+      <c r="X23" t="s"/>
+      <c r="Y23" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>30871</v>
       </c>
-      <c r="B24" t="n">
-        <v>9635</v>
-      </c>
-      <c r="C24" t="s">
-        <v>201</v>
-      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
       <c r="D24" t="n">
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F24" t="s">
-        <v>202</v>
+        <v>186</v>
       </c>
       <c r="G24" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H24" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I24" t="s">
-        <v>203</v>
+        <v>187</v>
       </c>
       <c r="J24" t="s">
-        <v>204</v>
+        <v>188</v>
       </c>
       <c r="K24" t="s">
-        <v>205</v>
+        <v>189</v>
       </c>
       <c r="L24" t="s">
-        <v>206</v>
+        <v>190</v>
       </c>
       <c r="M24" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N24" t="s">
-        <v>207</v>
+        <v>185</v>
       </c>
       <c r="O24" t="s">
-        <v>71</v>
-      </c>
-      <c r="P24" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q24" t="n">
-        <v>5</v>
-      </c>
-      <c r="R24" t="n">
-        <v>4</v>
-      </c>
-      <c r="S24" t="n">
-        <v>5</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P24" t="s"/>
+      <c r="Q24" t="s"/>
+      <c r="R24" t="s"/>
+      <c r="S24" t="s"/>
       <c r="T24" t="s"/>
-      <c r="U24" t="n">
-        <v>4</v>
-      </c>
+      <c r="U24" t="s"/>
       <c r="V24" t="n">
         <v>0</v>
       </c>
       <c r="W24" t="s"/>
       <c r="X24" t="s"/>
       <c r="Y24" t="s">
-        <v>206</v>
+        <v>191</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>30871</v>
       </c>
-      <c r="B25" t="n">
-        <v>43870</v>
-      </c>
-      <c r="C25" t="s">
-        <v>208</v>
-      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
       <c r="D25" t="n">
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F25" t="s">
-        <v>209</v>
+        <v>192</v>
       </c>
       <c r="G25" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H25" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I25" t="s">
-        <v>210</v>
+        <v>193</v>
       </c>
       <c r="J25" t="s">
-        <v>211</v>
+        <v>194</v>
       </c>
       <c r="K25" t="s">
-        <v>212</v>
+        <v>195</v>
       </c>
       <c r="L25" t="s">
-        <v>213</v>
+        <v>196</v>
       </c>
       <c r="M25" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N25" t="s">
-        <v>214</v>
+        <v>174</v>
       </c>
       <c r="O25" t="s">
-        <v>54</v>
-      </c>
-      <c r="P25" t="s"/>
-      <c r="Q25" t="n">
-        <v>3</v>
-      </c>
-      <c r="R25" t="n">
-        <v>3</v>
-      </c>
+        <v>108</v>
+      </c>
+      <c r="P25" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q25" t="s"/>
+      <c r="R25" t="s"/>
       <c r="S25" t="s"/>
       <c r="T25" t="s"/>
       <c r="U25" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -3202,54 +3253,50 @@
       <c r="W25" t="s"/>
       <c r="X25" t="s"/>
       <c r="Y25" t="s">
-        <v>213</v>
+        <v>197</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
         <v>30871</v>
       </c>
-      <c r="B26" t="n">
-        <v>1907</v>
-      </c>
-      <c r="C26" t="s">
-        <v>215</v>
-      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
       <c r="D26" t="n">
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F26" t="s">
-        <v>216</v>
+        <v>198</v>
       </c>
       <c r="G26" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H26" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I26" t="s">
-        <v>217</v>
+        <v>199</v>
       </c>
       <c r="J26" t="s">
-        <v>218</v>
+        <v>200</v>
       </c>
       <c r="K26" t="s">
-        <v>219</v>
+        <v>201</v>
       </c>
       <c r="L26" t="s">
-        <v>220</v>
+        <v>202</v>
       </c>
       <c r="M26" t="n">
         <v>3</v>
       </c>
       <c r="N26" t="s">
-        <v>221</v>
+        <v>203</v>
       </c>
       <c r="O26" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="P26" t="n">
         <v>3</v>
@@ -3265,7 +3312,7 @@
       </c>
       <c r="T26" t="s"/>
       <c r="U26" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -3273,260 +3320,245 @@
       <c r="W26" t="s"/>
       <c r="X26" t="s"/>
       <c r="Y26" t="s">
-        <v>220</v>
+        <v>202</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
         <v>30871</v>
       </c>
-      <c r="B27" t="n">
-        <v>29</v>
-      </c>
-      <c r="C27" t="s">
-        <v>222</v>
-      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
       <c r="D27" t="n">
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F27" t="s">
-        <v>223</v>
+        <v>204</v>
       </c>
       <c r="G27" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H27" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I27" t="s">
-        <v>224</v>
+        <v>205</v>
       </c>
       <c r="J27" t="s">
-        <v>225</v>
-      </c>
-      <c r="K27" t="s"/>
-      <c r="L27" t="s"/>
+        <v>206</v>
+      </c>
+      <c r="K27" t="s">
+        <v>207</v>
+      </c>
+      <c r="L27" t="s">
+        <v>208</v>
+      </c>
       <c r="M27" t="n">
         <v>4</v>
       </c>
       <c r="N27" t="s">
-        <v>226</v>
+        <v>209</v>
       </c>
       <c r="O27" t="s">
-        <v>71</v>
-      </c>
-      <c r="P27" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q27" t="n">
-        <v>5</v>
-      </c>
-      <c r="R27" t="n">
-        <v>5</v>
-      </c>
-      <c r="S27" t="n">
-        <v>5</v>
-      </c>
+        <v>108</v>
+      </c>
+      <c r="P27" t="s"/>
+      <c r="Q27" t="s"/>
+      <c r="R27" t="s"/>
+      <c r="S27" t="s"/>
       <c r="T27" t="s"/>
-      <c r="U27" t="n">
-        <v>5</v>
-      </c>
+      <c r="U27" t="s"/>
       <c r="V27" t="n">
         <v>0</v>
+      </c>
+      <c r="W27" t="s"/>
+      <c r="X27" t="s"/>
+      <c r="Y27" t="s">
+        <v>208</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
         <v>30871</v>
       </c>
-      <c r="B28" t="n">
-        <v>162733</v>
-      </c>
-      <c r="C28" t="s">
-        <v>227</v>
-      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
       <c r="D28" t="n">
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F28" t="s">
-        <v>228</v>
+        <v>210</v>
       </c>
       <c r="G28" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H28" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I28" t="s">
-        <v>229</v>
+        <v>211</v>
       </c>
       <c r="J28" t="s">
-        <v>230</v>
-      </c>
-      <c r="K28" t="s">
-        <v>231</v>
-      </c>
-      <c r="L28" t="s">
-        <v>232</v>
-      </c>
+        <v>212</v>
+      </c>
+      <c r="K28" t="s"/>
+      <c r="L28" t="s"/>
       <c r="M28" t="n">
         <v>3</v>
       </c>
       <c r="N28" t="s">
-        <v>233</v>
+        <v>213</v>
       </c>
       <c r="O28" t="s">
-        <v>54</v>
+        <v>86</v>
       </c>
       <c r="P28" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q28" t="s"/>
-      <c r="R28" t="s"/>
-      <c r="S28" t="s"/>
+        <v>3</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>3</v>
+      </c>
+      <c r="R28" t="n">
+        <v>4</v>
+      </c>
+      <c r="S28" t="n">
+        <v>3</v>
+      </c>
       <c r="T28" t="s"/>
       <c r="U28" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="s"/>
       <c r="X28" t="s"/>
-      <c r="Y28" t="s">
-        <v>232</v>
-      </c>
+      <c r="Y28" t="s"/>
     </row>
     <row r="29">
       <c r="A29" t="n">
         <v>30871</v>
       </c>
-      <c r="B29" t="n">
-        <v>38107</v>
-      </c>
-      <c r="C29" t="s">
-        <v>234</v>
-      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
       <c r="D29" t="n">
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F29" t="s">
-        <v>235</v>
+        <v>214</v>
       </c>
       <c r="G29" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H29" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I29" t="s">
-        <v>236</v>
+        <v>215</v>
       </c>
       <c r="J29" t="s">
-        <v>237</v>
-      </c>
-      <c r="K29" t="s">
-        <v>238</v>
-      </c>
-      <c r="L29" t="s">
-        <v>239</v>
-      </c>
+        <v>216</v>
+      </c>
+      <c r="K29" t="s"/>
+      <c r="L29" t="s"/>
       <c r="M29" t="n">
-        <v>1</v>
-      </c>
-      <c r="N29" t="s"/>
-      <c r="O29" t="s"/>
+        <v>2</v>
+      </c>
+      <c r="N29" t="s">
+        <v>213</v>
+      </c>
+      <c r="O29" t="s">
+        <v>60</v>
+      </c>
       <c r="P29" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q29" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R29" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="S29" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="T29" t="s"/>
       <c r="U29" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
       </c>
       <c r="W29" t="s"/>
       <c r="X29" t="s"/>
-      <c r="Y29" t="s">
-        <v>240</v>
-      </c>
+      <c r="Y29" t="s"/>
     </row>
     <row r="30">
       <c r="A30" t="n">
         <v>30871</v>
       </c>
-      <c r="B30" t="n">
-        <v>162734</v>
-      </c>
-      <c r="C30" t="s">
-        <v>241</v>
-      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
       <c r="D30" t="n">
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F30" t="s">
-        <v>242</v>
+        <v>217</v>
       </c>
       <c r="G30" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H30" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I30" t="s">
-        <v>243</v>
+        <v>218</v>
       </c>
       <c r="J30" t="s">
-        <v>244</v>
+        <v>219</v>
       </c>
       <c r="K30" t="s">
-        <v>245</v>
+        <v>220</v>
       </c>
       <c r="L30" t="s">
-        <v>246</v>
+        <v>221</v>
       </c>
       <c r="M30" t="n">
         <v>4</v>
       </c>
       <c r="N30" t="s">
-        <v>247</v>
+        <v>222</v>
       </c>
       <c r="O30" t="s">
-        <v>54</v>
-      </c>
-      <c r="P30" t="s"/>
+        <v>108</v>
+      </c>
+      <c r="P30" t="n">
+        <v>5</v>
+      </c>
       <c r="Q30" t="n">
         <v>5</v>
       </c>
-      <c r="R30" t="s"/>
+      <c r="R30" t="n">
+        <v>4</v>
+      </c>
       <c r="S30" t="n">
         <v>5</v>
       </c>
       <c r="T30" t="s"/>
       <c r="U30" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -3534,70 +3566,62 @@
       <c r="W30" t="s"/>
       <c r="X30" t="s"/>
       <c r="Y30" t="s">
-        <v>246</v>
+        <v>221</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
         <v>30871</v>
       </c>
-      <c r="B31" t="n">
-        <v>162735</v>
-      </c>
-      <c r="C31" t="s">
-        <v>248</v>
-      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
       <c r="D31" t="n">
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F31" t="s">
-        <v>249</v>
+        <v>223</v>
       </c>
       <c r="G31" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H31" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I31" t="s">
-        <v>250</v>
+        <v>224</v>
       </c>
       <c r="J31" t="s">
-        <v>251</v>
+        <v>225</v>
       </c>
       <c r="K31" t="s">
-        <v>252</v>
+        <v>226</v>
       </c>
       <c r="L31" t="s">
-        <v>253</v>
+        <v>227</v>
       </c>
       <c r="M31" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N31" t="s">
-        <v>254</v>
+        <v>228</v>
       </c>
       <c r="O31" t="s">
-        <v>116</v>
-      </c>
-      <c r="P31" t="n">
-        <v>1</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="P31" t="s"/>
       <c r="Q31" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R31" t="n">
         <v>3</v>
       </c>
-      <c r="S31" t="n">
-        <v>1</v>
-      </c>
+      <c r="S31" t="s"/>
       <c r="T31" t="s"/>
       <c r="U31" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -3605,57 +3629,53 @@
       <c r="W31" t="s"/>
       <c r="X31" t="s"/>
       <c r="Y31" t="s">
-        <v>253</v>
+        <v>227</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
         <v>30871</v>
       </c>
-      <c r="B32" t="n">
-        <v>72760</v>
-      </c>
-      <c r="C32" t="s">
-        <v>255</v>
-      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
       <c r="D32" t="n">
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F32" t="s">
-        <v>256</v>
+        <v>229</v>
       </c>
       <c r="G32" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H32" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I32" t="s">
-        <v>257</v>
+        <v>230</v>
       </c>
       <c r="J32" t="s">
-        <v>258</v>
+        <v>231</v>
       </c>
       <c r="K32" t="s">
-        <v>259</v>
+        <v>232</v>
       </c>
       <c r="L32" t="s">
-        <v>260</v>
+        <v>233</v>
       </c>
       <c r="M32" t="n">
         <v>3</v>
       </c>
       <c r="N32" t="s">
-        <v>261</v>
+        <v>234</v>
       </c>
       <c r="O32" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="P32" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Q32" t="n">
         <v>3</v>
@@ -3668,7 +3688,7 @@
       </c>
       <c r="T32" t="s"/>
       <c r="U32" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -3676,141 +3696,121 @@
       <c r="W32" t="s"/>
       <c r="X32" t="s"/>
       <c r="Y32" t="s">
-        <v>260</v>
+        <v>233</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
         <v>30871</v>
       </c>
-      <c r="B33" t="n">
-        <v>162736</v>
-      </c>
-      <c r="C33" t="s">
-        <v>262</v>
-      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
       <c r="D33" t="n">
         <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F33" t="s">
-        <v>263</v>
+        <v>235</v>
       </c>
       <c r="G33" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H33" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I33" t="s">
-        <v>264</v>
+        <v>236</v>
       </c>
       <c r="J33" t="s">
-        <v>265</v>
-      </c>
-      <c r="K33" t="s">
-        <v>266</v>
-      </c>
-      <c r="L33" t="s">
-        <v>267</v>
-      </c>
+        <v>237</v>
+      </c>
+      <c r="K33" t="s"/>
+      <c r="L33" t="s"/>
       <c r="M33" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N33" t="s">
-        <v>261</v>
+        <v>238</v>
       </c>
       <c r="O33" t="s">
-        <v>54</v>
+        <v>108</v>
       </c>
       <c r="P33" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="Q33" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="R33" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="S33" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="T33" t="s"/>
       <c r="U33" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
       </c>
       <c r="W33" t="s"/>
       <c r="X33" t="s"/>
-      <c r="Y33" t="s">
-        <v>267</v>
-      </c>
+      <c r="Y33" t="s"/>
     </row>
     <row r="34">
       <c r="A34" t="n">
         <v>30871</v>
       </c>
-      <c r="B34" t="n">
-        <v>162737</v>
-      </c>
-      <c r="C34" t="s">
-        <v>268</v>
-      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
       <c r="D34" t="n">
         <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F34" t="s">
-        <v>269</v>
+        <v>239</v>
       </c>
       <c r="G34" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H34" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I34" t="s">
-        <v>270</v>
+        <v>240</v>
       </c>
       <c r="J34" t="s">
-        <v>271</v>
+        <v>241</v>
       </c>
       <c r="K34" t="s">
-        <v>272</v>
+        <v>242</v>
       </c>
       <c r="L34" t="s">
-        <v>273</v>
+        <v>243</v>
       </c>
       <c r="M34" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N34" t="s">
-        <v>274</v>
+        <v>244</v>
       </c>
       <c r="O34" t="s">
-        <v>79</v>
+        <v>60</v>
       </c>
       <c r="P34" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q34" t="n">
-        <v>1</v>
-      </c>
-      <c r="R34" t="n">
-        <v>3</v>
-      </c>
-      <c r="S34" t="n">
-        <v>1</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="Q34" t="s"/>
+      <c r="R34" t="s"/>
+      <c r="S34" t="s"/>
       <c r="T34" t="s"/>
       <c r="U34" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -3818,70 +3818,62 @@
       <c r="W34" t="s"/>
       <c r="X34" t="s"/>
       <c r="Y34" t="s">
-        <v>275</v>
+        <v>243</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
         <v>30871</v>
       </c>
-      <c r="B35" t="n">
-        <v>162738</v>
-      </c>
-      <c r="C35" t="s">
-        <v>276</v>
-      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
       <c r="D35" t="n">
         <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F35" t="s">
-        <v>277</v>
+        <v>245</v>
       </c>
       <c r="G35" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H35" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I35" t="s">
-        <v>278</v>
+        <v>246</v>
       </c>
       <c r="J35" t="s">
-        <v>279</v>
+        <v>247</v>
       </c>
       <c r="K35" t="s">
-        <v>280</v>
+        <v>248</v>
       </c>
       <c r="L35" t="s">
-        <v>281</v>
+        <v>249</v>
       </c>
       <c r="M35" t="n">
-        <v>5</v>
-      </c>
-      <c r="N35" t="s">
-        <v>282</v>
-      </c>
-      <c r="O35" t="s">
-        <v>79</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N35" t="s"/>
+      <c r="O35" t="s"/>
       <c r="P35" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="Q35" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="R35" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="S35" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="T35" t="s"/>
       <c r="U35" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -3889,64 +3881,56 @@
       <c r="W35" t="s"/>
       <c r="X35" t="s"/>
       <c r="Y35" t="s">
-        <v>281</v>
+        <v>250</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
         <v>30871</v>
       </c>
-      <c r="B36" t="n">
-        <v>162739</v>
-      </c>
-      <c r="C36" t="s">
-        <v>283</v>
-      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
       <c r="D36" t="n">
         <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F36" t="s">
-        <v>284</v>
+        <v>251</v>
       </c>
       <c r="G36" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H36" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I36" t="s">
-        <v>285</v>
+        <v>252</v>
       </c>
       <c r="J36" t="s">
-        <v>286</v>
+        <v>253</v>
       </c>
       <c r="K36" t="s">
-        <v>287</v>
+        <v>254</v>
       </c>
       <c r="L36" t="s">
-        <v>288</v>
+        <v>255</v>
       </c>
       <c r="M36" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N36" t="s">
-        <v>289</v>
+        <v>256</v>
       </c>
       <c r="O36" t="s">
-        <v>71</v>
-      </c>
-      <c r="P36" t="n">
-        <v>5</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="P36" t="s"/>
       <c r="Q36" t="n">
         <v>5</v>
       </c>
-      <c r="R36" t="n">
-        <v>5</v>
-      </c>
+      <c r="R36" t="s"/>
       <c r="S36" t="n">
         <v>5</v>
       </c>
@@ -3960,66 +3944,62 @@
       <c r="W36" t="s"/>
       <c r="X36" t="s"/>
       <c r="Y36" t="s">
-        <v>288</v>
+        <v>255</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
         <v>30871</v>
       </c>
-      <c r="B37" t="n">
-        <v>162740</v>
-      </c>
-      <c r="C37" t="s">
-        <v>290</v>
-      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
       <c r="D37" t="n">
         <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F37" t="s">
-        <v>291</v>
+        <v>257</v>
       </c>
       <c r="G37" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H37" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I37" t="s">
-        <v>292</v>
+        <v>258</v>
       </c>
       <c r="J37" t="s">
-        <v>293</v>
+        <v>259</v>
       </c>
       <c r="K37" t="s">
-        <v>294</v>
+        <v>260</v>
       </c>
       <c r="L37" t="s">
-        <v>295</v>
+        <v>261</v>
       </c>
       <c r="M37" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N37" t="s">
-        <v>296</v>
+        <v>262</v>
       </c>
       <c r="O37" t="s">
-        <v>116</v>
+        <v>53</v>
       </c>
       <c r="P37" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="Q37" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="R37" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="S37" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="T37" t="s"/>
       <c r="U37" t="n">
@@ -4031,70 +4011,66 @@
       <c r="W37" t="s"/>
       <c r="X37" t="s"/>
       <c r="Y37" t="s">
-        <v>295</v>
+        <v>261</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
         <v>30871</v>
       </c>
-      <c r="B38" t="n">
-        <v>162741</v>
-      </c>
-      <c r="C38" t="s">
-        <v>297</v>
-      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
       <c r="D38" t="n">
         <v>37</v>
       </c>
       <c r="E38" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F38" t="s">
-        <v>298</v>
+        <v>263</v>
       </c>
       <c r="G38" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H38" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I38" t="s">
-        <v>299</v>
+        <v>264</v>
       </c>
       <c r="J38" t="s">
-        <v>300</v>
+        <v>265</v>
       </c>
       <c r="K38" t="s">
-        <v>301</v>
+        <v>266</v>
       </c>
       <c r="L38" t="s">
-        <v>302</v>
+        <v>267</v>
       </c>
       <c r="M38" t="n">
+        <v>2</v>
+      </c>
+      <c r="N38" t="s">
+        <v>262</v>
+      </c>
+      <c r="O38" t="s">
+        <v>108</v>
+      </c>
+      <c r="P38" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>2</v>
+      </c>
+      <c r="R38" t="n">
         <v>4</v>
       </c>
-      <c r="N38" t="s">
-        <v>282</v>
-      </c>
-      <c r="O38" t="s">
-        <v>54</v>
-      </c>
-      <c r="P38" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q38" t="n">
-        <v>4</v>
-      </c>
-      <c r="R38" t="n">
-        <v>5</v>
-      </c>
       <c r="S38" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="T38" t="s"/>
       <c r="U38" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -4102,249 +4078,257 @@
       <c r="W38" t="s"/>
       <c r="X38" t="s"/>
       <c r="Y38" t="s">
-        <v>302</v>
+        <v>267</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
         <v>30871</v>
       </c>
-      <c r="B39" t="n">
-        <v>162742</v>
-      </c>
-      <c r="C39" t="s">
-        <v>303</v>
-      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
       <c r="D39" t="n">
         <v>38</v>
       </c>
       <c r="E39" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F39" t="s">
-        <v>304</v>
+        <v>268</v>
       </c>
       <c r="G39" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H39" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I39" t="s">
-        <v>305</v>
+        <v>269</v>
       </c>
       <c r="J39" t="s">
-        <v>306</v>
+        <v>270</v>
       </c>
       <c r="K39" t="s">
-        <v>307</v>
+        <v>271</v>
       </c>
       <c r="L39" t="s">
-        <v>308</v>
+        <v>272</v>
       </c>
       <c r="M39" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N39" t="s">
-        <v>309</v>
+        <v>262</v>
       </c>
       <c r="O39" t="s">
-        <v>116</v>
-      </c>
-      <c r="P39" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q39" t="n">
-        <v>1</v>
-      </c>
-      <c r="R39" t="n">
-        <v>3</v>
-      </c>
-      <c r="S39" t="n">
-        <v>1</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="P39" t="s"/>
+      <c r="Q39" t="s"/>
+      <c r="R39" t="s"/>
+      <c r="S39" t="s"/>
       <c r="T39" t="s"/>
-      <c r="U39" t="n">
-        <v>3</v>
-      </c>
+      <c r="U39" t="s"/>
       <c r="V39" t="n">
         <v>0</v>
       </c>
       <c r="W39" t="s"/>
       <c r="X39" t="s"/>
       <c r="Y39" t="s">
-        <v>308</v>
+        <v>272</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
         <v>30871</v>
       </c>
-      <c r="B40" t="n">
-        <v>162743</v>
-      </c>
-      <c r="C40" t="s">
-        <v>310</v>
-      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
       <c r="D40" t="n">
         <v>39</v>
       </c>
       <c r="E40" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F40" t="s">
-        <v>311</v>
+        <v>273</v>
       </c>
       <c r="G40" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H40" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I40" t="s">
-        <v>312</v>
+        <v>274</v>
       </c>
       <c r="J40" t="s">
-        <v>313</v>
-      </c>
-      <c r="K40" t="s"/>
-      <c r="L40" t="s"/>
-      <c r="M40" t="s"/>
-      <c r="N40" t="s"/>
-      <c r="O40" t="s"/>
-      <c r="P40" t="s"/>
-      <c r="Q40" t="s"/>
-      <c r="R40" t="s"/>
-      <c r="S40" t="s"/>
+        <v>275</v>
+      </c>
+      <c r="K40" t="s">
+        <v>276</v>
+      </c>
+      <c r="L40" t="s">
+        <v>277</v>
+      </c>
+      <c r="M40" t="n">
+        <v>4</v>
+      </c>
+      <c r="N40" t="s">
+        <v>256</v>
+      </c>
+      <c r="O40" t="s">
+        <v>108</v>
+      </c>
+      <c r="P40" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>4</v>
+      </c>
+      <c r="R40" t="n">
+        <v>4</v>
+      </c>
+      <c r="S40" t="n">
+        <v>4</v>
+      </c>
       <c r="T40" t="s"/>
-      <c r="U40" t="s"/>
+      <c r="U40" t="n">
+        <v>4</v>
+      </c>
       <c r="V40" t="n">
         <v>0</v>
+      </c>
+      <c r="W40" t="s"/>
+      <c r="X40" t="s"/>
+      <c r="Y40" t="s">
+        <v>278</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
         <v>30871</v>
       </c>
-      <c r="B41" t="n">
-        <v>162744</v>
-      </c>
-      <c r="C41" t="s">
-        <v>314</v>
-      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
       <c r="D41" t="n">
         <v>40</v>
       </c>
       <c r="E41" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F41" t="s">
-        <v>315</v>
+        <v>279</v>
       </c>
       <c r="G41" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H41" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I41" t="s">
-        <v>316</v>
+        <v>280</v>
       </c>
       <c r="J41" t="s">
-        <v>317</v>
-      </c>
-      <c r="K41" t="s"/>
-      <c r="L41" t="s"/>
+        <v>281</v>
+      </c>
+      <c r="K41" t="s">
+        <v>282</v>
+      </c>
+      <c r="L41" t="s">
+        <v>283</v>
+      </c>
       <c r="M41" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N41" t="s">
-        <v>318</v>
+        <v>284</v>
       </c>
       <c r="O41" t="s">
-        <v>116</v>
+        <v>53</v>
       </c>
       <c r="P41" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Q41" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="R41" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="S41" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="T41" t="s"/>
       <c r="U41" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
+      </c>
+      <c r="W41" t="s"/>
+      <c r="X41" t="s"/>
+      <c r="Y41" t="s">
+        <v>283</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
         <v>30871</v>
       </c>
-      <c r="B42" t="n">
-        <v>162745</v>
-      </c>
-      <c r="C42" t="s">
-        <v>319</v>
-      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
       <c r="D42" t="n">
         <v>41</v>
       </c>
       <c r="E42" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F42" t="s">
-        <v>320</v>
+        <v>285</v>
       </c>
       <c r="G42" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H42" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I42" t="s">
-        <v>321</v>
+        <v>286</v>
       </c>
       <c r="J42" t="s">
-        <v>322</v>
+        <v>287</v>
       </c>
       <c r="K42" t="s">
-        <v>323</v>
+        <v>288</v>
       </c>
       <c r="L42" t="s">
-        <v>324</v>
+        <v>289</v>
       </c>
       <c r="M42" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N42" t="s">
-        <v>325</v>
+        <v>290</v>
       </c>
       <c r="O42" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="P42" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="Q42" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R42" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="S42" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="T42" t="s"/>
       <c r="U42" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -4352,255 +4336,275 @@
       <c r="W42" t="s"/>
       <c r="X42" t="s"/>
       <c r="Y42" t="s">
-        <v>324</v>
+        <v>291</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
         <v>30871</v>
       </c>
-      <c r="B43" t="n">
-        <v>162746</v>
-      </c>
-      <c r="C43" t="s">
-        <v>326</v>
-      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
       <c r="D43" t="n">
         <v>42</v>
       </c>
       <c r="E43" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F43" t="s">
-        <v>327</v>
+        <v>292</v>
       </c>
       <c r="G43" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H43" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I43" t="s">
-        <v>328</v>
+        <v>293</v>
       </c>
       <c r="J43" t="s">
-        <v>329</v>
+        <v>294</v>
       </c>
       <c r="K43" t="s">
-        <v>330</v>
+        <v>295</v>
       </c>
       <c r="L43" t="s">
-        <v>331</v>
+        <v>296</v>
       </c>
       <c r="M43" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N43" t="s">
-        <v>332</v>
+        <v>297</v>
       </c>
       <c r="O43" t="s">
-        <v>116</v>
+        <v>53</v>
       </c>
       <c r="P43" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="Q43" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="R43" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="S43" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="T43" t="s"/>
       <c r="U43" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
-      <c r="W43" t="s"/>
-      <c r="X43" t="s"/>
+      <c r="W43" t="s">
+        <v>298</v>
+      </c>
+      <c r="X43" t="s">
+        <v>299</v>
+      </c>
       <c r="Y43" t="s">
-        <v>331</v>
+        <v>300</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
         <v>30871</v>
       </c>
-      <c r="B44" t="n">
-        <v>49922</v>
-      </c>
-      <c r="C44" t="s">
-        <v>333</v>
-      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
       <c r="D44" t="n">
         <v>43</v>
       </c>
       <c r="E44" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F44" t="s">
-        <v>334</v>
+        <v>301</v>
       </c>
       <c r="G44" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H44" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I44" t="s">
-        <v>335</v>
+        <v>302</v>
       </c>
       <c r="J44" t="s">
-        <v>336</v>
+        <v>303</v>
       </c>
       <c r="K44" t="s">
-        <v>337</v>
+        <v>304</v>
       </c>
       <c r="L44" t="s">
-        <v>338</v>
+        <v>305</v>
       </c>
       <c r="M44" t="n">
-        <v>1</v>
-      </c>
-      <c r="N44" t="s"/>
-      <c r="O44" t="s"/>
-      <c r="P44" t="s"/>
-      <c r="Q44" t="s"/>
-      <c r="R44" t="s"/>
-      <c r="S44" t="s"/>
+        <v>5</v>
+      </c>
+      <c r="N44" t="s">
+        <v>306</v>
+      </c>
+      <c r="O44" t="s">
+        <v>53</v>
+      </c>
+      <c r="P44" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>5</v>
+      </c>
+      <c r="R44" t="n">
+        <v>5</v>
+      </c>
+      <c r="S44" t="n">
+        <v>5</v>
+      </c>
       <c r="T44" t="s"/>
-      <c r="U44" t="s"/>
+      <c r="U44" t="n">
+        <v>5</v>
+      </c>
       <c r="V44" t="n">
         <v>0</v>
       </c>
-      <c r="W44" t="s"/>
-      <c r="X44" t="s"/>
+      <c r="W44" t="s">
+        <v>298</v>
+      </c>
+      <c r="X44" t="s">
+        <v>299</v>
+      </c>
       <c r="Y44" t="s">
-        <v>339</v>
+        <v>307</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
         <v>30871</v>
       </c>
-      <c r="B45" t="n">
-        <v>507</v>
-      </c>
-      <c r="C45" t="s">
-        <v>340</v>
-      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
       <c r="D45" t="n">
         <v>44</v>
       </c>
       <c r="E45" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F45" t="s">
-        <v>341</v>
+        <v>308</v>
       </c>
       <c r="G45" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H45" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I45" t="s">
-        <v>342</v>
+        <v>309</v>
       </c>
       <c r="J45" t="s">
-        <v>343</v>
+        <v>310</v>
       </c>
       <c r="K45" t="s">
-        <v>344</v>
+        <v>311</v>
       </c>
       <c r="L45" t="s">
-        <v>345</v>
+        <v>312</v>
       </c>
       <c r="M45" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N45" t="s">
-        <v>346</v>
+        <v>306</v>
       </c>
       <c r="O45" t="s">
-        <v>54</v>
-      </c>
-      <c r="P45" t="s"/>
-      <c r="Q45" t="s"/>
-      <c r="R45" t="s"/>
-      <c r="S45" t="s"/>
+        <v>100</v>
+      </c>
+      <c r="P45" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>2</v>
+      </c>
+      <c r="R45" t="n">
+        <v>2</v>
+      </c>
+      <c r="S45" t="n">
+        <v>3</v>
+      </c>
       <c r="T45" t="s"/>
-      <c r="U45" t="s"/>
+      <c r="U45" t="n">
+        <v>2</v>
+      </c>
       <c r="V45" t="n">
         <v>0</v>
       </c>
       <c r="W45" t="s"/>
       <c r="X45" t="s"/>
       <c r="Y45" t="s">
-        <v>345</v>
+        <v>312</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
         <v>30871</v>
       </c>
-      <c r="B46" t="n">
-        <v>10061</v>
-      </c>
-      <c r="C46" t="s">
-        <v>347</v>
-      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
       <c r="D46" t="n">
         <v>45</v>
       </c>
       <c r="E46" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F46" t="s">
-        <v>348</v>
+        <v>313</v>
       </c>
       <c r="G46" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H46" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I46" t="s">
-        <v>349</v>
+        <v>314</v>
       </c>
       <c r="J46" t="s">
-        <v>350</v>
+        <v>315</v>
       </c>
       <c r="K46" t="s">
-        <v>351</v>
+        <v>316</v>
       </c>
       <c r="L46" t="s">
-        <v>352</v>
+        <v>317</v>
       </c>
       <c r="M46" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N46" t="s">
-        <v>353</v>
+        <v>318</v>
       </c>
       <c r="O46" t="s">
-        <v>116</v>
-      </c>
-      <c r="P46" t="s"/>
+        <v>53</v>
+      </c>
+      <c r="P46" t="n">
+        <v>1</v>
+      </c>
       <c r="Q46" t="n">
-        <v>3</v>
-      </c>
-      <c r="R46" t="s"/>
+        <v>1</v>
+      </c>
+      <c r="R46" t="n">
+        <v>1</v>
+      </c>
       <c r="S46" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="T46" t="s"/>
       <c r="U46" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -4608,62 +4612,58 @@
       <c r="W46" t="s"/>
       <c r="X46" t="s"/>
       <c r="Y46" t="s">
-        <v>354</v>
+        <v>317</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
         <v>30871</v>
       </c>
-      <c r="B47" t="n">
-        <v>31095</v>
-      </c>
-      <c r="C47" t="s">
-        <v>355</v>
-      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
       <c r="D47" t="n">
         <v>46</v>
       </c>
       <c r="E47" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F47" t="s">
-        <v>356</v>
+        <v>319</v>
       </c>
       <c r="G47" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H47" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I47" t="s">
-        <v>357</v>
+        <v>320</v>
       </c>
       <c r="J47" t="s">
-        <v>358</v>
-      </c>
-      <c r="K47" t="s">
-        <v>359</v>
-      </c>
-      <c r="L47" t="s">
-        <v>360</v>
-      </c>
+        <v>321</v>
+      </c>
+      <c r="K47" t="s"/>
+      <c r="L47" t="s"/>
       <c r="M47" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N47" t="s">
-        <v>361</v>
+        <v>322</v>
       </c>
       <c r="O47" t="s">
-        <v>116</v>
-      </c>
-      <c r="P47" t="s"/>
+        <v>53</v>
+      </c>
+      <c r="P47" t="n">
+        <v>1</v>
+      </c>
       <c r="Q47" t="n">
-        <v>3</v>
-      </c>
-      <c r="R47" t="s"/>
+        <v>2</v>
+      </c>
+      <c r="R47" t="n">
+        <v>4</v>
+      </c>
       <c r="S47" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="T47" t="s"/>
       <c r="U47" t="n">
@@ -4674,65 +4674,65 @@
       </c>
       <c r="W47" t="s"/>
       <c r="X47" t="s"/>
-      <c r="Y47" t="s">
-        <v>360</v>
-      </c>
+      <c r="Y47" t="s"/>
     </row>
     <row r="48">
       <c r="A48" t="n">
         <v>30871</v>
       </c>
-      <c r="B48" t="n">
-        <v>162747</v>
-      </c>
-      <c r="C48" t="s">
-        <v>362</v>
-      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
       <c r="D48" t="n">
         <v>47</v>
       </c>
       <c r="E48" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F48" t="s">
-        <v>363</v>
+        <v>323</v>
       </c>
       <c r="G48" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H48" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I48" t="s">
-        <v>364</v>
+        <v>324</v>
       </c>
       <c r="J48" t="s">
-        <v>365</v>
+        <v>325</v>
       </c>
       <c r="K48" t="s">
-        <v>366</v>
+        <v>326</v>
       </c>
       <c r="L48" t="s">
-        <v>367</v>
+        <v>327</v>
       </c>
       <c r="M48" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N48" t="s">
-        <v>368</v>
+        <v>322</v>
       </c>
       <c r="O48" t="s">
-        <v>116</v>
+        <v>60</v>
       </c>
       <c r="P48" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q48" t="s"/>
-      <c r="R48" t="s"/>
-      <c r="S48" t="s"/>
+        <v>2</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>3</v>
+      </c>
+      <c r="R48" t="n">
+        <v>3</v>
+      </c>
+      <c r="S48" t="n">
+        <v>3</v>
+      </c>
       <c r="T48" t="s"/>
       <c r="U48" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V48" t="n">
         <v>0</v>
@@ -4740,66 +4740,66 @@
       <c r="W48" t="s"/>
       <c r="X48" t="s"/>
       <c r="Y48" t="s">
-        <v>369</v>
+        <v>327</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
         <v>30871</v>
       </c>
-      <c r="B49" t="n">
-        <v>162748</v>
-      </c>
-      <c r="C49" t="s">
-        <v>370</v>
-      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
       <c r="D49" t="n">
         <v>48</v>
       </c>
       <c r="E49" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F49" t="s">
-        <v>371</v>
+        <v>328</v>
       </c>
       <c r="G49" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H49" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I49" t="s">
-        <v>372</v>
+        <v>329</v>
       </c>
       <c r="J49" t="s">
-        <v>373</v>
+        <v>330</v>
       </c>
       <c r="K49" t="s">
-        <v>374</v>
+        <v>331</v>
       </c>
       <c r="L49" t="s">
-        <v>375</v>
+        <v>332</v>
       </c>
       <c r="M49" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N49" t="s">
-        <v>368</v>
+        <v>322</v>
       </c>
       <c r="O49" t="s">
-        <v>79</v>
+        <v>60</v>
       </c>
       <c r="P49" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q49" t="s"/>
+        <v>2</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>2</v>
+      </c>
       <c r="R49" t="n">
-        <v>5</v>
-      </c>
-      <c r="S49" t="s"/>
+        <v>3</v>
+      </c>
+      <c r="S49" t="n">
+        <v>3</v>
+      </c>
       <c r="T49" t="s"/>
       <c r="U49" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="V49" t="n">
         <v>0</v>
@@ -4807,7 +4807,1045 @@
       <c r="W49" t="s"/>
       <c r="X49" t="s"/>
       <c r="Y49" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>30871</v>
+      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
+      <c r="D50" t="n">
+        <v>49</v>
+      </c>
+      <c r="E50" t="s">
+        <v>44</v>
+      </c>
+      <c r="F50" t="s">
+        <v>333</v>
+      </c>
+      <c r="G50" t="s">
+        <v>46</v>
+      </c>
+      <c r="H50" t="s">
+        <v>47</v>
+      </c>
+      <c r="I50" t="s">
+        <v>334</v>
+      </c>
+      <c r="J50" t="s">
+        <v>335</v>
+      </c>
+      <c r="K50" t="s">
+        <v>336</v>
+      </c>
+      <c r="L50" t="s">
+        <v>337</v>
+      </c>
+      <c r="M50" t="n">
+        <v>2</v>
+      </c>
+      <c r="N50" t="s">
+        <v>338</v>
+      </c>
+      <c r="O50" t="s">
+        <v>86</v>
+      </c>
+      <c r="P50" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>1</v>
+      </c>
+      <c r="R50" t="n">
+        <v>3</v>
+      </c>
+      <c r="S50" t="n">
+        <v>1</v>
+      </c>
+      <c r="T50" t="s"/>
+      <c r="U50" t="n">
+        <v>2</v>
+      </c>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="s"/>
+      <c r="X50" t="s"/>
+      <c r="Y50" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>30871</v>
+      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
+      <c r="D51" t="n">
+        <v>50</v>
+      </c>
+      <c r="E51" t="s">
+        <v>44</v>
+      </c>
+      <c r="F51" t="s">
+        <v>340</v>
+      </c>
+      <c r="G51" t="s">
+        <v>46</v>
+      </c>
+      <c r="H51" t="s">
+        <v>47</v>
+      </c>
+      <c r="I51" t="s">
+        <v>341</v>
+      </c>
+      <c r="J51" t="s">
+        <v>342</v>
+      </c>
+      <c r="K51" t="s">
+        <v>343</v>
+      </c>
+      <c r="L51" t="s">
+        <v>344</v>
+      </c>
+      <c r="M51" t="n">
+        <v>5</v>
+      </c>
+      <c r="N51" t="s">
+        <v>345</v>
+      </c>
+      <c r="O51" t="s">
+        <v>86</v>
+      </c>
+      <c r="P51" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>5</v>
+      </c>
+      <c r="R51" t="n">
+        <v>5</v>
+      </c>
+      <c r="S51" t="n">
+        <v>5</v>
+      </c>
+      <c r="T51" t="s"/>
+      <c r="U51" t="n">
+        <v>5</v>
+      </c>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="s"/>
+      <c r="X51" t="s"/>
+      <c r="Y51" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>30871</v>
+      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
+      <c r="D52" t="n">
+        <v>51</v>
+      </c>
+      <c r="E52" t="s">
+        <v>44</v>
+      </c>
+      <c r="F52" t="s">
+        <v>346</v>
+      </c>
+      <c r="G52" t="s">
+        <v>46</v>
+      </c>
+      <c r="H52" t="s">
+        <v>47</v>
+      </c>
+      <c r="I52" t="s">
+        <v>347</v>
+      </c>
+      <c r="J52" t="s">
+        <v>348</v>
+      </c>
+      <c r="K52" t="s">
+        <v>349</v>
+      </c>
+      <c r="L52" t="s">
+        <v>350</v>
+      </c>
+      <c r="M52" t="n">
+        <v>5</v>
+      </c>
+      <c r="N52" t="s">
+        <v>351</v>
+      </c>
+      <c r="O52" t="s">
+        <v>108</v>
+      </c>
+      <c r="P52" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>5</v>
+      </c>
+      <c r="R52" t="n">
+        <v>5</v>
+      </c>
+      <c r="S52" t="n">
+        <v>5</v>
+      </c>
+      <c r="T52" t="s"/>
+      <c r="U52" t="n">
+        <v>5</v>
+      </c>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" t="s"/>
+      <c r="X52" t="s"/>
+      <c r="Y52" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>30871</v>
+      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
+      <c r="D53" t="n">
+        <v>52</v>
+      </c>
+      <c r="E53" t="s">
+        <v>44</v>
+      </c>
+      <c r="F53" t="s">
+        <v>352</v>
+      </c>
+      <c r="G53" t="s">
+        <v>46</v>
+      </c>
+      <c r="H53" t="s">
+        <v>47</v>
+      </c>
+      <c r="I53" t="s">
+        <v>353</v>
+      </c>
+      <c r="J53" t="s">
+        <v>354</v>
+      </c>
+      <c r="K53" t="s">
+        <v>355</v>
+      </c>
+      <c r="L53" t="s">
+        <v>356</v>
+      </c>
+      <c r="M53" t="n">
+        <v>2</v>
+      </c>
+      <c r="N53" t="s">
+        <v>357</v>
+      </c>
+      <c r="O53" t="s">
+        <v>53</v>
+      </c>
+      <c r="P53" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>4</v>
+      </c>
+      <c r="R53" t="n">
+        <v>4</v>
+      </c>
+      <c r="S53" t="n">
+        <v>4</v>
+      </c>
+      <c r="T53" t="s"/>
+      <c r="U53" t="n">
+        <v>2</v>
+      </c>
+      <c r="V53" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" t="s"/>
+      <c r="X53" t="s"/>
+      <c r="Y53" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>30871</v>
+      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
+      <c r="D54" t="n">
+        <v>53</v>
+      </c>
+      <c r="E54" t="s">
+        <v>44</v>
+      </c>
+      <c r="F54" t="s">
+        <v>358</v>
+      </c>
+      <c r="G54" t="s">
+        <v>46</v>
+      </c>
+      <c r="H54" t="s">
+        <v>47</v>
+      </c>
+      <c r="I54" t="s">
+        <v>359</v>
+      </c>
+      <c r="J54" t="s">
+        <v>360</v>
+      </c>
+      <c r="K54" t="s">
+        <v>361</v>
+      </c>
+      <c r="L54" t="s">
+        <v>362</v>
+      </c>
+      <c r="M54" t="n">
+        <v>4</v>
+      </c>
+      <c r="N54" t="s">
+        <v>345</v>
+      </c>
+      <c r="O54" t="s">
+        <v>60</v>
+      </c>
+      <c r="P54" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>4</v>
+      </c>
+      <c r="R54" t="n">
+        <v>5</v>
+      </c>
+      <c r="S54" t="n">
+        <v>4</v>
+      </c>
+      <c r="T54" t="s"/>
+      <c r="U54" t="n">
+        <v>4</v>
+      </c>
+      <c r="V54" t="n">
+        <v>0</v>
+      </c>
+      <c r="W54" t="s"/>
+      <c r="X54" t="s"/>
+      <c r="Y54" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>30871</v>
+      </c>
+      <c r="B55" t="s"/>
+      <c r="C55" t="s"/>
+      <c r="D55" t="n">
+        <v>54</v>
+      </c>
+      <c r="E55" t="s">
+        <v>44</v>
+      </c>
+      <c r="F55" t="s">
+        <v>363</v>
+      </c>
+      <c r="G55" t="s">
+        <v>46</v>
+      </c>
+      <c r="H55" t="s">
+        <v>47</v>
+      </c>
+      <c r="I55" t="s">
+        <v>364</v>
+      </c>
+      <c r="J55" t="s">
+        <v>365</v>
+      </c>
+      <c r="K55" t="s">
+        <v>366</v>
+      </c>
+      <c r="L55" t="s">
+        <v>367</v>
+      </c>
+      <c r="M55" t="n">
+        <v>1</v>
+      </c>
+      <c r="N55" t="s">
+        <v>368</v>
+      </c>
+      <c r="O55" t="s">
+        <v>53</v>
+      </c>
+      <c r="P55" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>1</v>
+      </c>
+      <c r="R55" t="n">
+        <v>3</v>
+      </c>
+      <c r="S55" t="n">
+        <v>1</v>
+      </c>
+      <c r="T55" t="s"/>
+      <c r="U55" t="n">
+        <v>3</v>
+      </c>
+      <c r="V55" t="n">
+        <v>0</v>
+      </c>
+      <c r="W55" t="s"/>
+      <c r="X55" t="s"/>
+      <c r="Y55" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>30871</v>
+      </c>
+      <c r="B56" t="s"/>
+      <c r="C56" t="s"/>
+      <c r="D56" t="n">
+        <v>55</v>
+      </c>
+      <c r="E56" t="s">
+        <v>44</v>
+      </c>
+      <c r="F56" t="s">
+        <v>369</v>
+      </c>
+      <c r="G56" t="s">
+        <v>46</v>
+      </c>
+      <c r="H56" t="s">
+        <v>47</v>
+      </c>
+      <c r="I56" t="s">
+        <v>370</v>
+      </c>
+      <c r="J56" t="s">
+        <v>371</v>
+      </c>
+      <c r="K56" t="s">
+        <v>372</v>
+      </c>
+      <c r="L56" t="s">
+        <v>373</v>
+      </c>
+      <c r="M56" t="n">
+        <v>3</v>
+      </c>
+      <c r="N56" t="s">
+        <v>374</v>
+      </c>
+      <c r="O56" t="s">
+        <v>108</v>
+      </c>
+      <c r="P56" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>3</v>
+      </c>
+      <c r="R56" t="n">
+        <v>4</v>
+      </c>
+      <c r="S56" t="n">
+        <v>3</v>
+      </c>
+      <c r="T56" t="s"/>
+      <c r="U56" t="n">
+        <v>3</v>
+      </c>
+      <c r="V56" t="n">
+        <v>0</v>
+      </c>
+      <c r="W56" t="s"/>
+      <c r="X56" t="s"/>
+      <c r="Y56" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>30871</v>
+      </c>
+      <c r="B57" t="s"/>
+      <c r="C57" t="s"/>
+      <c r="D57" t="n">
+        <v>56</v>
+      </c>
+      <c r="E57" t="s">
+        <v>44</v>
+      </c>
+      <c r="F57" t="s">
         <v>376</v>
+      </c>
+      <c r="G57" t="s">
+        <v>46</v>
+      </c>
+      <c r="H57" t="s">
+        <v>47</v>
+      </c>
+      <c r="I57" t="s">
+        <v>377</v>
+      </c>
+      <c r="J57" t="s">
+        <v>378</v>
+      </c>
+      <c r="K57" t="s"/>
+      <c r="L57" t="s"/>
+      <c r="M57" t="n">
+        <v>4</v>
+      </c>
+      <c r="N57" t="s">
+        <v>379</v>
+      </c>
+      <c r="O57" t="s">
+        <v>53</v>
+      </c>
+      <c r="P57" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>5</v>
+      </c>
+      <c r="R57" t="n">
+        <v>4</v>
+      </c>
+      <c r="S57" t="n">
+        <v>4</v>
+      </c>
+      <c r="T57" t="s"/>
+      <c r="U57" t="n">
+        <v>4</v>
+      </c>
+      <c r="V57" t="n">
+        <v>0</v>
+      </c>
+      <c r="W57" t="s"/>
+      <c r="X57" t="s"/>
+      <c r="Y57" t="s"/>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>30871</v>
+      </c>
+      <c r="B58" t="s"/>
+      <c r="C58" t="s"/>
+      <c r="D58" t="n">
+        <v>57</v>
+      </c>
+      <c r="E58" t="s">
+        <v>44</v>
+      </c>
+      <c r="F58" t="s">
+        <v>380</v>
+      </c>
+      <c r="G58" t="s">
+        <v>46</v>
+      </c>
+      <c r="H58" t="s">
+        <v>47</v>
+      </c>
+      <c r="I58" t="s">
+        <v>381</v>
+      </c>
+      <c r="J58" t="s">
+        <v>382</v>
+      </c>
+      <c r="K58" t="s">
+        <v>383</v>
+      </c>
+      <c r="L58" t="s">
+        <v>384</v>
+      </c>
+      <c r="M58" t="n">
+        <v>3</v>
+      </c>
+      <c r="N58" t="s">
+        <v>385</v>
+      </c>
+      <c r="O58" t="s">
+        <v>100</v>
+      </c>
+      <c r="P58" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q58" t="s"/>
+      <c r="R58" t="s"/>
+      <c r="S58" t="n">
+        <v>4</v>
+      </c>
+      <c r="T58" t="s"/>
+      <c r="U58" t="n">
+        <v>3</v>
+      </c>
+      <c r="V58" t="n">
+        <v>0</v>
+      </c>
+      <c r="W58" t="s"/>
+      <c r="X58" t="s"/>
+      <c r="Y58" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>30871</v>
+      </c>
+      <c r="B59" t="s"/>
+      <c r="C59" t="s"/>
+      <c r="D59" t="n">
+        <v>58</v>
+      </c>
+      <c r="E59" t="s">
+        <v>44</v>
+      </c>
+      <c r="F59" t="s">
+        <v>386</v>
+      </c>
+      <c r="G59" t="s">
+        <v>46</v>
+      </c>
+      <c r="H59" t="s">
+        <v>47</v>
+      </c>
+      <c r="I59" t="s">
+        <v>387</v>
+      </c>
+      <c r="J59" t="s">
+        <v>388</v>
+      </c>
+      <c r="K59" t="s">
+        <v>389</v>
+      </c>
+      <c r="L59" t="s">
+        <v>390</v>
+      </c>
+      <c r="M59" t="n">
+        <v>4</v>
+      </c>
+      <c r="N59" t="s">
+        <v>385</v>
+      </c>
+      <c r="O59" t="s">
+        <v>108</v>
+      </c>
+      <c r="P59" t="s"/>
+      <c r="Q59" t="s"/>
+      <c r="R59" t="s"/>
+      <c r="S59" t="s"/>
+      <c r="T59" t="s"/>
+      <c r="U59" t="s"/>
+      <c r="V59" t="n">
+        <v>0</v>
+      </c>
+      <c r="W59" t="s"/>
+      <c r="X59" t="s"/>
+      <c r="Y59" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>30871</v>
+      </c>
+      <c r="B60" t="s"/>
+      <c r="C60" t="s"/>
+      <c r="D60" t="n">
+        <v>59</v>
+      </c>
+      <c r="E60" t="s">
+        <v>44</v>
+      </c>
+      <c r="F60" t="s">
+        <v>391</v>
+      </c>
+      <c r="G60" t="s">
+        <v>46</v>
+      </c>
+      <c r="H60" t="s">
+        <v>47</v>
+      </c>
+      <c r="I60" t="s">
+        <v>392</v>
+      </c>
+      <c r="J60" t="s">
+        <v>393</v>
+      </c>
+      <c r="K60" t="s">
+        <v>394</v>
+      </c>
+      <c r="L60" t="s">
+        <v>395</v>
+      </c>
+      <c r="M60" t="n">
+        <v>5</v>
+      </c>
+      <c r="N60" t="s">
+        <v>396</v>
+      </c>
+      <c r="O60" t="s">
+        <v>60</v>
+      </c>
+      <c r="P60" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>5</v>
+      </c>
+      <c r="R60" t="n">
+        <v>5</v>
+      </c>
+      <c r="S60" t="n">
+        <v>5</v>
+      </c>
+      <c r="T60" t="s"/>
+      <c r="U60" t="n">
+        <v>5</v>
+      </c>
+      <c r="V60" t="n">
+        <v>0</v>
+      </c>
+      <c r="W60" t="s"/>
+      <c r="X60" t="s"/>
+      <c r="Y60" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>30871</v>
+      </c>
+      <c r="B61" t="s"/>
+      <c r="C61" t="s"/>
+      <c r="D61" t="n">
+        <v>60</v>
+      </c>
+      <c r="E61" t="s">
+        <v>44</v>
+      </c>
+      <c r="F61" t="s">
+        <v>397</v>
+      </c>
+      <c r="G61" t="s">
+        <v>46</v>
+      </c>
+      <c r="H61" t="s">
+        <v>47</v>
+      </c>
+      <c r="I61" t="s">
+        <v>398</v>
+      </c>
+      <c r="J61" t="s">
+        <v>399</v>
+      </c>
+      <c r="K61" t="s">
+        <v>400</v>
+      </c>
+      <c r="L61" t="s">
+        <v>401</v>
+      </c>
+      <c r="M61" t="n">
+        <v>4</v>
+      </c>
+      <c r="N61" t="s">
+        <v>402</v>
+      </c>
+      <c r="O61" t="s">
+        <v>60</v>
+      </c>
+      <c r="P61" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>4</v>
+      </c>
+      <c r="R61" t="n">
+        <v>4</v>
+      </c>
+      <c r="S61" t="n">
+        <v>4</v>
+      </c>
+      <c r="T61" t="s"/>
+      <c r="U61" t="n">
+        <v>5</v>
+      </c>
+      <c r="V61" t="n">
+        <v>0</v>
+      </c>
+      <c r="W61" t="s"/>
+      <c r="X61" t="s"/>
+      <c r="Y61" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>30871</v>
+      </c>
+      <c r="B62" t="s"/>
+      <c r="C62" t="s"/>
+      <c r="D62" t="n">
+        <v>61</v>
+      </c>
+      <c r="E62" t="s">
+        <v>44</v>
+      </c>
+      <c r="F62" t="s">
+        <v>403</v>
+      </c>
+      <c r="G62" t="s">
+        <v>46</v>
+      </c>
+      <c r="H62" t="s">
+        <v>47</v>
+      </c>
+      <c r="I62" t="s">
+        <v>404</v>
+      </c>
+      <c r="J62" t="s">
+        <v>405</v>
+      </c>
+      <c r="K62" t="s">
+        <v>406</v>
+      </c>
+      <c r="L62" t="s">
+        <v>407</v>
+      </c>
+      <c r="M62" t="n">
+        <v>3</v>
+      </c>
+      <c r="N62" t="s">
+        <v>408</v>
+      </c>
+      <c r="O62" t="s">
+        <v>86</v>
+      </c>
+      <c r="P62" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>3</v>
+      </c>
+      <c r="R62" t="n">
+        <v>5</v>
+      </c>
+      <c r="S62" t="n">
+        <v>3</v>
+      </c>
+      <c r="T62" t="s"/>
+      <c r="U62" t="n">
+        <v>3</v>
+      </c>
+      <c r="V62" t="n">
+        <v>0</v>
+      </c>
+      <c r="W62" t="s"/>
+      <c r="X62" t="s"/>
+      <c r="Y62" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>30871</v>
+      </c>
+      <c r="B63" t="s"/>
+      <c r="C63" t="s"/>
+      <c r="D63" t="n">
+        <v>62</v>
+      </c>
+      <c r="E63" t="s">
+        <v>44</v>
+      </c>
+      <c r="F63" t="s">
+        <v>410</v>
+      </c>
+      <c r="G63" t="s">
+        <v>46</v>
+      </c>
+      <c r="H63" t="s">
+        <v>47</v>
+      </c>
+      <c r="I63" t="s">
+        <v>411</v>
+      </c>
+      <c r="J63" t="s">
+        <v>412</v>
+      </c>
+      <c r="K63" t="s">
+        <v>413</v>
+      </c>
+      <c r="L63" t="s">
+        <v>414</v>
+      </c>
+      <c r="M63" t="n">
+        <v>1</v>
+      </c>
+      <c r="N63" t="s">
+        <v>415</v>
+      </c>
+      <c r="O63" t="s">
+        <v>53</v>
+      </c>
+      <c r="P63" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>1</v>
+      </c>
+      <c r="R63" t="n">
+        <v>1</v>
+      </c>
+      <c r="S63" t="n">
+        <v>1</v>
+      </c>
+      <c r="T63" t="s"/>
+      <c r="U63" t="n">
+        <v>1</v>
+      </c>
+      <c r="V63" t="n">
+        <v>0</v>
+      </c>
+      <c r="W63" t="s"/>
+      <c r="X63" t="s"/>
+      <c r="Y63" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>30871</v>
+      </c>
+      <c r="B64" t="s"/>
+      <c r="C64" t="s"/>
+      <c r="D64" t="n">
+        <v>63</v>
+      </c>
+      <c r="E64" t="s">
+        <v>44</v>
+      </c>
+      <c r="F64" t="s">
+        <v>416</v>
+      </c>
+      <c r="G64" t="s">
+        <v>46</v>
+      </c>
+      <c r="H64" t="s">
+        <v>47</v>
+      </c>
+      <c r="I64" t="s">
+        <v>417</v>
+      </c>
+      <c r="J64" t="s">
+        <v>418</v>
+      </c>
+      <c r="K64" t="s">
+        <v>419</v>
+      </c>
+      <c r="L64" t="s">
+        <v>420</v>
+      </c>
+      <c r="M64" t="n">
+        <v>1</v>
+      </c>
+      <c r="N64" t="s">
+        <v>421</v>
+      </c>
+      <c r="O64" t="s">
+        <v>53</v>
+      </c>
+      <c r="P64" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>1</v>
+      </c>
+      <c r="R64" t="n">
+        <v>1</v>
+      </c>
+      <c r="S64" t="n">
+        <v>1</v>
+      </c>
+      <c r="T64" t="s"/>
+      <c r="U64" t="n">
+        <v>1</v>
+      </c>
+      <c r="V64" t="n">
+        <v>0</v>
+      </c>
+      <c r="W64" t="s"/>
+      <c r="X64" t="s"/>
+      <c r="Y64" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>30871</v>
+      </c>
+      <c r="B65" t="s"/>
+      <c r="C65" t="s"/>
+      <c r="D65" t="n">
+        <v>64</v>
+      </c>
+      <c r="E65" t="s">
+        <v>44</v>
+      </c>
+      <c r="F65" t="s">
+        <v>422</v>
+      </c>
+      <c r="G65" t="s">
+        <v>46</v>
+      </c>
+      <c r="H65" t="s">
+        <v>47</v>
+      </c>
+      <c r="I65" t="s">
+        <v>423</v>
+      </c>
+      <c r="J65" t="s">
+        <v>424</v>
+      </c>
+      <c r="K65" t="s">
+        <v>425</v>
+      </c>
+      <c r="L65" t="s">
+        <v>426</v>
+      </c>
+      <c r="M65" t="n">
+        <v>1</v>
+      </c>
+      <c r="N65" t="s"/>
+      <c r="O65" t="s"/>
+      <c r="P65" t="s"/>
+      <c r="Q65" t="s"/>
+      <c r="R65" t="s"/>
+      <c r="S65" t="s"/>
+      <c r="T65" t="s"/>
+      <c r="U65" t="s"/>
+      <c r="V65" t="n">
+        <v>0</v>
+      </c>
+      <c r="W65" t="s"/>
+      <c r="X65" t="s"/>
+      <c r="Y65" t="s">
+        <v>427</v>
       </c>
     </row>
   </sheetData>
